--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/project-170607/projects/case_studies/user_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430F659-C7DA-0942-B176-BA5D7278F846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E989C6E-5B69-4B41-B5BB-31C8FAE5AB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{236919D7-CD01-A940-BDF2-FF56F5903D66}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,23 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>risk_layers/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/cabi_dorsalis_20April19.csv</t>
-  </si>
-  <si>
     <t>khapra beetle</t>
   </si>
   <si>
     <t>gypsy moth</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_lymantria_dispar_6June19.csv</t>
-  </si>
-  <si>
     <t>Lymantria dispar</t>
   </si>
   <si>
@@ -61,9 +57,6 @@
     <t>risk_layers/abiotic/occurrences/BMSB/cabi_halyomorpha halys_9Jun19.csv</t>
   </si>
   <si>
-    <t>Halyomorpha halys</t>
-  </si>
-  <si>
     <t>tourists, residents, torres</t>
   </si>
   <si>
@@ -152,9 +145,6 @@
   </si>
   <si>
     <t>Occurrence path</t>
-  </si>
-  <si>
-    <t>CABI path</t>
   </si>
   <si>
     <t>Exclude BIOCLIM vars</t>
@@ -679,6 +669,15 @@
   </si>
   <si>
     <t>oriental fruitfly</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_lymantria_dispar_6June19.csv</t>
+  </si>
+  <si>
+    <t>Infected countries</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/cabi_dorsalis_20April19.csv</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1202,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1215,62 +1228,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1285,6 +1255,173 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFE7E6E6"/>
@@ -1315,42 +1452,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1895,6 +2018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF835D4-5F9A-AE4A-9F33-C8B7BF91B061}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1909,28 +2033,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="23" t="b">
         <v>1</v>
@@ -1938,98 +2062,98 @@
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="25">
         <f>LN(0.5)/200</f>
@@ -2038,10 +2162,10 @@
     </row>
     <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="25">
         <f>LN(0.5)/10</f>
@@ -2051,10 +2175,10 @@
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" s="25">
         <v>10633690</v>
@@ -2063,10 +2187,10 @@
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25">
         <v>12722820</v>
@@ -2076,10 +2200,10 @@
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" s="25">
         <v>51000</v>
@@ -2088,10 +2212,10 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C17" s="25">
         <v>152000000</v>
@@ -2100,10 +2224,10 @@
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C18" s="25">
         <v>18612</v>
@@ -2112,10 +2236,10 @@
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="25">
         <v>6907</v>
@@ -2124,10 +2248,10 @@
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C20" s="25">
         <v>1216726</v>
@@ -2136,10 +2260,10 @@
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" s="25">
         <v>4475</v>
@@ -2148,10 +2272,10 @@
     </row>
     <row r="22" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C22" s="28">
         <v>15832</v>
@@ -2161,47 +2285,47 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsBlanks" dxfId="47" priority="31">
+    <cfRule type="containsBlanks" dxfId="63" priority="31">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="46" priority="29">
+    <cfRule type="containsBlanks" dxfId="62" priority="29">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="45" priority="16">
+    <cfRule type="expression" dxfId="61" priority="16">
       <formula>ISBLANK($C$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="59" priority="8">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="42" priority="13">
+    <cfRule type="expression" dxfId="58" priority="13">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="57" priority="6">
       <formula>ISBLANK($C$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="56" priority="14">
       <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>ISBLANK($C$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2544,7 +2668,8 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D738B5-D0EE-C044-83A0-D9C8F02CE7C0}">
-  <dimension ref="A1:Z6"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2585,88 +2710,88 @@
   <sheetData>
     <row r="1" spans="1:26" s="38" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="O1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="P1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="S1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="W1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="Y1" s="36" t="s">
         <v>49</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="Z1" s="37"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="b">
         <v>1</v>
@@ -2678,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" s="18">
         <v>1970</v>
@@ -2691,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -2722,10 +2847,10 @@
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>0</v>
@@ -2737,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2780,10 +2905,10 @@
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
@@ -2795,20 +2920,20 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
         <v>1970</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -2840,10 +2965,10 @@
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
@@ -2855,20 +2980,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1970</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" s="5">
         <f>0.000002381577*30/45</f>
@@ -2901,122 +3022,194 @@
       </c>
       <c r="Z5" s="29"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D6" s="4"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B2:I1048576 N2:Y1048576">
-    <cfRule type="containsBlanks" dxfId="20" priority="291">
-      <formula>LEN(TRIM(B2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="19" priority="43">
-      <formula>AND(NOT(ISBLANK($A2)),$E2 = TRUE, ISBLANK($G2))</formula>
+    <cfRule type="expression" dxfId="36" priority="67">
+      <formula>ISBLANK($G2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$E2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="18" priority="56">
-      <formula>AND(NOT(ISBLANK($A2)),ISBLANK($F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="17" priority="83">
-      <formula>AND($C2=TRUE, ISBLANK($H2), NOT(ISBLANK($A2)), ISBLANK($J2))</formula>
+    <cfRule type="expression" dxfId="35" priority="80">
+      <formula>ISBLANK($F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1048576 J2:J1048576 L2:L1048576">
+    <cfRule type="expression" dxfId="34" priority="107">
+      <formula>AND(ISBLANK($H2), ISBLANK($J2), ISBLANK($L2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="16" priority="84">
-      <formula>AND($C2=TRUE, ISBLANK($I2), NOT(ISBLANK($A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>AND(NOT(ISBLANK($A2)),$C2=TRUE,ISBLANK($H2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>OR(ISBLANK($A2), $C2=FALSE)</formula>
+    <cfRule type="expression" dxfId="33" priority="15">
+      <formula>ISBLANK($H2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>OR(ISBLANK($A2), $C2=FALSE)</formula>
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>OR($C2=FALSE, AND(ISBLANK($H2), ISBLANK($J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="12" priority="258">
-      <formula>AND(SEARCH("vessels",$B2), ISBLANK($S2))</formula>
+    <cfRule type="expression" dxfId="31" priority="9">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="282">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($S2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>OR(ISBLANK($A2),$C2=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="expression" dxfId="10" priority="281">
-      <formula>OR(ISBLANK($A2),$C2=FALSE,NOT(ISBLANK($L2)))</formula>
+  <conditionalFormatting sqref="H2:K1048576 M2:M1048576">
+    <cfRule type="expression" dxfId="28" priority="305">
+      <formula>NOT(ISBLANK($L2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="9" priority="131">
-      <formula>AND(SEARCH("residents",$B2), ISBLANK($O2))</formula>
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>NOT(ISNUMBER(SEARCH("residents", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="155">
+      <formula>AND(ISNUMBER(SEARCH("residents",$B2)), ISBLANK($O2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="8" priority="282">
-      <formula>AND(SEARCH("torres",$B2), ISBLANK($P2))</formula>
+    <cfRule type="expression" dxfId="25" priority="12">
+      <formula>NOT(ISNUMBER(SEARCH("torres", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="306">
+      <formula>AND(ISNUMBER(SEARCH("torres",$B2)), ISBLANK($P2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="7" priority="283">
+    <cfRule type="expression" dxfId="23" priority="11">
+      <formula>NOT(ISNUMBER(SEARCH("mail", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="307">
       <formula>AND(SEARCH("mail",$B2), ISBLANK($Q2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="6" priority="285">
-      <formula>AND(SEARCH("vessels",$B2), ISBLANK($R2))</formula>
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="309">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($R2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="5" priority="286">
-      <formula>AND(SEARCH("fert",$B2), ISBLANK($T2))</formula>
+    <cfRule type="expression" dxfId="19" priority="8">
+      <formula>NOT(ISNUMBER(SEARCH("fert", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="310">
+      <formula>AND(ISNUMBER(SEARCH("fert",$B2)), ISBLANK($T2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="expression" dxfId="4" priority="287">
-      <formula>AND(SEARCH("machine",$B2), ISBLANK($U2))</formula>
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>NOT(ISNUMBER(SEARCH("machine", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="311">
+      <formula>AND(ISNUMBER(SEARCH("machine",$B2)), ISBLANK($U2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="3" priority="288">
-      <formula>AND(SEARCH("container",$B2), ISBLANK($V2))</formula>
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>NOT(ISNUMBER(SEARCH("container", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="312">
+      <formula>AND(ISNUMBER(SEARCH("container",$B2)), ISBLANK($V2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="2" priority="289">
-      <formula>AND(SEARCH("nursery",$B2), ISBLANK($W2))</formula>
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>NOT(ISNUMBER(SEARCH("nursery", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="313">
+      <formula>AND(ISNUMBER(SEARCH("nursery",$B2)), ISBLANK($W2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="1" priority="290">
-      <formula>AND(SEARCH("food",$B2), ISBLANK($X2))</formula>
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>NOT(ISNUMBER(SEARCH("food", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="314">
+      <formula>AND(ISNUMBER(SEARCH("food",$B2)), ISBLANK($X2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(SEARCH("tourists",$B2), ISBLANK($N2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="48">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>NOT(ISNUMBER(SEARCH("tourists",$B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="25">
+      <formula>AND(ISNUMBER(SEARCH("tourists",$B2)), ISBLANK($N2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="7" priority="24">
+      <formula>OR(ISBLANK($A4), $C4=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="expression" dxfId="6" priority="21">
+      <formula>ISBLANK($B2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:Y1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>ISBLANK($A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="4" priority="20">
+      <formula>ISBLANK($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>ISBLANK($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>ISBLANK($E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:M1048576">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$C2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="45">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="F1" xr:uid="{610A6EDE-65F2-9448-845D-1D9D26647888}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1" xr:uid="{AD160B45-C62D-E948-B89F-CBE0E706C1DD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C1" xr:uid="{8A54E1E1-25E5-4A4C-A35B-02A189BDAE39}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="D1" xr:uid="{74C7EF83-30DD-F948-9522-90AFB2FCEC74}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="E1" xr:uid="{893B753C-83F4-644D-BD7E-F6B39072EB1E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="G1" xr:uid="{41980E33-1E39-AD45-8F05-868D6600E067}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="I1" xr:uid="{A33E5C3F-FEB5-E142-9E77-829BE9CDC095}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="N1" xr:uid="{7D0C5A9D-2B24-5E4B-B142-62EC654E71D3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="O1" xr:uid="{BFE515ED-E47C-8E4A-A50B-35E2286ACF32}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="P1" xr:uid="{0A697F1D-F494-C347-95D9-E59F4C6C383A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="Q1" xr:uid="{399C1480-40E4-5A41-A2FF-2E4F826C4DEE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="R1" xr:uid="{1BBA7A75-F6E1-4F47-BC5E-4B3FDC509E65}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="S1" xr:uid="{12F7F3FA-47A2-8B43-B105-3D925A1D9D46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="T1" xr:uid="{14C39FAF-9B97-1543-B73A-260E86BB654B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="U1" xr:uid="{9FFB111A-9910-744C-B50F-00F7A89B9CA3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="V1" xr:uid="{E6D7E48A-15CD-1A4F-BAD7-13A132F3D69F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="W1" xr:uid="{34153A47-9E0E-4F4D-B565-CC6104D4CF6D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per unit of food." sqref="X1" xr:uid="{DDEBC040-5553-4841-9E5B-5FB894300E90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A2:A1048576" xr:uid="{F8431168-FF74-CF44-A9C3-C9F4FDBC2E6C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="F1" xr:uid="{610A6EDE-65F2-9448-845D-1D9D26647888}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C2:C1048576" xr:uid="{B5EAF5EE-6EE5-6B49-99E2-F42D5D06C580}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset." sqref="J1:J1048576" xr:uid="{344DBD62-32DD-2640-814E-8FECEF8AE89F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried." sqref="H1:H1048576" xr:uid="{867EBE5D-A33C-8641-98B7-84DD0D595AEA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset. Ignored if &quot;Climate suitability path&quot; is provided." sqref="J1:J1048576" xr:uid="{344DBD62-32DD-2640-814E-8FECEF8AE89F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="H1:H1048576" xr:uid="{867EBE5D-A33C-8641-98B7-84DD0D595AEA}"/>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="Q2:Q1048576" xr:uid="{77FCB406-D2F1-BD40-8A66-E8D4EB673AEF}">
       <formula1>0</formula1>
     </dataValidation>
@@ -3041,12 +3234,10 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per unit of food." sqref="X2:X1048576" xr:uid="{F4D6DD70-484B-8F4C-8022-F92827712D2D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, or if less than or equal to 1000, the default value of 5000 will be used." sqref="Y1" xr:uid="{5D1E5874-099E-9046-99E1-7D5AE01B1EEA}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="D2:D1048576" xr:uid="{4885AF70-80FE-5741-BB46-A0C58FDF8CF8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS classes" prompt="Comma-separated NVIS MVG classes (e.g. 1,2,3,5)." sqref="Y1" xr:uid="{D6F9B4AA-1732-254B-BD34-C3458D51A615}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CABI file path" prompt="File path (absolute or relative to working directory) to the CABI csv file." sqref="K1:K1048576 Y1" xr:uid="{1102FFA6-1227-9743-9757-11E831420417}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Infected countries" prompt="Either a comma-separated string containing country names, or a file path (absolute or relative to working directory) to a CABI pest data sheet csv file. _x000a__x000a_If provided, occurrence records are verified against the provided data, to ensure that all records a" sqref="K1:K1048576" xr:uid="{1102FFA6-1227-9743-9757-11E831420417}"/>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="J2:K1048576" xr:uid="{6FD266E6-D30F-E140-8841-0CC016C4626A}">
       <formula1>0</formula1>
     </dataValidation>
@@ -3067,30 +3258,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="P2:P1048576" xr:uid="{36BBB07A-382B-294E-8FD2-7455864CB2E2}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Aggregation resolution" prompt="An aggregation resolution (in metres)_x000a__x000a_DEFAULT: 5000 (5km)" sqref="Y1" xr:uid="{4F655586-D61C-B549-987D-5F3431414882}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1" xr:uid="{AD160B45-C62D-E948-B89F-CBE0E706C1DD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C1" xr:uid="{8A54E1E1-25E5-4A4C-A35B-02A189BDAE39}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="D1" xr:uid="{74C7EF83-30DD-F948-9522-90AFB2FCEC74}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="E1" xr:uid="{893B753C-83F4-644D-BD7E-F6B39072EB1E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="G1" xr:uid="{41980E33-1E39-AD45-8F05-868D6600E067}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="I1" xr:uid="{A33E5C3F-FEB5-E142-9E77-829BE9CDC095}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="M1:M1048576" xr:uid="{A215B8BE-50BD-544B-BB88-017607D43B99}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="N1" xr:uid="{7D0C5A9D-2B24-5E4B-B142-62EC654E71D3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="O1" xr:uid="{BFE515ED-E47C-8E4A-A50B-35E2286ACF32}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="P1" xr:uid="{0A697F1D-F494-C347-95D9-E59F4C6C383A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="Q1" xr:uid="{399C1480-40E4-5A41-A2FF-2E4F826C4DEE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="R1" xr:uid="{1BBA7A75-F6E1-4F47-BC5E-4B3FDC509E65}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="S1" xr:uid="{12F7F3FA-47A2-8B43-B105-3D925A1D9D46}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="T1" xr:uid="{14C39FAF-9B97-1543-B73A-260E86BB654B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="U1" xr:uid="{9FFB111A-9910-744C-B50F-00F7A89B9CA3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="V1" xr:uid="{E6D7E48A-15CD-1A4F-BAD7-13A132F3D69F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="W1" xr:uid="{34153A47-9E0E-4F4D-B565-CC6104D4CF6D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per unit of food." sqref="X1" xr:uid="{DDEBC040-5553-4841-9E5B-5FB894300E90}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be either blank or else a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, or if less than or equal to 1000, the default value of 5000 will be used." sqref="Y2:Y1048576" xr:uid="{835B285B-8DD4-A24D-B7F3-92BE814D9770}">
-      <formula1>MOD(AY3,1000)=0</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="CABI file path" prompt="File path (absolute or relative to working directory) to the CABI csv file." sqref="F2:F1048576" xr:uid="{1CBF3D45-3CF8-6645-AD64-572A122AD92A}">
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(F2,ROW(INDIRECT("1:"&amp;LEN(F2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
@@ -3101,6 +3269,9 @@
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="L1:L1048576" xr:uid="{480B32ED-B00C-3F4B-AE28-DF01A191FCC5}"/>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="Y1:Y1048576" xr:uid="{D738A470-664E-C741-8411-D92C81327D2C}">
+      <formula1>AND($Y1 &gt;= 1000, MOD($Y1, 1000)=0)</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/project-170607/projects/case_studies/user_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E989C6E-5B69-4B41-B5BB-31C8FAE5AB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362E90A-1FDD-8342-9E34-21E4E07363F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{236919D7-CD01-A940-BDF2-FF56F5903D66}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{236919D7-CD01-A940-BDF2-FF56F5903D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Global parameters" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>risk_layers/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>vessels, machinery, container</t>
-  </si>
-  <si>
-    <t>tourists, residents, machinery, nursery, food</t>
   </si>
   <si>
     <t>Bactrocera dorsalis, Bactrocera invadens, Bactrocera papayae, Bactrocera philippinensis</t>
@@ -468,9 +465,6 @@
     </r>
   </si>
   <si>
-    <t>340-342, 344, 345, 347-351, 353, 365, 440-442, 444, 445, 447-451, 453, 540-544</t>
-  </si>
-  <si>
     <t>520-524, 526-528, 530-534, 538, 540-545, 574</t>
   </si>
   <si>
@@ -642,8 +636,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Total volume of food arriving in Australia per annum (</t>
+    <t>oriental fruitfly</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_lymantria_dispar_6June19.csv</t>
+  </si>
+  <si>
+    <t>Infected countries</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/cabi_dorsalis_20April19.csv</t>
+  </si>
+  <si>
+    <t>340-345, 347-351, 353, 365, 440-445, 447-451, 453, 465, 540-544</t>
+  </si>
+  <si>
+    <t>Prob goods</t>
+  </si>
+  <si>
+    <t>tourists, residents, machinery, nursery, goods</t>
+  </si>
+  <si>
+    <t>Total goods</t>
+  </si>
+  <si>
+    <r>
+      <t>Total volume of goods arriving in Australia per annum (</t>
     </r>
     <r>
       <rPr>
@@ -654,7 +672,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>food</t>
+      <t>goods</t>
     </r>
     <r>
       <rPr>
@@ -668,16 +686,7 @@
     </r>
   </si>
   <si>
-    <t>oriental fruitfly</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_lymantria_dispar_6June19.csv</t>
-  </si>
-  <si>
-    <t>Infected countries</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/cabi_dorsalis_20April19.csv</t>
+    <t>Total volume of fresh foods arriving in Australia per annum (foods pathway)</t>
   </si>
 </sst>
 </file>
@@ -745,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1014,11 +1023,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,18 +1249,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <fill>
         <patternFill>
@@ -1228,6 +1285,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1248,13 +1326,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1289,6 +1360,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1474,6 +1548,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2019,7 +2100,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF835D4-5F9A-AE4A-9F33-C8B7BF91B061}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2033,28 +2114,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="23" t="b">
         <v>1</v>
@@ -2062,98 +2143,98 @@
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="25">
         <f>LN(0.5)/200</f>
@@ -2162,10 +2243,10 @@
     </row>
     <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="25">
         <f>LN(0.5)/10</f>
@@ -2175,10 +2256,10 @@
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25">
         <v>10633690</v>
@@ -2187,10 +2268,10 @@
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="25">
         <v>12722820</v>
@@ -2200,10 +2281,10 @@
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="25">
         <v>51000</v>
@@ -2212,10 +2293,10 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="25">
         <v>152000000</v>
@@ -2224,10 +2305,10 @@
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="25">
         <v>18612</v>
@@ -2236,10 +2317,10 @@
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="25">
         <v>6907</v>
@@ -2248,10 +2329,10 @@
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="25">
         <v>1216726</v>
@@ -2260,76 +2341,88 @@
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="25">
         <v>4475</v>
       </c>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="28">
+    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="54">
         <v>15832</v>
       </c>
       <c r="J22" s="26"/>
     </row>
+    <row r="23" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="28">
+        <f>4*3864976</f>
+        <v>15459904</v>
+      </c>
+      <c r="J23" s="26"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsBlanks" dxfId="63" priority="31">
+    <cfRule type="containsBlanks" dxfId="65" priority="31">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="62" priority="29">
+    <cfRule type="containsBlanks" dxfId="64" priority="29">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="61" priority="16">
+    <cfRule type="expression" dxfId="63" priority="16">
       <formula>ISBLANK($C$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="60" priority="12">
+    <cfRule type="expression" dxfId="62" priority="12">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="59" priority="8">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="58" priority="13">
+    <cfRule type="expression" dxfId="60" priority="13">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="57" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>ISBLANK($C$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="56" priority="14">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>ISBLANK($C$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="32">
+  <dataValidations count="35">
     <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C13" xr:uid="{E0754A1A-56A1-0F4E-B3F5-F1BC5ED3C00B}">
       <formula1>0</formula1>
     </dataValidation>
@@ -2355,8 +2448,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="A18:B18" xr:uid="{F14EE191-4689-1A47-BC93-2058938AF449}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="A19:B19" xr:uid="{C76B17BB-B0E2-884D-9EEE-127080AE7513}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="A20:B20" xr:uid="{07B35AE6-1FD0-A246-A699-4A228631433F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="A21:B21" xr:uid="{37AE5199-8030-F14C-89C0-9E545DAB410D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total food volume" prompt="Total volume of food entering Australia." sqref="A22:B22" xr:uid="{FEDA9928-A834-F34C-8C33-9B203A66F7DD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="A21 B21" xr:uid="{37AE5199-8030-F14C-89C0-9E545DAB410D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="B23" xr:uid="{FEDA9928-A834-F34C-8C33-9B203A66F7DD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A7:C7" xr:uid="{6BB1B62B-72FC-1249-82C1-17CA3D520CA6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A9:C9" xr:uid="{DE662AD5-4431-DB43-9BDC-06A1A22D78D0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A10:C10" xr:uid="{D2DEC716-59BE-0241-9E4B-D7A33D079805}"/>
@@ -2385,9 +2478,14 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="C21" xr:uid="{DBAF1735-E114-6543-8269-DA7DAB886E5F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total food" error="Must be a whole number greater than or equal to 0." promptTitle="Total food volume" prompt="Total volume of food entering Australia." sqref="C22" xr:uid="{6E1746A6-DD63-C74D-95D0-29665BEEA790}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total food" error="Must be a whole number greater than or equal to 0." promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="C23" xr:uid="{6E1746A6-DD63-C74D-95D0-29665BEEA790}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="A22 B22" xr:uid="{C683FAD7-D8F5-9B45-98D1-5122B274E181}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="C22" xr:uid="{43C580EA-AEDD-714E-824E-A451E2FD49DB}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="A23" xr:uid="{C42AF866-7646-4545-9743-6D0E0F0424D5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2551,11 +2649,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C21</xm:sqref>
+          <xm:sqref>C21:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="17" id="{5347420B-A3B2-5A47-BB20-A3048FE54346}">
-            <xm:f>AND(ISBLANK($C$22), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "food" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$23), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "food" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2567,7 +2665,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C22</xm:sqref>
+          <xm:sqref>C23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="15" id="{41CEDCF0-5684-1847-B5BF-7ECDF326BB08}">
@@ -2669,7 +2767,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D738B5-D0EE-C044-83A0-D9C8F02CE7C0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2702,93 +2800,97 @@
     <col min="21" max="21" width="14.5" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="11"/>
-    <col min="24" max="24" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5" style="30"/>
-    <col min="27" max="16384" width="16.5" style="10"/>
+    <col min="24" max="24" width="12.1640625" style="11" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" style="30"/>
+    <col min="28" max="16384" width="16.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="38" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="38" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="N1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="34" t="s">
+      <c r="Z1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -2803,11 +2905,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="18">
         <v>1970</v>
@@ -2816,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -2840,17 +2942,18 @@
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
-      <c r="Y2" s="21">
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="21">
         <v>5000</v>
       </c>
-      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>0</v>
@@ -2862,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2898,12 +3001,13 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="13">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="13">
         <v>5000</v>
       </c>
-      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2920,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>3</v>
@@ -2933,7 +3037,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -2944,8 +3048,8 @@
         <v>3.4547603696539868E-5</v>
       </c>
       <c r="S4" s="6">
-        <f>LN(0.5)/10</f>
-        <v>-6.9314718055994526E-2</v>
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5">
@@ -2958,17 +3062,18 @@
       </c>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-      <c r="Y4" s="13">
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="13">
         <v>5000</v>
       </c>
-      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
     </row>
-    <row r="5" spans="1:26" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
@@ -2980,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -3013,179 +3118,187 @@
         <f>2/4475</f>
         <v>4.4692737430167598E-4</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5">
         <f>2/15832</f>
         <v>1.2632642748863063E-4</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Z5" s="13">
         <v>5000</v>
       </c>
-      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="36" priority="67">
+    <cfRule type="expression" dxfId="38" priority="4">
+      <formula>$E2=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="69">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="expression" dxfId="36" priority="82">
+      <formula>ISBLANK($F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1048576 J2:J1048576 L2:L1048576">
+    <cfRule type="expression" dxfId="35" priority="109">
+      <formula>AND(ISBLANK($H2), ISBLANK($J2), ISBLANK($L2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="expression" dxfId="34" priority="17">
+      <formula>ISBLANK($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K1048576">
+    <cfRule type="expression" dxfId="33" priority="41">
+      <formula>OR($C2=FALSE, AND(ISBLANK($H2), ISBLANK($J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S1048576">
+    <cfRule type="expression" dxfId="32" priority="11">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="284">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($S2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L1048576">
+    <cfRule type="expression" dxfId="30" priority="28">
+      <formula>OR(ISBLANK($A2),$C2=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K1048576 M2:M1048576">
+    <cfRule type="expression" dxfId="29" priority="307">
+      <formula>NOT(ISBLANK($L2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="expression" dxfId="28" priority="15">
+      <formula>NOT(ISNUMBER(SEARCH("residents", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="157">
+      <formula>AND(ISNUMBER(SEARCH("residents",$B2)), ISBLANK($O2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>NOT(ISNUMBER(SEARCH("torres", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="308">
+      <formula>AND(ISNUMBER(SEARCH("torres",$B2)), ISBLANK($P2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q1048576">
+    <cfRule type="expression" dxfId="24" priority="13">
+      <formula>NOT(ISNUMBER(SEARCH("mail", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="309">
+      <formula>AND(SEARCH("mail",$B2), ISBLANK($Q2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R1048576">
+    <cfRule type="expression" dxfId="22" priority="12">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="311">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($R2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T1048576">
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>NOT(ISNUMBER(SEARCH("fert", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="312">
+      <formula>AND(ISNUMBER(SEARCH("fert",$B2)), ISBLANK($T2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U1048576">
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>NOT(ISNUMBER(SEARCH("machine", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="313">
+      <formula>AND(ISNUMBER(SEARCH("machine",$B2)), ISBLANK($U2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V1048576">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>NOT(ISNUMBER(SEARCH("container", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="314">
+      <formula>AND(ISNUMBER(SEARCH("container",$B2)), ISBLANK($V2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y1048576">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>NOT(ISNUMBER(SEARCH("goods", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="316">
+      <formula>AND(ISNUMBER(SEARCH("goods",$B2)), ISBLANK($Y2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N1048576">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>NOT(ISNUMBER(SEARCH("tourists",$B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="27">
+      <formula>AND(ISNUMBER(SEARCH("tourists",$B2)), ISBLANK($N2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="10" priority="26">
+      <formula>OR(ISBLANK($A4), $C4=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="expression" dxfId="9" priority="23">
+      <formula>ISBLANK($B2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:Z1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>ISBLANK($A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="7" priority="22">
+      <formula>ISBLANK($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="expression" dxfId="6" priority="24">
+      <formula>ISBLANK($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="expression" dxfId="5" priority="20">
+      <formula>ISBLANK($E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:M1048576">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W1048576">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>NOT(ISNUMBER(SEARCH("nursery", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="315">
+      <formula>AND(ISNUMBER(SEARCH("nursery",$B2)), ISBLANK($W2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X1048576">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(ISNUMBER(SEARCH("food",$B2)), ISBLANK($X2))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$E2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="35" priority="80">
-      <formula>ISBLANK($F2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048576 J2:J1048576 L2:L1048576">
-    <cfRule type="expression" dxfId="34" priority="107">
-      <formula>AND(ISBLANK($H2), ISBLANK($J2), ISBLANK($L2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="33" priority="15">
-      <formula>ISBLANK($H2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>OR($C2=FALSE, AND(ISBLANK($H2), ISBLANK($J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="31" priority="9">
-      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="282">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($S2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="29" priority="26">
-      <formula>OR(ISBLANK($A2),$C2=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:K1048576 M2:M1048576">
-    <cfRule type="expression" dxfId="28" priority="305">
-      <formula>NOT(ISBLANK($L2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="27" priority="13">
-      <formula>NOT(ISNUMBER(SEARCH("residents", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="155">
-      <formula>AND(ISNUMBER(SEARCH("residents",$B2)), ISBLANK($O2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="25" priority="12">
-      <formula>NOT(ISNUMBER(SEARCH("torres", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="306">
-      <formula>AND(ISNUMBER(SEARCH("torres",$B2)), ISBLANK($P2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="23" priority="11">
-      <formula>NOT(ISNUMBER(SEARCH("mail", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="307">
-      <formula>AND(SEARCH("mail",$B2), ISBLANK($Q2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="21" priority="10">
-      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="309">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($R2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="19" priority="8">
-      <formula>NOT(ISNUMBER(SEARCH("fert", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="310">
-      <formula>AND(ISNUMBER(SEARCH("fert",$B2)), ISBLANK($T2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="expression" dxfId="17" priority="7">
-      <formula>NOT(ISNUMBER(SEARCH("machine", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="311">
-      <formula>AND(ISNUMBER(SEARCH("machine",$B2)), ISBLANK($U2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>NOT(ISNUMBER(SEARCH("container", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="312">
-      <formula>AND(ISNUMBER(SEARCH("container",$B2)), ISBLANK($V2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>NOT(ISNUMBER(SEARCH("nursery", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="313">
-      <formula>AND(ISNUMBER(SEARCH("nursery",$B2)), ISBLANK($W2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="11" priority="4">
       <formula>NOT(ISNUMBER(SEARCH("food", $B2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="314">
-      <formula>AND(ISNUMBER(SEARCH("food",$B2)), ISBLANK($X2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>NOT(ISNUMBER(SEARCH("tourists",$B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="25">
-      <formula>AND(ISNUMBER(SEARCH("tourists",$B2)), ISBLANK($N2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="7" priority="24">
-      <formula>OR(ISBLANK($A4), $C4=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="6" priority="21">
-      <formula>ISBLANK($B2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Y1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>ISBLANK($A2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="4" priority="20">
-      <formula>ISBLANK($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>ISBLANK($D2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>ISBLANK($E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$C2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="45">
+  </conditionalFormatting>
+  <dataValidations count="48">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="F1" xr:uid="{610A6EDE-65F2-9448-845D-1D9D26647888}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1" xr:uid="{AD160B45-C62D-E948-B89F-CBE0E706C1DD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C1" xr:uid="{8A54E1E1-25E5-4A4C-A35B-02A189BDAE39}"/>
@@ -3203,7 +3316,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="U1" xr:uid="{9FFB111A-9910-744C-B50F-00F7A89B9CA3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="V1" xr:uid="{E6D7E48A-15CD-1A4F-BAD7-13A132F3D69F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="W1" xr:uid="{34153A47-9E0E-4F4D-B565-CC6104D4CF6D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per unit of food." sqref="X1" xr:uid="{DDEBC040-5553-4841-9E5B-5FB894300E90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Y1" xr:uid="{DDEBC040-5553-4841-9E5B-5FB894300E90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A2:A1048576" xr:uid="{F8431168-FF74-CF44-A9C3-C9F4FDBC2E6C}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C2:C1048576" xr:uid="{B5EAF5EE-6EE5-6B49-99E2-F42D5D06C580}">
       <formula1>"TRUE,FALSE"</formula1>
@@ -3231,7 +3344,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="W2:W1048576" xr:uid="{C098445D-3F03-A345-B8C0-17D8CCC3C159}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per unit of food." sqref="X2:X1048576" xr:uid="{F4D6DD70-484B-8F4C-8022-F92827712D2D}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Y2:Y1048576" xr:uid="{F4D6DD70-484B-8F4C-8022-F92827712D2D}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="D2:D1048576" xr:uid="{4885AF70-80FE-5741-BB46-A0C58FDF8CF8}">
@@ -3241,7 +3354,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="J2:K1048576" xr:uid="{6FD266E6-D30F-E140-8841-0CC016C4626A}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B1:B1048576" xr:uid="{0A63DA24-38A1-3843-A720-47364E20527C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B2:B1048576" xr:uid="{0A63DA24-38A1-3843-A720-47364E20527C}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="E2:E1048576" xr:uid="{9BD9BDED-3BB9-CE48-804B-E25C909FAD17}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -3269,9 +3382,14 @@
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="L1:L1048576" xr:uid="{480B32ED-B00C-3F4B-AE28-DF01A191FCC5}"/>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="Y1:Y1048576" xr:uid="{D738A470-664E-C741-8411-D92C81327D2C}">
-      <formula1>AND($Y1 &gt;= 1000, MOD($Y1, 1000)=0)</formula1>
-    </dataValidation>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="Z1:Z1048576" xr:uid="{D738A470-664E-C741-8411-D92C81327D2C}">
+      <formula1>AND($Z1 &gt;= 1000, MOD($Z1, 1000)=0)</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="X1" xr:uid="{EA69C604-14E3-824E-AC96-8EBCAB1F127B}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="X2:X1048576" xr:uid="{38477FC1-7814-BD4C-B77B-1DF8DEB88B39}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B1" xr:uid="{5889E747-253F-734B-BB7B-A11D6893348C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/project-170607/projects/case_studies/user_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/edmaps-github/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362E90A-1FDD-8342-9E34-21E4E07363F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6196267C-8105-4742-B409-1A5F0F5575F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{236919D7-CD01-A940-BDF2-FF56F5903D66}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>risk_layers/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
   </si>
@@ -687,6 +687,18 @@
   </si>
   <si>
     <t>Total volume of fresh foods arriving in Australia per annum (foods pathway)</t>
+  </si>
+  <si>
+    <t>GBIF username</t>
+  </si>
+  <si>
+    <t>Username for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
+  </si>
+  <si>
+    <t>GBIF password</t>
+  </si>
+  <si>
+    <t>Password for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
   </si>
 </sst>
 </file>
@@ -754,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1065,11 +1077,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1262,18 +1305,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1287,6 +1333,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1601,6 +1654,26 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2100,9 +2173,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF835D4-5F9A-AE4A-9F33-C8B7BF91B061}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2141,390 +2214,388 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="57"/>
     </row>
-    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>60</v>
-      </c>
+    <row r="5" spans="1:10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B13" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B14" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C14" s="25">
         <f>LN(0.5)/200</f>
         <v>-3.4657359027997266E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B15" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C15" s="25">
         <f>LN(0.5)/10</f>
         <v>-6.9314718055994526E-2</v>
       </c>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="25">
-        <v>10633690</v>
-      </c>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="25">
-        <v>12722820</v>
-      </c>
-      <c r="E15" s="27"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25">
-        <v>51000</v>
+        <v>10633690</v>
       </c>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C17" s="25">
-        <v>152000000</v>
-      </c>
+        <v>12722820</v>
+      </c>
+      <c r="E17" s="27"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="25">
-        <v>18612</v>
+        <v>51000</v>
       </c>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="25">
-        <v>6907</v>
+        <v>152000000</v>
       </c>
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="25">
-        <v>1216726</v>
+        <v>18612</v>
       </c>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="25">
-        <v>4475</v>
+        <v>6907</v>
       </c>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="54">
-        <v>15832</v>
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1216726</v>
       </c>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="25">
+        <v>4475</v>
+      </c>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="54">
+        <v>15832</v>
+      </c>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B25" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C25" s="28">
         <f>4*3864976</f>
         <v>15459904</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J25" s="26"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="containsBlanks" dxfId="67" priority="33">
+      <formula>LEN(TRIM(C6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsBlanks" dxfId="66" priority="31">
+      <formula>LEN(TRIM(C3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="65" priority="18">
+      <formula>ISBLANK($C$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="64" priority="14">
+      <formula>ISBLANK($C$12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="63" priority="10">
+      <formula>ISBLANK($C$13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="62" priority="15">
+      <formula>ISBLANK($C$11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="61" priority="8">
+      <formula>ISBLANK($C$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="60" priority="16">
+      <formula>ISBLANK($C$10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="59" priority="4">
+      <formula>ISBLANK($C$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="58" priority="2">
+      <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsBlanks" dxfId="65" priority="31">
-      <formula>LEN(TRIM(C4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="64" priority="29">
-      <formula>LEN(TRIM(C3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="63" priority="16">
-      <formula>ISBLANK($C$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="62" priority="12">
-      <formula>ISBLANK($C$10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="61" priority="8">
-      <formula>ISBLANK($C$11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="60" priority="13">
-      <formula>ISBLANK($C$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="59" priority="6">
-      <formula>ISBLANK($C$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="58" priority="14">
-      <formula>ISBLANK($C$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="57" priority="2">
-      <formula>ISBLANK($C$7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="35">
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C13" xr:uid="{E0754A1A-56A1-0F4E-B3F5-F1BC5ED3C00B}">
+    <cfRule type="expression" dxfId="57" priority="1">
+      <formula>AND(NOT(ISBLANK($C$5)), ISBLANK($C$4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="36">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C15" xr:uid="{E0754A1A-56A1-0F4E-B3F5-F1BC5ED3C00B}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="C12" xr:uid="{DCF42841-7DAF-D442-8729-D9AFD8CFB919}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="C14" xr:uid="{DCF42841-7DAF-D442-8729-D9AFD8CFB919}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C3" xr:uid="{8C50D541-E85D-A945-8976-CDA6FEF257BB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A3:B3" xr:uid="{FA297C0D-9B3F-4143-ABAA-C88E59DC82EA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="A4:B5 C4" xr:uid="{89F1DD56-C087-B741-90D6-12119E25CC40}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A6:C6 C5" xr:uid="{7BBE4A4D-4356-EA4C-B734-B2EFC486A03A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A12:B12" xr:uid="{44B8137E-6468-414A-8F72-6ECBA601CC4D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A13:B13" xr:uid="{6BE692C5-F093-9B43-81FD-F9994EBCCEB3}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a whole number greater than or equal to 0." promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="A14" xr:uid="{E99175B9-ED04-A14B-933C-B0BB7A9E97C2}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A3:B5" xr:uid="{FA297C0D-9B3F-4143-ABAA-C88E59DC82EA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="A6:B7 C6" xr:uid="{89F1DD56-C087-B741-90D6-12119E25CC40}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A8:C8 C7" xr:uid="{7BBE4A4D-4356-EA4C-B734-B2EFC486A03A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A14:B14" xr:uid="{44B8137E-6468-414A-8F72-6ECBA601CC4D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A15:B15" xr:uid="{6BE692C5-F093-9B43-81FD-F9994EBCCEB3}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a whole number greater than or equal to 0." promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="A16" xr:uid="{E99175B9-ED04-A14B-933C-B0BB7A9E97C2}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total returning" error="Must be a whole number greater than or equal to 0." promptTitle="Total returning resident volume" prompt="Total number of returning residents (if international passenger pathway applies)." sqref="C15" xr:uid="{473EE1A2-8E34-0B49-BAAC-16B7AB92D855}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total returning" error="Must be a whole number greater than or equal to 0." promptTitle="Total returning resident volume" prompt="Total number of returning residents (if international passenger pathway applies)." sqref="C17" xr:uid="{473EE1A2-8E34-0B49-BAAC-16B7AB92D855}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total TSI passenger volume" prompt="Total number of passengers from the Torres Strait Islands (if torres pathway applies)." sqref="A16" xr:uid="{F32F3253-DAE6-2F4C-97B8-67E94B64D310}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total mail volume" prompt="Total number of mail items." sqref="A17:B17" xr:uid="{C8354B7F-2B29-F74A-A253-E26E4586F6DF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="A18:B18" xr:uid="{F14EE191-4689-1A47-BC93-2058938AF449}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="A19:B19" xr:uid="{C76B17BB-B0E2-884D-9EEE-127080AE7513}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="A20:B20" xr:uid="{07B35AE6-1FD0-A246-A699-4A228631433F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="A21 B21" xr:uid="{37AE5199-8030-F14C-89C0-9E545DAB410D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="B23" xr:uid="{FEDA9928-A834-F34C-8C33-9B203A66F7DD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A7:C7" xr:uid="{6BB1B62B-72FC-1249-82C1-17CA3D520CA6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A9:C9" xr:uid="{DE662AD5-4431-DB43-9BDC-06A1A22D78D0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A10:C10" xr:uid="{D2DEC716-59BE-0241-9E4B-D7A33D079805}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A11:C11" xr:uid="{B16F0D1B-C53A-1D4E-8F1B-5DB6B9B8000E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to container data" prompt="File path (absolute or relative to the R working directory) to the dataset giving the distribution of containers by postcode." sqref="A8:C8" xr:uid="{CD6207FA-8833-374E-BF26-EE9A3C3ECC9E}"/>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="B14" xr:uid="{0ADB052B-600C-6646-B667-C3AF149E1A46}"/>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total returning resident volume" prompt="Total number of returning residents (if international passenger pathway applies)." sqref="A15:B15 B16" xr:uid="{6E17E750-03CF-6B47-B6A7-4B91C120696F}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total tourists" error="Must be a whole number greater than or equal to 0." promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="C14" xr:uid="{402F080D-8C8E-5041-BC08-0DF01A3C9FA7}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total TSI passenger volume" prompt="Total number of passengers from the Torres Strait Islands (if torres pathway applies)." sqref="A18" xr:uid="{F32F3253-DAE6-2F4C-97B8-67E94B64D310}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total mail volume" prompt="Total number of mail items." sqref="A19:B19" xr:uid="{C8354B7F-2B29-F74A-A253-E26E4586F6DF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="A20:B20" xr:uid="{F14EE191-4689-1A47-BC93-2058938AF449}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="A21:B21" xr:uid="{C76B17BB-B0E2-884D-9EEE-127080AE7513}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="A22:B22" xr:uid="{07B35AE6-1FD0-A246-A699-4A228631433F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="A23:B23" xr:uid="{37AE5199-8030-F14C-89C0-9E545DAB410D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="A25:B25" xr:uid="{FEDA9928-A834-F34C-8C33-9B203A66F7DD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A9:C9" xr:uid="{6BB1B62B-72FC-1249-82C1-17CA3D520CA6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A11:C11" xr:uid="{DE662AD5-4431-DB43-9BDC-06A1A22D78D0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A12:C12" xr:uid="{D2DEC716-59BE-0241-9E4B-D7A33D079805}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A13:C13" xr:uid="{B16F0D1B-C53A-1D4E-8F1B-5DB6B9B8000E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to container data" prompt="File path (absolute or relative to the R working directory) to the dataset giving the distribution of containers by postcode." sqref="A10:C10" xr:uid="{CD6207FA-8833-374E-BF26-EE9A3C3ECC9E}"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="B16" xr:uid="{0ADB052B-600C-6646-B667-C3AF149E1A46}"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total returning resident volume" prompt="Total number of returning residents (if international passenger pathway applies)." sqref="A17:B17 B18" xr:uid="{6E17E750-03CF-6B47-B6A7-4B91C120696F}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total tourists" error="Must be a whole number greater than or equal to 0." promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="C16" xr:uid="{402F080D-8C8E-5041-BC08-0DF01A3C9FA7}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total TSI" error="Must be a whole number greater than or equal to 0." promptTitle="Total TSI passenger volume" prompt="Total number of passengers from the Torres Strait Islands (if torres pathway applies)." sqref="C16" xr:uid="{68D2826B-F784-FB49-9A54-A8EAF661542F}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total TSI" error="Must be a whole number greater than or equal to 0." promptTitle="Total TSI passenger volume" prompt="Total number of passengers from the Torres Strait Islands (if torres pathway applies)." sqref="C18" xr:uid="{68D2826B-F784-FB49-9A54-A8EAF661542F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total mail" error="Must be a whole number greater than or equal to 0." promptTitle="Total mail volume" prompt="Total number of mail items." sqref="C17" xr:uid="{18A343C3-CE29-394F-B22D-4068C3DCCB49}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total mail" error="Must be a whole number greater than or equal to 0." promptTitle="Total mail volume" prompt="Total number of mail items." sqref="C19" xr:uid="{18A343C3-CE29-394F-B22D-4068C3DCCB49}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total vessels" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="C18" xr:uid="{7223FA03-7E77-B141-919A-28A1A4DD82AA}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total vessels" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="C20" xr:uid="{7223FA03-7E77-B141-919A-28A1A4DD82AA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total fertiliser" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="C19" xr:uid="{1D00A6B6-7558-1B44-9FBD-AAB9D2E4629D}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total fertiliser" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="C21" xr:uid="{1D00A6B6-7558-1B44-9FBD-AAB9D2E4629D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total machinery" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="C20" xr:uid="{7F42D11B-64A6-B944-BFF6-9A461C0BC1DE}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total machinery" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="C22" xr:uid="{7F42D11B-64A6-B944-BFF6-9A461C0BC1DE}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="C21" xr:uid="{DBAF1735-E114-6543-8269-DA7DAB886E5F}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="C23" xr:uid="{DBAF1735-E114-6543-8269-DA7DAB886E5F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total food" error="Must be a whole number greater than or equal to 0." promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="C23" xr:uid="{6E1746A6-DD63-C74D-95D0-29665BEEA790}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total food" error="Must be a whole number greater than or equal to 0." promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="C25" xr:uid="{6E1746A6-DD63-C74D-95D0-29665BEEA790}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="A22 B22" xr:uid="{C683FAD7-D8F5-9B45-98D1-5122B274E181}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="C22" xr:uid="{43C580EA-AEDD-714E-824E-A451E2FD49DB}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="A24:B24" xr:uid="{C683FAD7-D8F5-9B45-98D1-5122B274E181}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="C24" xr:uid="{43C580EA-AEDD-714E-824E-A451E2FD49DB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="A23" xr:uid="{C42AF866-7646-4545-9743-6D0E0F0424D5}"/>
+    <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="Username for GBIF account." sqref="C4" xr:uid="{8AF21302-064F-CB44-84F8-4E168B33F793}"/>
+    <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="Password for GBIF account" sqref="C5" xr:uid="{9EC30B5B-A390-E84A-8933-18BCFB49B347}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{A5F1242E-CF9A-DF46-B2F9-C5F7D9A46378}">
-            <xm:f>AND(ISBLANK($C$12), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="26" id="{06CC7A14-EECC-3048-BA79-B1A22164FD81}">
-            <xm:f>AND(ISBLANK($C$13), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{BC74A6DF-154E-D549-AE49-D9A1F984125A}">
+          <x14:cfRule type="expression" priority="29" id="{A5F1242E-CF9A-DF46-B2F9-C5F7D9A46378}">
             <xm:f>AND(ISBLANK($C$14), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
@@ -2540,8 +2611,8 @@
           <xm:sqref>C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="24" id="{504020AB-E4E7-0C40-8B68-A8312B9335F0}">
-            <xm:f>AND(ISBLANK($C$15), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "resident" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="28" id="{06CC7A14-EECC-3048-BA79-B1A22164FD81}">
+            <xm:f>AND(ISBLANK($C$15), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2556,8 +2627,8 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="23" id="{A0D7CB4F-10C8-EB4B-8494-F93073ED80A6}">
-            <xm:f>AND(ISBLANK($C$16), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="27" id="{BC74A6DF-154E-D549-AE49-D9A1F984125A}">
+            <xm:f>AND(ISBLANK($C$16), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2572,8 +2643,8 @@
           <xm:sqref>C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="22" id="{73FA8A37-CB62-6949-9E4D-54FB9B4696DD}">
-            <xm:f>AND(ISBLANK($C$17), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "mail" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="26" id="{504020AB-E4E7-0C40-8B68-A8312B9335F0}">
+            <xm:f>AND(ISBLANK($C$17), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "resident" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2588,8 +2659,8 @@
           <xm:sqref>C17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="21" id="{DD621A04-C852-B94A-82F0-3F0BD93D3E43}">
-            <xm:f>AND(ISBLANK($C$18), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="25" id="{A0D7CB4F-10C8-EB4B-8494-F93073ED80A6}">
+            <xm:f>AND(ISBLANK($C$18), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2604,8 +2675,8 @@
           <xm:sqref>C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" id="{86733FA6-7E7C-FC41-9F36-034977C77A1A}">
-            <xm:f>AND(ISBLANK($C$19), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="24" id="{73FA8A37-CB62-6949-9E4D-54FB9B4696DD}">
+            <xm:f>AND(ISBLANK($C$19), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "mail" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2620,8 +2691,8 @@
           <xm:sqref>C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{9FB9DB6A-0F94-9047-B0C2-E98EB38564FB}">
-            <xm:f>AND(ISBLANK($C$20), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "machine" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="23" id="{DD621A04-C852-B94A-82F0-3F0BD93D3E43}">
+            <xm:f>AND(ISBLANK($C$20), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2636,8 +2707,8 @@
           <xm:sqref>C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="18" id="{E686E863-6F44-FE48-AE94-19AC4F3E9D3E}">
-            <xm:f>AND(ISBLANK($C$21), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "nursery" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="22" id="{86733FA6-7E7C-FC41-9F36-034977C77A1A}">
+            <xm:f>AND(ISBLANK($C$21), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2649,11 +2720,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C21:C22</xm:sqref>
+          <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{5347420B-A3B2-5A47-BB20-A3048FE54346}">
-            <xm:f>AND(ISBLANK($C$23), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "food" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="21" id="{9FB9DB6A-0F94-9047-B0C2-E98EB38564FB}">
+            <xm:f>AND(ISBLANK($C$22), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "machine" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2665,11 +2736,43 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C23</xm:sqref>
+          <xm:sqref>C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{41CEDCF0-5684-1847-B5BF-7ECDF326BB08}">
-            <xm:f>AND(ISBLANK($C$6),MATCH(TRUE,'Species-specific parameters'!$D:$D)&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="20" id="{E686E863-6F44-FE48-AE94-19AC4F3E9D3E}">
+            <xm:f>AND(ISBLANK($C$23), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "nursery" &amp; "*")&gt;0)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C23:C24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{5347420B-A3B2-5A47-BB20-A3048FE54346}">
+            <xm:f>AND(ISBLANK($C$25), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "food" &amp; "*")&gt;0)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{41CEDCF0-5684-1847-B5BF-7ECDF326BB08}">
+            <xm:f>AND(ISBLANK($C$8),MATCH(TRUE,'Species-specific parameters'!$D:$D)&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2678,11 +2781,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{029B3FA2-6D08-774A-A3AF-AF5C6DDA3389}">
-            <xm:f>AND(ISBLANK($C$9),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="5" id="{029B3FA2-6D08-774A-A3AF-AF5C6DDA3389}">
+            <xm:f>AND(ISBLANK($C$11),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2691,11 +2794,50 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{C1562361-73C7-0F4C-BE7B-829A5FC5A252}">
-            <xm:f>AND(ISBLANK($C$10),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="11" id="{C1562361-73C7-0F4C-BE7B-829A5FC5A252}">
+            <xm:f>AND(ISBLANK($C$12),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{46D2826F-1D36-DD45-AF77-2CEFFD3FCCD2}">
+            <xm:f>AND(ISBLANK($C$13),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{8B68D8F3-6E1D-9F41-B671-5026551F9C89}">
+            <xm:f>AND(ISBLANK($C$7),MATCH(TRUE,'Species-specific parameters'!E:E)&gt;0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" id="{BAC6748B-F327-CE42-8857-5D92456E4AB3}">
+            <xm:f>AND(ISBLANK($C$10),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2707,8 +2849,8 @@
           <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{46D2826F-1D36-DD45-AF77-2CEFFD3FCCD2}">
-            <xm:f>AND(ISBLANK($C$11),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+          <x14:cfRule type="expression" priority="3" id="{4A75E809-16D5-604D-8D4E-510A397A1296}">
+            <xm:f>AND(ISBLANK($C$9),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2717,46 +2859,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{8B68D8F3-6E1D-9F41-B671-5026551F9C89}">
-            <xm:f>AND(ISBLANK($C$5),MATCH(TRUE,'Species-specific parameters'!E:E)&gt;0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{BAC6748B-F327-CE42-8857-5D92456E4AB3}">
-            <xm:f>AND(ISBLANK($C$8),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{4A75E809-16D5-604D-8D4E-510A397A1296}">
-            <xm:f>AND(ISBLANK($C$7),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3291,14 +3394,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(ISNUMBER(SEARCH("food", $B2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(ISNUMBER(SEARCH("food",$B2)), ISBLANK($X2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>NOT(ISNUMBER(SEARCH("food", $B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="48">
+  </conditionalFormatting>
+  <dataValidations count="47">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="F1" xr:uid="{610A6EDE-65F2-9448-845D-1D9D26647888}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1" xr:uid="{AD160B45-C62D-E948-B89F-CBE0E706C1DD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C1" xr:uid="{8A54E1E1-25E5-4A4C-A35B-02A189BDAE39}"/>
@@ -3354,7 +3457,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="J2:K1048576" xr:uid="{6FD266E6-D30F-E140-8841-0CC016C4626A}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B2:B1048576" xr:uid="{0A63DA24-38A1-3843-A720-47364E20527C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B1:B1048576" xr:uid="{0A63DA24-38A1-3843-A720-47364E20527C}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="E2:E1048576" xr:uid="{9BD9BDED-3BB9-CE48-804B-E25C909FAD17}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -3389,7 +3492,6 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="X2:X1048576" xr:uid="{38477FC1-7814-BD4C-B77B-1DF8DEB88B39}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B1" xr:uid="{5889E747-253F-734B-BB7B-A11D6893348C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/edmaps-github/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6196267C-8105-4742-B409-1A5F0F5575F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BDB3EE-DED2-4C4C-9B31-9481545CDCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{236919D7-CD01-A940-BDF2-FF56F5903D66}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>risk_layers/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>Password for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
+  </si>
+  <si>
+    <t>Species group</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1315,11 +1318,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2175,7 +2199,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2470,57 +2494,57 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsBlanks" dxfId="67" priority="33">
+    <cfRule type="containsBlanks" dxfId="69" priority="33">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="66" priority="31">
+    <cfRule type="containsBlanks" dxfId="68" priority="31">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="65" priority="18">
+    <cfRule type="expression" dxfId="67" priority="18">
       <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="66" priority="14">
       <formula>ISBLANK($C$12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="63" priority="10">
+    <cfRule type="expression" dxfId="65" priority="10">
       <formula>ISBLANK($C$13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="62" priority="15">
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="61" priority="8">
+    <cfRule type="expression" dxfId="63" priority="8">
       <formula>ISBLANK($C$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="60" priority="16">
+    <cfRule type="expression" dxfId="62" priority="16">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>AND(NOT(ISBLANK($C$5)), ISBLANK($C$4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2596,7 +2620,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="29" id="{A5F1242E-CF9A-DF46-B2F9-C5F7D9A46378}">
-            <xm:f>AND(ISBLANK($C$14), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$14), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2612,7 +2636,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="28" id="{06CC7A14-EECC-3048-BA79-B1A22164FD81}">
-            <xm:f>AND(ISBLANK($C$15), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$15), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2628,7 +2652,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="27" id="{BC74A6DF-154E-D549-AE49-D9A1F984125A}">
-            <xm:f>AND(ISBLANK($C$16), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$16), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "tourist" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2644,7 +2668,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="26" id="{504020AB-E4E7-0C40-8B68-A8312B9335F0}">
-            <xm:f>AND(ISBLANK($C$17), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "resident" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$17), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "resident" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2660,7 +2684,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="25" id="{A0D7CB4F-10C8-EB4B-8494-F93073ED80A6}">
-            <xm:f>AND(ISBLANK($C$18), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$18), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "torres" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2676,7 +2700,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="24" id="{73FA8A37-CB62-6949-9E4D-54FB9B4696DD}">
-            <xm:f>AND(ISBLANK($C$19), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "mail" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$19), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "mail" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2692,7 +2716,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="23" id="{DD621A04-C852-B94A-82F0-3F0BD93D3E43}">
-            <xm:f>AND(ISBLANK($C$20), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$20), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2708,7 +2732,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="22" id="{86733FA6-7E7C-FC41-9F36-034977C77A1A}">
-            <xm:f>AND(ISBLANK($C$21), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$21), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2724,7 +2748,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="21" id="{9FB9DB6A-0F94-9047-B0C2-E98EB38564FB}">
-            <xm:f>AND(ISBLANK($C$22), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "machine" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$22), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "machine" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2740,7 +2764,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="20" id="{E686E863-6F44-FE48-AE94-19AC4F3E9D3E}">
-            <xm:f>AND(ISBLANK($C$23), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "nursery" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$23), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "nursery" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2756,7 +2780,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="19" id="{5347420B-A3B2-5A47-BB20-A3048FE54346}">
-            <xm:f>AND(ISBLANK($C$25), COUNTIF('Species-specific parameters'!B:B,"*" &amp; "food" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$25), COUNTIF('Species-specific parameters'!C:C,"*" &amp; "food" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2772,7 +2796,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="17" id="{41CEDCF0-5684-1847-B5BF-7ECDF326BB08}">
-            <xm:f>AND(ISBLANK($C$8),MATCH(TRUE,'Species-specific parameters'!$D:$D)&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$8),MATCH(TRUE,'Species-specific parameters'!$E:$E)&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2785,7 +2809,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{029B3FA2-6D08-774A-A3AF-AF5C6DDA3389}">
-            <xm:f>AND(ISBLANK($C$11),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$11),COUNTIF('Species-specific parameters'!C:C,"*" &amp; "vessel" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2798,7 +2822,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{C1562361-73C7-0F4C-BE7B-829A5FC5A252}">
-            <xm:f>AND(ISBLANK($C$12),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$12),COUNTIF('Species-specific parameters'!C:C,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2811,7 +2835,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{46D2826F-1D36-DD45-AF77-2CEFFD3FCCD2}">
-            <xm:f>AND(ISBLANK($C$13),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$13),COUNTIF('Species-specific parameters'!C:C,"*" &amp; "fert" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2824,7 +2848,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{8B68D8F3-6E1D-9F41-B671-5026551F9C89}">
-            <xm:f>AND(ISBLANK($C$7),MATCH(TRUE,'Species-specific parameters'!E:E)&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$7),MATCH(TRUE,'Species-specific parameters'!F:F)&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2837,7 +2861,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="6" id="{BAC6748B-F327-CE42-8857-5D92456E4AB3}">
-            <xm:f>AND(ISBLANK($C$10),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$10),COUNTIF('Species-specific parameters'!C:C,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2850,7 +2874,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{4A75E809-16D5-604D-8D4E-510A397A1296}">
-            <xm:f>AND(ISBLANK($C$9),COUNTIF('Species-specific parameters'!B:B,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
+            <xm:f>AND(ISBLANK($C$9),COUNTIF('Species-specific parameters'!C:C,"*" &amp; "container" &amp; "*")&gt;0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2870,7 +2894,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D738B5-D0EE-C044-83A0-D9C8F02CE7C0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2882,184 +2906,187 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="8"/>
-    <col min="9" max="9" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.5" style="8"/>
-    <col min="12" max="12" width="21.5" style="10" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="11"/>
-    <col min="24" max="24" width="12.1640625" style="11" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="30"/>
-    <col min="28" max="16384" width="16.5" style="10"/>
+    <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="8"/>
+    <col min="10" max="10" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5" style="8"/>
+    <col min="13" max="13" width="21.5" style="10" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="10" customWidth="1"/>
+    <col min="15" max="15" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="11"/>
+    <col min="25" max="25" width="12.1640625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" style="30"/>
+    <col min="29" max="16384" width="16.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="38" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="38" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="17" t="b">
-        <v>1</v>
       </c>
       <c r="D2" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="18">
+      <c r="J2" s="18">
         <v>1970</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="19">
+      <c r="N2" s="17"/>
+      <c r="O2" s="19">
         <f>0.000002381577*30/45</f>
         <v>1.5877180000000001E-6</v>
       </c>
-      <c r="O2" s="19">
+      <c r="P2" s="19">
         <f>0.000002381577*15/45</f>
         <v>7.9385900000000007E-7</v>
       </c>
-      <c r="P2" s="19">
+      <c r="Q2" s="19">
         <f>21/51000</f>
         <v>4.1176470588235296E-4</v>
       </c>
-      <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
-      <c r="Z2" s="21">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="21">
         <v>5000</v>
       </c>
-      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
     </row>
-    <row r="3" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
       </c>
       <c r="D3" s="4" t="b">
         <v>0</v>
@@ -3067,58 +3094,59 @@
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
-      <c r="N3" s="5">
+      <c r="L3" s="2"/>
+      <c r="O3" s="5">
         <f>0.000001640642*30/45</f>
         <v>1.0937613333333331E-6</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <f>0.000001640642*15/45</f>
         <v>5.4688066666666656E-7</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5">
         <f>0.00000007971014</f>
         <v>7.9710139999999995E-8</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <f>3/18612</f>
         <v>1.6118633139909736E-4</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <f>3/6907</f>
         <v>4.3434197191255248E-4</v>
       </c>
-      <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="13">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="13">
         <v>5000</v>
       </c>
-      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>1</v>
       </c>
       <c r="D4" s="4" t="b">
         <v>1</v>
@@ -3126,370 +3154,385 @@
       <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>1970</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5">
         <f>0.643/18612</f>
         <v>3.4547603696539868E-5</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5">
         <f>14/1216726</f>
         <v>1.150628818649392E-5</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <f>2/2717750</f>
         <v>7.3590286082237149E-7</v>
       </c>
-      <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="13">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="13">
         <v>5000</v>
       </c>
-      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
       </c>
       <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <f>0.000002381577*30/45</f>
         <v>1.5877180000000001E-6</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <f>0.000002381577*15/45</f>
         <v>7.9385900000000007E-7</v>
       </c>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5">
+      <c r="S5" s="5"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5">
         <f>0.002/1216726</f>
         <v>1.643755455213417E-9</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
         <f>2/4475</f>
         <v>4.4692737430167598E-4</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5">
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5">
         <f>2/15832</f>
         <v>1.2632642748863063E-4</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="AA5" s="13">
         <v>5000</v>
       </c>
-      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="expression" dxfId="40" priority="6">
+      <formula>$F2=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="71">
+      <formula>ISBLANK($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="38" priority="4">
-      <formula>$E2=FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="69">
+    <cfRule type="expression" dxfId="38" priority="84">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I1048576 K2:K1048576 M2:M1048576">
+    <cfRule type="expression" dxfId="37" priority="111">
+      <formula>AND(ISBLANK($I2), ISBLANK($K2), ISBLANK($M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="expression" dxfId="36" priority="19">
+      <formula>ISBLANK($I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L1048576">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>OR($D2=FALSE, AND(ISBLANK($I2), ISBLANK($K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T1048576">
+    <cfRule type="expression" dxfId="34" priority="13">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="286">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($T2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M1048576">
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>OR(ISBLANK($A2),$D2=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:L1048576 N2:N1048576">
+    <cfRule type="expression" dxfId="31" priority="309">
+      <formula>NOT(ISBLANK($M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="expression" dxfId="30" priority="17">
+      <formula>NOT(ISNUMBER(SEARCH("residents", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="159">
+      <formula>AND(ISNUMBER(SEARCH("residents",$C2)), ISBLANK($P2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q1048576">
+    <cfRule type="expression" dxfId="28" priority="16">
+      <formula>NOT(ISNUMBER(SEARCH("torres", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="310">
+      <formula>AND(ISNUMBER(SEARCH("torres",$C2)), ISBLANK($Q2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R1048576">
+    <cfRule type="expression" dxfId="26" priority="15">
+      <formula>NOT(ISNUMBER(SEARCH("mail", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="311">
+      <formula>AND(SEARCH("mail",$C2), ISBLANK($R2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S1048576">
+    <cfRule type="expression" dxfId="24" priority="14">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="313">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($S2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U1048576">
+    <cfRule type="expression" dxfId="22" priority="12">
+      <formula>NOT(ISNUMBER(SEARCH("fert", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="314">
+      <formula>AND(ISNUMBER(SEARCH("fert",$C2)), ISBLANK($U2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V1048576">
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="315">
+      <formula>AND(ISNUMBER(SEARCH("machine",$C2)), ISBLANK($V2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W1048576">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="316">
+      <formula>AND(ISNUMBER(SEARCH("container",$C2)), ISBLANK($W2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z1048576">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="318">
+      <formula>AND(ISNUMBER(SEARCH("goods",$C2)), ISBLANK($Z2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="29">
+      <formula>AND(ISNUMBER(SEARCH("tourists",$C2)), ISBLANK($O2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="12" priority="28">
+      <formula>OR(ISBLANK($A4), $D4=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="11" priority="25">
+      <formula>ISBLANK($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:AA1048576 A2:A5 C2:AA5">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>ISBLANK($A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="expression" dxfId="9" priority="24">
+      <formula>ISBLANK($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="expression" dxfId="8" priority="26">
+      <formula>ISBLANK($E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="36" priority="82">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048576 J2:J1048576 L2:L1048576">
-    <cfRule type="expression" dxfId="35" priority="109">
-      <formula>AND(ISBLANK($H2), ISBLANK($J2), ISBLANK($L2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="34" priority="17">
-      <formula>ISBLANK($H2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="33" priority="41">
-      <formula>OR($C2=FALSE, AND(ISBLANK($H2), ISBLANK($J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="32" priority="11">
-      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="284">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($S2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="30" priority="28">
-      <formula>OR(ISBLANK($A2),$C2=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:K1048576 M2:M1048576">
-    <cfRule type="expression" dxfId="29" priority="307">
-      <formula>NOT(ISBLANK($L2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="28" priority="15">
-      <formula>NOT(ISNUMBER(SEARCH("residents", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="157">
-      <formula>AND(ISNUMBER(SEARCH("residents",$B2)), ISBLANK($O2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="26" priority="14">
-      <formula>NOT(ISNUMBER(SEARCH("torres", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="308">
-      <formula>AND(ISNUMBER(SEARCH("torres",$B2)), ISBLANK($P2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="24" priority="13">
-      <formula>NOT(ISNUMBER(SEARCH("mail", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="309">
-      <formula>AND(SEARCH("mail",$B2), ISBLANK($Q2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="22" priority="12">
-      <formula>NOT(ISNUMBER(SEARCH("vessels", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="311">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$B2)), ISBLANK($R2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="20" priority="10">
-      <formula>NOT(ISNUMBER(SEARCH("fert", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="312">
-      <formula>AND(ISNUMBER(SEARCH("fert",$B2)), ISBLANK($T2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>NOT(ISNUMBER(SEARCH("machine", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="313">
-      <formula>AND(ISNUMBER(SEARCH("machine",$B2)), ISBLANK($U2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>NOT(ISNUMBER(SEARCH("container", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="314">
-      <formula>AND(ISNUMBER(SEARCH("container",$B2)), ISBLANK($V2))</formula>
+  <conditionalFormatting sqref="I2:N1048576">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X1048576">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="317">
+      <formula>AND(ISNUMBER(SEARCH("nursery",$C2)), ISBLANK($X2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>NOT(ISNUMBER(SEARCH("goods", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="316">
-      <formula>AND(ISNUMBER(SEARCH("goods",$B2)), ISBLANK($Y2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>NOT(ISNUMBER(SEARCH("tourists",$B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="27">
-      <formula>AND(ISNUMBER(SEARCH("tourists",$B2)), ISBLANK($N2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="10" priority="26">
-      <formula>OR(ISBLANK($A4), $C4=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="9" priority="23">
-      <formula>ISBLANK($B2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Z1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(ISNUMBER(SEARCH("food",$C2)), ISBLANK($Y2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISBLANK($A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="7" priority="22">
-      <formula>ISBLANK($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="6" priority="24">
-      <formula>ISBLANK($D2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="5" priority="20">
-      <formula>ISBLANK($E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$C2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>NOT(ISNUMBER(SEARCH("nursery", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="315">
-      <formula>AND(ISNUMBER(SEARCH("nursery",$B2)), ISBLANK($W2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(ISNUMBER(SEARCH("food", $B2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(ISNUMBER(SEARCH("food",$B2)), ISBLANK($X2))</formula>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="47">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="F1" xr:uid="{610A6EDE-65F2-9448-845D-1D9D26647888}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1" xr:uid="{AD160B45-C62D-E948-B89F-CBE0E706C1DD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C1" xr:uid="{8A54E1E1-25E5-4A4C-A35B-02A189BDAE39}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="D1" xr:uid="{74C7EF83-30DD-F948-9522-90AFB2FCEC74}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="E1" xr:uid="{893B753C-83F4-644D-BD7E-F6B39072EB1E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="G1" xr:uid="{41980E33-1E39-AD45-8F05-868D6600E067}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="I1" xr:uid="{A33E5C3F-FEB5-E142-9E77-829BE9CDC095}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="N1" xr:uid="{7D0C5A9D-2B24-5E4B-B142-62EC654E71D3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="O1" xr:uid="{BFE515ED-E47C-8E4A-A50B-35E2286ACF32}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="P1" xr:uid="{0A697F1D-F494-C347-95D9-E59F4C6C383A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="Q1" xr:uid="{399C1480-40E4-5A41-A2FF-2E4F826C4DEE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="R1" xr:uid="{1BBA7A75-F6E1-4F47-BC5E-4B3FDC509E65}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="S1" xr:uid="{12F7F3FA-47A2-8B43-B105-3D925A1D9D46}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="T1" xr:uid="{14C39FAF-9B97-1543-B73A-260E86BB654B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="U1" xr:uid="{9FFB111A-9910-744C-B50F-00F7A89B9CA3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="V1" xr:uid="{E6D7E48A-15CD-1A4F-BAD7-13A132F3D69F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="W1" xr:uid="{34153A47-9E0E-4F4D-B565-CC6104D4CF6D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Y1" xr:uid="{DDEBC040-5553-4841-9E5B-5FB894300E90}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A2:A1048576" xr:uid="{F8431168-FF74-CF44-A9C3-C9F4FDBC2E6C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="C2:C1048576" xr:uid="{B5EAF5EE-6EE5-6B49-99E2-F42D5D06C580}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="G1" xr:uid="{610A6EDE-65F2-9448-845D-1D9D26647888}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1:B1" xr:uid="{AD160B45-C62D-E948-B89F-CBE0E706C1DD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="D1" xr:uid="{8A54E1E1-25E5-4A4C-A35B-02A189BDAE39}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="E1" xr:uid="{74C7EF83-30DD-F948-9522-90AFB2FCEC74}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="F1" xr:uid="{893B753C-83F4-644D-BD7E-F6B39072EB1E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="H1" xr:uid="{41980E33-1E39-AD45-8F05-868D6600E067}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="J1" xr:uid="{A33E5C3F-FEB5-E142-9E77-829BE9CDC095}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="O1" xr:uid="{7D0C5A9D-2B24-5E4B-B142-62EC654E71D3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="P1" xr:uid="{BFE515ED-E47C-8E4A-A50B-35E2286ACF32}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="Q1" xr:uid="{0A697F1D-F494-C347-95D9-E59F4C6C383A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="R1" xr:uid="{399C1480-40E4-5A41-A2FF-2E4F826C4DEE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="S1" xr:uid="{1BBA7A75-F6E1-4F47-BC5E-4B3FDC509E65}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="T1" xr:uid="{12F7F3FA-47A2-8B43-B105-3D925A1D9D46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="U1" xr:uid="{14C39FAF-9B97-1543-B73A-260E86BB654B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="V1" xr:uid="{9FFB111A-9910-744C-B50F-00F7A89B9CA3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="W1" xr:uid="{E6D7E48A-15CD-1A4F-BAD7-13A132F3D69F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="X1" xr:uid="{34153A47-9E0E-4F4D-B565-CC6104D4CF6D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Z1" xr:uid="{DDEBC040-5553-4841-9E5B-5FB894300E90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A2:B1048576" xr:uid="{F8431168-FF74-CF44-A9C3-C9F4FDBC2E6C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="D2:D1048576" xr:uid="{B5EAF5EE-6EE5-6B49-99E2-F42D5D06C580}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset. Ignored if &quot;Climate suitability path&quot; is provided." sqref="J1:J1048576" xr:uid="{344DBD62-32DD-2640-814E-8FECEF8AE89F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="H1:H1048576" xr:uid="{867EBE5D-A33C-8641-98B7-84DD0D595AEA}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="Q2:Q1048576" xr:uid="{77FCB406-D2F1-BD40-8A66-E8D4EB673AEF}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset. Ignored if &quot;Climate suitability path&quot; is provided." sqref="K1:K1048576" xr:uid="{344DBD62-32DD-2640-814E-8FECEF8AE89F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="I1:I1048576" xr:uid="{867EBE5D-A33C-8641-98B7-84DD0D595AEA}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="R2:R1048576" xr:uid="{77FCB406-D2F1-BD40-8A66-E8D4EB673AEF}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="R2:R1048576" xr:uid="{1C090300-AE72-0642-8D47-2A8F62A6DE24}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="S2:S1048576" xr:uid="{1C090300-AE72-0642-8D47-2A8F62A6DE24}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a negative number." promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="S2:S1048576" xr:uid="{A3790EC7-C576-B249-BCDF-06829DDB2534}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a negative number." promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="T2:T1048576" xr:uid="{A3790EC7-C576-B249-BCDF-06829DDB2534}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="T2:T1048576" xr:uid="{68922F53-C9AE-0E41-8624-91096244AAAF}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="U2:U1048576" xr:uid="{68922F53-C9AE-0E41-8624-91096244AAAF}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="U2:U1048576" xr:uid="{27582A83-D06C-CC4A-9EC7-9633BED3D41F}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="V2:V1048576" xr:uid="{27582A83-D06C-CC4A-9EC7-9633BED3D41F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="V2:V1048576" xr:uid="{8F16EE93-B00F-524E-BFF0-7969CA884AD7}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="W2:W1048576" xr:uid="{8F16EE93-B00F-524E-BFF0-7969CA884AD7}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="W2:W1048576" xr:uid="{C098445D-3F03-A345-B8C0-17D8CCC3C159}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="X2:X1048576" xr:uid="{C098445D-3F03-A345-B8C0-17D8CCC3C159}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Y2:Y1048576" xr:uid="{F4D6DD70-484B-8F4C-8022-F92827712D2D}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Z2:Z1048576" xr:uid="{F4D6DD70-484B-8F4C-8022-F92827712D2D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="D2:D1048576" xr:uid="{4885AF70-80FE-5741-BB46-A0C58FDF8CF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="E2:E1048576" xr:uid="{4885AF70-80FE-5741-BB46-A0C58FDF8CF8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Infected countries" prompt="Either a comma-separated string containing country names, or a file path (absolute or relative to working directory) to a CABI pest data sheet csv file. _x000a__x000a_If provided, occurrence records are verified against the provided data, to ensure that all records a" sqref="K1:K1048576" xr:uid="{1102FFA6-1227-9743-9757-11E831420417}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="J2:K1048576" xr:uid="{6FD266E6-D30F-E140-8841-0CC016C4626A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Infected countries" prompt="Either a comma-separated string containing country names, or a file path (absolute or relative to working directory) to a CABI pest data sheet csv file. _x000a__x000a_If provided, occurrence records are verified against the provided data, to ensure that all records a" sqref="L1:L1048576" xr:uid="{1102FFA6-1227-9743-9757-11E831420417}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="K2:L1048576" xr:uid="{6FD266E6-D30F-E140-8841-0CC016C4626A}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="B1:B1048576" xr:uid="{0A63DA24-38A1-3843-A720-47364E20527C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="E2:E1048576" xr:uid="{9BD9BDED-3BB9-CE48-804B-E25C909FAD17}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="C1:C1048576" xr:uid="{0A63DA24-38A1-3843-A720-47364E20527C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="F2:F1048576" xr:uid="{9BD9BDED-3BB9-CE48-804B-E25C909FAD17}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be between 1800 and current year." promptTitle="GBIF minimum year " prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="I2:I1048576" xr:uid="{A9AFE441-945F-F444-97AF-D472113FEF8D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be between 1800 and current year." promptTitle="GBIF minimum year " prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="J2:J1048576" xr:uid="{A9AFE441-945F-F444-97AF-D472113FEF8D}">
       <formula1>1800</formula1>
       <formula2>YEAR(TODAY())</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest." sqref="N2:N1048576" xr:uid="{AE0D63DE-5D73-C748-BC40-4F0328B70F7F}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest." sqref="O2:O1048576" xr:uid="{AE0D63DE-5D73-C748-BC40-4F0328B70F7F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="O2:O1048576" xr:uid="{A08818E1-07F8-2947-B885-B6DCF40BE2A3}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="P2:P1048576" xr:uid="{A08818E1-07F8-2947-B885-B6DCF40BE2A3}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="P2:P1048576" xr:uid="{36BBB07A-382B-294E-8FD2-7455864CB2E2}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="Q2:Q1048576" xr:uid="{36BBB07A-382B-294E-8FD2-7455864CB2E2}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="M1:M1048576" xr:uid="{A215B8BE-50BD-544B-BB88-017607D43B99}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="CABI file path" prompt="File path (absolute or relative to working directory) to the CABI csv file." sqref="F2:F1048576" xr:uid="{1CBF3D45-3CF8-6645-AD64-572A122AD92A}">
-      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(F2,ROW(INDIRECT("1:"&amp;LEN(F2))),1)," ,-:0123456789")))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 and 1:3 are equivalent to 1,2,3)." promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="F2:F1048576" xr:uid="{3F16D9CB-7B0B-584C-8750-92EBFD18A562}">
-      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(F2,ROW(INDIRECT("1:"&amp;LEN(F2))),1)," ,-:0123456789")))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="G2:G1048576" xr:uid="{D05F4B39-E78E-6A4C-9EA6-2DBD7B96B28E}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="N1:N1048576" xr:uid="{A215B8BE-50BD-544B-BB88-017607D43B99}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="CABI file path" prompt="File path (absolute or relative to working directory) to the CABI csv file." sqref="G2:G1048576" xr:uid="{1CBF3D45-3CF8-6645-AD64-572A122AD92A}">
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="L1:L1048576" xr:uid="{480B32ED-B00C-3F4B-AE28-DF01A191FCC5}"/>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="Z1:Z1048576" xr:uid="{D738A470-664E-C741-8411-D92C81327D2C}">
-      <formula1>AND($Z1 &gt;= 1000, MOD($Z1, 1000)=0)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 and 1:3 are equivalent to 1,2,3)." promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="G2:G1048576" xr:uid="{3F16D9CB-7B0B-584C-8750-92EBFD18A562}">
+      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="X1" xr:uid="{EA69C604-14E3-824E-AC96-8EBCAB1F127B}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="X2:X1048576" xr:uid="{38477FC1-7814-BD4C-B77B-1DF8DEB88B39}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="H2:H1048576" xr:uid="{D05F4B39-E78E-6A4C-9EA6-2DBD7B96B28E}">
+      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(H2,ROW(INDIRECT("1:"&amp;LEN(H2))),1)," ,-:0123456789")))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="M1:M1048576" xr:uid="{480B32ED-B00C-3F4B-AE28-DF01A191FCC5}"/>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="AA1:AA1048576" xr:uid="{D738A470-664E-C741-8411-D92C81327D2C}">
+      <formula1>AND($AA1 &gt;= 1000, MOD($AA1, 1000)=0)</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="Y1" xr:uid="{EA69C604-14E3-824E-AC96-8EBCAB1F127B}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="Y2:Y1048576" xr:uid="{38477FC1-7814-BD4C-B77B-1DF8DEB88B39}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/edmaps-github/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227BA7D9-A9BF-E843-9C47-18F6A36C18B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721615D5-33F6-E14C-9131-B4B323D053B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
     <t>Define whether maps should use OpenStreetMap ("osm") or polygon ("boundaries") basemaps.</t>
   </si>
   <si>
-    <t>boundaries</t>
+    <t>OpenStreetMap</t>
   </si>
 </sst>
 </file>
@@ -2750,7 +2750,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C7">
     <cfRule type="containsBlanks" dxfId="52" priority="11">
       <formula>LEN(TRIM(C7))=0</formula>
@@ -2861,8 +2860,10 @@
     <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C16" xr:uid="{74A9AB0E-B263-C746-9077-ED0626B99833}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="Username for GBIF account." sqref="C4" xr:uid="{72FDD181-E3BF-A844-A54A-B029705A8DC7}"/>
-    <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="Password for GBIF account" sqref="C5:C6" xr:uid="{36FE115B-5D8C-BE47-8690-D0D99D6C9AD6}"/>
+    <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C4" xr:uid="{72FDD181-E3BF-A844-A54A-B029705A8DC7}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or OpenStreetMap" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{36FE115B-5D8C-BE47-8690-D0D99D6C9AD6}">
+      <formula1>"boundaries,OpenStreetMap"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="C25" xr:uid="{2002C4F1-3088-5649-A22C-A4601DDF97D3}">
       <formula1>0</formula1>
     </dataValidation>
@@ -2871,10 +2872,10 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="A26:B26" xr:uid="{8721A532-FF89-1D48-8215-293AA26D65F3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A4" xr:uid="{87006BA3-D1D7-1949-808C-03FE83C142DD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A4:B4" xr:uid="{87006BA3-D1D7-1949-808C-03FE83C142DD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A5 B5" xr:uid="{8DDA8AE4-5292-5A47-A751-FFAD9049BB67}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="B4" xr:uid="{437A1F5C-CE1B-FC49-ABAC-7CB8DA8F187B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6 B6" xr:uid="{AFE7AC31-B1F9-7149-9143-0E28D5C59DCF}"/>
+    <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C5" xr:uid="{AA10D887-7AF0-0C43-91DF-2606C73E2F37}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/edmaps-github/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721615D5-33F6-E14C-9131-B4B323D053B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5086C1-F3FE-084F-A9F4-E0F986C04D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
     <t>Define whether maps should use OpenStreetMap ("osm") or polygon ("boundaries") basemaps.</t>
   </si>
   <si>
-    <t>OpenStreetMap</t>
+    <t>osm</t>
   </si>
 </sst>
 </file>
@@ -2750,6 +2750,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C7">
     <cfRule type="containsBlanks" dxfId="52" priority="11">
       <formula>LEN(TRIM(C7))=0</formula>
@@ -2861,8 +2862,8 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C4" xr:uid="{72FDD181-E3BF-A844-A54A-B029705A8DC7}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or OpenStreetMap" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{36FE115B-5D8C-BE47-8690-D0D99D6C9AD6}">
-      <formula1>"boundaries,OpenStreetMap"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{36FE115B-5D8C-BE47-8690-D0D99D6C9AD6}">
+      <formula1>"boundaries,osm"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="C25" xr:uid="{2002C4F1-3088-5649-A22C-A4601DDF97D3}">
       <formula1>0</formula1>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/edmaps-github/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5086C1-F3FE-084F-A9F4-E0F986C04D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E27D03-5BA6-C74F-A52A-6AC5EDA74D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
   <sheets>
     <sheet name="Global parameters" sheetId="7" r:id="rId1"/>
@@ -35,33 +35,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={3F4991D8-F7F4-9043-8C53-522ABDB87E94}</author>
-    <author>tc={52D97D8B-AA8C-7B49-9DAC-3B43BC703016}</author>
-  </authors>
-  <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{3F4991D8-F7F4-9043-8C53-522ABDB87E94}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Modelled together to overcome potential identification problems</t>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Modelled together to overcome potential identification problems</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={72FBB23E-4BBA-F24B-819F-177E1ED5B904}</author>
@@ -164,10 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="167">
-  <si>
-    <t>Citrus Canker</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>Asian Gypsy Moth</t>
   </si>
@@ -385,34 +355,7 @@
     <t>Exclude BIOCLIM vars</t>
   </si>
   <si>
-    <t>Prob tourists</t>
-  </si>
-  <si>
-    <t>Prob returning resident</t>
-  </si>
-  <si>
-    <t>Prob Torres passenger</t>
-  </si>
-  <si>
-    <t>Prob mail</t>
-  </si>
-  <si>
-    <t>Prob vessels</t>
-  </si>
-  <si>
     <t>Distance penalty (ports)</t>
-  </si>
-  <si>
-    <t>Prob fertiliser</t>
-  </si>
-  <si>
-    <t>Prob machinery</t>
-  </si>
-  <si>
-    <t>Prob containers</t>
-  </si>
-  <si>
-    <t>Prob nurserystock</t>
   </si>
   <si>
     <t>Aggregated res</t>
@@ -696,259 +639,15 @@
     </r>
   </si>
   <si>
-    <t>Total tourists</t>
-  </si>
-  <si>
-    <r>
-      <t>Total number of international tourists arriving via air passage per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tourists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total returning residents</t>
-  </si>
-  <si>
-    <r>
-      <t>Total number of residents returning from overseas via air passage per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>residents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total passengers from TSI</t>
-  </si>
-  <si>
-    <r>
-      <t>Total number of air passengers arriving from Torres Strait Islands per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>torres</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total mail</t>
-  </si>
-  <si>
-    <r>
-      <t>Total number of mail items arriving in Australia per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total vessels</t>
-  </si>
-  <si>
-    <r>
-      <t>Total number of vessels arriving at Australian ports per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">vessels </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total fertiliser</t>
-  </si>
-  <si>
-    <r>
-      <t>Total volume of fertiliser arriving in Australia per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">fertiliser </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total machinery</t>
-  </si>
-  <si>
-    <r>
-      <t>Total number of items of machinery arriving in Australia per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">machinery </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total nurserystock</t>
-  </si>
-  <si>
-    <r>
-      <t>Total volume of nurserystock arriving in Australia per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nurserystock </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pathway)</t>
-    </r>
-  </si>
-  <si>
     <t>lump with 3 and 4 (map to foods = goods)</t>
   </si>
   <si>
     <t>110-117, 120-125, 130-134, 210, 220-222, 310-314, 332, 341, 343, 345, 346, 410-414, 432, 441, 443, 445, 446, 541-543</t>
   </si>
   <si>
-    <t>348, 448, 540-544</t>
-  </si>
-  <si>
     <t>1-11, 13, 14, 16, 18-25, 27-29, 45, 47, 48, 51-56, 59-62, 65-69, 79, 80, 90, 91, 96-99</t>
   </si>
   <si>
-    <t>Prob goods</t>
-  </si>
-  <si>
-    <t>tourists, residents, mail</t>
-  </si>
-  <si>
-    <t>Total goods</t>
-  </si>
-  <si>
     <t>GBIF username</t>
   </si>
   <si>
@@ -964,56 +663,15 @@
     <t>Lymantria dispar japonica, Lymantria dispar</t>
   </si>
   <si>
-    <t>Total food</t>
-  </si>
-  <si>
-    <t>Total volume of fresh foods arriving in Australia per annum (foods pathway)</t>
-  </si>
-  <si>
-    <r>
-      <t>Total volume of goods arriving in Australia per annum (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pathway)</t>
-    </r>
-  </si>
-  <si>
-    <t>Prob food</t>
-  </si>
-  <si>
     <t>Species group</t>
   </si>
   <si>
     <t>vessels, containers, machinery, goods</t>
   </si>
   <si>
-    <t>Xanthomonas citri, Xanthomonas axonopodis, Xanthomonas campestris subsp. citri</t>
-  </si>
-  <si>
     <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/citrus_canker/cabi_Xanthomonas_citri_14Dec2020.csv</t>
-  </si>
-  <si>
     <t>Basemap mode</t>
   </si>
   <si>
@@ -1021,6 +679,87 @@
   </si>
   <si>
     <t>osm</t>
+  </si>
+  <si>
+    <t>Tourist leakage</t>
+  </si>
+  <si>
+    <t>Tourist establishment</t>
+  </si>
+  <si>
+    <t>Returning resident leakage</t>
+  </si>
+  <si>
+    <t>Torres passenger leakage</t>
+  </si>
+  <si>
+    <t>Torres establishment</t>
+  </si>
+  <si>
+    <t>Mail leakage</t>
+  </si>
+  <si>
+    <t>Mail establishment</t>
+  </si>
+  <si>
+    <t>Vessels leakage</t>
+  </si>
+  <si>
+    <t>Vessels establishment</t>
+  </si>
+  <si>
+    <t>Fertiliser leakage</t>
+  </si>
+  <si>
+    <t>Fertiliser establishment</t>
+  </si>
+  <si>
+    <t>Machinery leakage</t>
+  </si>
+  <si>
+    <t>Machinery establishment</t>
+  </si>
+  <si>
+    <t>Containers leakage</t>
+  </si>
+  <si>
+    <t>Containers establishment</t>
+  </si>
+  <si>
+    <t>Nurserystock leakage</t>
+  </si>
+  <si>
+    <t>Nurserystock establishment</t>
+  </si>
+  <si>
+    <t>Food leakage</t>
+  </si>
+  <si>
+    <t>Food establishment</t>
+  </si>
+  <si>
+    <t>Goods establishment</t>
+  </si>
+  <si>
+    <t>Returning resident establishment</t>
+  </si>
+  <si>
+    <t>0.05,0.5</t>
+  </si>
+  <si>
+    <t>0.01,0.1</t>
+  </si>
+  <si>
+    <t>0.005,0.05</t>
+  </si>
+  <si>
+    <t>0.002,0.02</t>
+  </si>
+  <si>
+    <t>0.1,1</t>
+  </si>
+  <si>
+    <t>Goods leakage</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1362,10 +1101,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1375,74 +1112,34 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1451,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1488,14 +1185,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1532,21 +1221,10 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -1555,10 +1233,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1626,43 +1300,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1671,14 +1322,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="49">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1699,7 +1365,63 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1854,13 +1576,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
@@ -1868,84 +1583,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2098,7 +1736,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Microsoft Office User" id="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" userId="Microsoft Office User" providerId="None"/>
   <person displayName="John Baumgartner" id="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" userId="S::john.baumgartner@unimelb.edu.au::64e08097-c003-4539-ab7e-80504fe98ad0" providerId="AD"/>
 </personList>
 </file>
@@ -2400,17 +2037,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I2" dT="2020-12-09T03:13:13.86" personId="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" id="{3F4991D8-F7F4-9043-8C53-522ABDB87E94}">
-    <text>Modelled together to overcome potential identification problems</text>
-  </threadedComment>
-  <threadedComment ref="I3" dT="2020-12-09T03:13:18.71" personId="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" id="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
-    <text>Modelled together to overcome potential identification problems</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B14" dT="2020-10-09T00:15:04.70" personId="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" id="{72FBB23E-4BBA-F24B-819F-177E1ED5B904}">
     <text>Movement of Monochamus
 on timber pallets and packing
@@ -2455,403 +2081,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38E99D3-8DA3-8747-86C0-5C7DD6918E18}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="40" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="40"/>
+    <col min="1" max="1" width="34" style="34" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="48"/>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="48"/>
+    </row>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="C8" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="42" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="45" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="56"/>
-    </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="56"/>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="49" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="B11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="48" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="B12" s="42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="C12" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="48" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="B13" s="42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="C13" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="48" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="B14" s="42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="C14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="49" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="B15" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="50">
+      <c r="C15" s="44">
         <f>LN(0.5)/200</f>
         <v>-3.4657359027997266E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="50">
+      <c r="A16" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="44">
         <f>LN(0.5)/10</f>
         <v>-6.9314718055994526E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="50">
-        <v>10633690</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="50">
-        <v>12722820</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="50">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="50">
-        <v>152000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="50">
-        <v>18612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="50">
-        <v>6907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="50">
-        <v>1216726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="50">
-        <v>4475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="59">
-        <v>15832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="52">
-        <f>4*3864976</f>
-        <v>15459904</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsBlanks" dxfId="52" priority="11">
+    <cfRule type="containsBlanks" dxfId="48" priority="13">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="51" priority="10">
+    <cfRule type="containsBlanks" dxfId="47" priority="12">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="50" priority="9">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>ISBLANK($C$13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="48" priority="5">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>ISBLANK($C$14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>ISBLANK($C$12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="41" priority="10">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>AND(NOT(ISBLANK($C$5)), ISBLANK($C$4))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="40">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="C24" xr:uid="{4BF11164-6F4E-B647-9B6D-1C44ECE77245}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total machinery" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="C23" xr:uid="{C466E930-DF04-5041-8EFF-FE4AA6710584}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total fertiliser" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="C22" xr:uid="{89216E67-55CE-4445-8BC0-C728B35D9DA5}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total vessels" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="C21" xr:uid="{11BACD9D-723E-674C-BD8E-C2448DF9C7AD}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total mail" error="Must be a whole number greater than or equal to 0." promptTitle="Total mail volume" prompt="Total number of mail items." sqref="C20" xr:uid="{04B798D9-6CA8-DB49-B51C-CC1EF601B496}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total TSI" error="Must be a whole number greater than or equal to 0." promptTitle="Total TSI passenger volume" prompt="Total number of passengers from the Torres Strait Islands (if torres pathway applies)." sqref="C19" xr:uid="{E53955FA-851E-194D-9FC8-C51717F3BCD8}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total tourists" error="Must be a whole number greater than or equal to 0." promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="C17" xr:uid="{25AC0DE0-8FF7-4146-B4F5-F8E4CDB9D383}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total returning resident volume" prompt="Total number of returning residents (if international passenger pathway applies)." sqref="A18:B18 B19" xr:uid="{B0B2383C-F5E1-134E-900C-351ABBE437B7}"/>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="B17" xr:uid="{B1A125A9-908B-974A-B2C9-3AAA1E59D77B}"/>
+  <dataValidations count="19">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to container data" prompt="File path (absolute or relative to the R working directory) to the dataset giving the distribution of containers by postcode." sqref="A11:C11" xr:uid="{14B6D594-9A26-CA42-812B-5C5A86722895}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A14:C14" xr:uid="{8F72518D-BAB7-9142-9736-2536EA27E145}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A13:C13" xr:uid="{A4241D2D-0D39-E743-B011-0CB2B9A37836}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A12:C12" xr:uid="{44AA65A2-6ACD-0941-B62C-2049F5C7A6C8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A10:C10" xr:uid="{67EF961C-1766-7A4E-B6D7-223B91566EBE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of nurserystock" prompt="Total volume of nurserystock entering Australia." sqref="A24:B24" xr:uid="{713381C6-7220-1D45-A0A8-298DA70EEFA4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of machinery" prompt="Total number of items of machinery arriving in Australia." sqref="A23:B23" xr:uid="{CF06620F-F4DD-F446-A1F7-11DCFF55AA38}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fertiliser" prompt="Total volume of fertiliser arriving in Australia." sqref="A22:B22" xr:uid="{32A88A5D-2C12-0345-80E1-EEF2A61A6371}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of vessels" prompt="Total number of vessels." sqref="A21:B21" xr:uid="{EE8AD24C-80B8-7B4B-8386-D76DF0F9D74E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total mail volume" prompt="Total number of mail items." sqref="A20:B20" xr:uid="{9DDE15F6-FE8D-6241-A602-284D486567B6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total TSI passenger volume" prompt="Total number of passengers from the Torres Strait Islands (if torres pathway applies)." sqref="A19" xr:uid="{6C8C5711-AEF2-214D-A457-D94DA51FA1DD}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total returning" error="Must be a whole number greater than or equal to 0." promptTitle="Total returning resident volume" prompt="Total number of returning residents (if international passenger pathway applies)." sqref="C18" xr:uid="{500776A2-841C-034F-9692-A0C8D439FA9D}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a whole number greater than or equal to 0." promptTitle="Total tourist volume." prompt="Total number of tourists (if international passenger pathway applies)." sqref="A17" xr:uid="{C14F49AD-8C38-704B-98D8-849A5555BBE1}">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A16:B16" xr:uid="{5FF41043-A82A-944B-945D-E8F2E51EF83B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A15:B15" xr:uid="{33870E04-A8E1-8C4D-9B03-82E0D0B98A9C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A9:C9 C8" xr:uid="{30D6C85A-9048-7A40-93FE-19DD2761C260}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="A7:B8 C7" xr:uid="{16AA945C-95BC-C34D-8453-8B015EFC9A02}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="B3 A3" xr:uid="{AB6F6BFD-04DD-1F47-AB62-6109D668317E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A3:B3" xr:uid="{AB6F6BFD-04DD-1F47-AB62-6109D668317E}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C3" xr:uid="{14FD865C-56F7-6B42-A0EE-46BC6C1853BC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -2861,35 +2341,27 @@
     <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C16" xr:uid="{74A9AB0E-B263-C746-9077-ED0626B99833}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C4" xr:uid="{72FDD181-E3BF-A844-A54A-B029705A8DC7}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{36FE115B-5D8C-BE47-8690-D0D99D6C9AD6}">
+    <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C5" xr:uid="{B0433237-8341-1A41-BC52-20A6B784A23C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6:B6" xr:uid="{08117AE8-D292-1842-9E84-80BB8B707392}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A5:B5" xr:uid="{AF8327F7-6AB4-254D-A562-85A05BFD02CC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A4:B4" xr:uid="{5C32543D-BB85-AC49-99C0-4C6C3B4358FA}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{3CC3A8BE-AB30-1148-A192-70DE8AE49742}">
       <formula1>"boundaries,osm"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total nurserystock" error="Must be a whole number greater than or equal to 0." promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="C25" xr:uid="{2002C4F1-3088-5649-A22C-A4601DDF97D3}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total volume of fresh food" prompt="Total volume of fresh food entering Australia." sqref="A25:B25" xr:uid="{6022A742-710F-5348-89C5-991449BFC68D}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid total food" error="Must be a whole number greater than or equal to 0." promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="C26" xr:uid="{9DAAB0CF-9194-604A-A387-9A6AD4A522A0}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Total goods volume" prompt="Total volume of goods entering Australia." sqref="A26:B26" xr:uid="{8721A532-FF89-1D48-8215-293AA26D65F3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A4:B4" xr:uid="{87006BA3-D1D7-1949-808C-03FE83C142DD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A5 B5" xr:uid="{8DDA8AE4-5292-5A47-A751-FFAD9049BB67}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6 B6" xr:uid="{AFE7AC31-B1F9-7149-9143-0E28D5C59DCF}"/>
-    <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C5" xr:uid="{AA10D887-7AF0-0C43-91DF-2606C73E2F37}"/>
+    <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C4" xr:uid="{D8D76911-8403-2F43-A010-EB7D062AA120}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F35787-E4E5-9646-9ED0-CA25B0854047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F35787-E4E5-9646-9ED0-CA25B0854047}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2898,420 +2370,406 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.5" style="21"/>
-    <col min="13" max="13" width="21.5" style="22" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="22" customWidth="1"/>
-    <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="20" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="23"/>
-    <col min="25" max="25" width="12.1640625" style="23" customWidth="1"/>
-    <col min="26" max="26" width="22.5" style="23" customWidth="1"/>
-    <col min="27" max="27" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5" style="25"/>
-    <col min="29" max="16384" width="16.5" style="22"/>
+    <col min="1" max="1" width="27.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5" style="19"/>
+    <col min="13" max="13" width="21.5" style="20" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="20" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="17" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" style="17" customWidth="1"/>
+    <col min="22" max="23" width="13.1640625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="11.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" style="17" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5" style="17" customWidth="1"/>
+    <col min="28" max="28" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5" style="17" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" style="17" customWidth="1"/>
+    <col min="32" max="33" width="16.5" style="17"/>
+    <col min="34" max="34" width="12.1640625" style="17" customWidth="1"/>
+    <col min="35" max="35" width="14" style="17" customWidth="1"/>
+    <col min="36" max="36" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" style="54" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5" style="21"/>
+    <col min="40" max="16384" width="16.5" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="32" t="s">
+    <row r="1" spans="1:39" s="9" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB1" s="8"/>
-    </row>
-    <row r="2" spans="1:28" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="AM1" s="8"/>
+    </row>
+    <row r="2" spans="1:39" s="14" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="11" t="b">
+      <c r="B2" s="49"/>
+      <c r="C2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="16">
         <v>1970</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="64">
-        <v>5.5158148588071995E-10</v>
-      </c>
-      <c r="P2" s="64">
-        <v>2.7579074294035997E-10</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="64">
-        <v>2.69906694008609E-10</v>
-      </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="14">
-        <v>5000</v>
-      </c>
-      <c r="AB2" s="15"/>
-    </row>
-    <row r="3" spans="1:28" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1970</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="64">
-        <v>2.6864388566516202E-8</v>
-      </c>
-      <c r="T3" s="20">
+        <v>127</v>
+      </c>
+      <c r="O2" s="18">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="64">
-        <v>1.1992830685816E-12</v>
-      </c>
-      <c r="W3" s="64">
-        <v>1.2936690939348701E-10</v>
-      </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="64">
-        <v>1.1992830685816E-12</v>
-      </c>
-      <c r="AA3" s="14">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK2" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL2" s="12">
         <v>5000</v>
       </c>
-      <c r="AB3" s="15"/>
+      <c r="AM2" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="41" priority="178">
+    <cfRule type="expression" dxfId="37" priority="193">
       <formula>$F2=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="200">
+    <cfRule type="expression" dxfId="36" priority="215">
       <formula>ISBLANK($H2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="39" priority="201">
+    <cfRule type="expression" dxfId="35" priority="216">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576 K2:K1048576 I3:I1048576">
-    <cfRule type="expression" dxfId="38" priority="202">
+  <conditionalFormatting sqref="M2:M1048576 K2:K1048576 I2:I1048576">
+    <cfRule type="expression" dxfId="34" priority="217">
       <formula>AND(ISBLANK($I2), ISBLANK($K2), ISBLANK($M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="37" priority="191">
+    <cfRule type="expression" dxfId="33" priority="206">
       <formula>ISBLANK($I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="36" priority="199">
+    <cfRule type="expression" dxfId="32" priority="214">
       <formula>OR($D2=FALSE, AND(ISBLANK($I2), ISBLANK($K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="35" priority="185">
-      <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="204">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($T2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="expression" dxfId="33" priority="198">
+    <cfRule type="expression" dxfId="31" priority="213">
       <formula>OR(ISBLANK($A2),$D2=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:L1048576 N2:N1048576 I3 J2:L3">
-    <cfRule type="expression" dxfId="32" priority="205">
+  <conditionalFormatting sqref="N2:O1048576 I2:L1048576">
+    <cfRule type="expression" dxfId="30" priority="220">
       <formula>NOT(ISBLANK($M2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="31" priority="189">
+  <conditionalFormatting sqref="R2:S1048576">
+    <cfRule type="expression" dxfId="29" priority="204">
       <formula>NOT(ISNUMBER(SEARCH("residents", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="203">
-      <formula>AND(ISNUMBER(SEARCH("residents",$C2)), ISBLANK($P2))</formula>
+    <cfRule type="expression" dxfId="28" priority="218">
+      <formula>AND(ISNUMBER(SEARCH("residents",$C2)), ISBLANK($R2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="29" priority="188">
+  <conditionalFormatting sqref="T2:U1048576">
+    <cfRule type="expression" dxfId="27" priority="203">
       <formula>NOT(ISNUMBER(SEARCH("torres", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="206">
-      <formula>AND(ISNUMBER(SEARCH("torres",$C2)), ISBLANK($Q2))</formula>
+    <cfRule type="expression" dxfId="26" priority="221">
+      <formula>AND(ISNUMBER(SEARCH("torres",$C2)), ISBLANK($T2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="27" priority="187">
+  <conditionalFormatting sqref="V2:W1048576">
+    <cfRule type="expression" dxfId="25" priority="202">
       <formula>NOT(ISNUMBER(SEARCH("mail", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="207">
-      <formula>AND(SEARCH("mail",$C2), ISBLANK($R2))</formula>
+    <cfRule type="expression" dxfId="24" priority="222">
+      <formula>AND(SEARCH("mail",$C2), ISBLANK($V2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="25" priority="186">
+  <conditionalFormatting sqref="X2:Y1048576">
+    <cfRule type="expression" dxfId="23" priority="201">
       <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="208">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($S2))</formula>
+    <cfRule type="expression" dxfId="22" priority="223">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($X2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="expression" dxfId="23" priority="184">
-      <formula>NOT(ISNUMBER(SEARCH("fert", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="209">
-      <formula>AND(ISNUMBER(SEARCH("fert",$C2)), ISBLANK($U2))</formula>
+  <conditionalFormatting sqref="P2:Q1048576">
+    <cfRule type="expression" dxfId="21" priority="205">
+      <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="212">
+      <formula>AND(ISNUMBER(SEARCH("tourists",$C2)), ISBLANK($P2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="21" priority="183">
-      <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="210">
-      <formula>AND(ISNUMBER(SEARCH("machine",$C2)), ISBLANK($V2))</formula>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="19" priority="209">
+      <formula>ISBLANK($C2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="19" priority="182">
-      <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="211">
-      <formula>AND(ISNUMBER(SEARCH("container",$C2)), ISBLANK($W2))</formula>
+  <conditionalFormatting sqref="A2:AL1048576">
+    <cfRule type="expression" dxfId="18" priority="192">
+      <formula>ISBLANK($A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="17" priority="181">
-      <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="212">
-      <formula>AND(ISNUMBER(SEARCH("nursery",$C2)), ISBLANK($X2))</formula>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="expression" dxfId="17" priority="208">
+      <formula>ISBLANK($D2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z1048576">
-    <cfRule type="expression" dxfId="15" priority="180">
-      <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="213">
-      <formula>AND(ISNUMBER(SEARCH("goods",$C2)), ISBLANK($Z2))</formula>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="expression" dxfId="16" priority="210">
+      <formula>ISBLANK($E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="expression" dxfId="15" priority="207">
+      <formula>ISBLANK($F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:O1048576">
+    <cfRule type="expression" dxfId="14" priority="194">
+      <formula>$D2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="13" priority="190">
-      <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="197">
-      <formula>AND(ISNUMBER(SEARCH("tourists",$C2)), ISBLANK($O2))</formula>
+    <cfRule type="expression" dxfId="13" priority="229">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="230">
+      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($O2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="11" priority="194">
-      <formula>ISBLANK($C2)</formula>
+  <conditionalFormatting sqref="Z2:AA1048576">
+    <cfRule type="expression" dxfId="11" priority="231">
+      <formula>NOT(ISNUMBER(SEARCH("fert", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="232">
+      <formula>AND(ISNUMBER(SEARCH("fert",$C2)), ISBLANK($Z2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H3 A4:Y1048576 Z2:AA1048576 I3 J2:Y3">
-    <cfRule type="expression" dxfId="10" priority="177">
-      <formula>ISBLANK($A2)</formula>
+  <conditionalFormatting sqref="AB2:AC1048576">
+    <cfRule type="expression" dxfId="9" priority="233">
+      <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="234">
+      <formula>AND(ISNUMBER(SEARCH("machine",$C2)), ISBLANK($AB2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="9" priority="193">
-      <formula>ISBLANK($D2)</formula>
+  <conditionalFormatting sqref="AD2:AE1048576">
+    <cfRule type="expression" dxfId="7" priority="235">
+      <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="236">
+      <formula>AND(ISNUMBER(SEARCH("container",$C2)), ISBLANK($AD2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="8" priority="195">
-      <formula>ISBLANK($E2)</formula>
+  <conditionalFormatting sqref="AF2:AG1048576">
+    <cfRule type="expression" dxfId="5" priority="237">
+      <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="238">
+      <formula>AND(ISNUMBER(SEARCH("nursery",$C2)), ISBLANK($AF2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="7" priority="192">
-      <formula>ISBLANK($F2)</formula>
+  <conditionalFormatting sqref="AJ2:AK1048576">
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="240">
+      <formula>AND(ISNUMBER(SEARCH("goods",$C2)), ISBLANK($AJ2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:N1048576 I3 J2:N3">
-    <cfRule type="expression" dxfId="6" priority="179">
-      <formula>$D2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="5" priority="166">
-      <formula>ISBLANK($A2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="4" priority="168">
-      <formula>AND(ISBLANK($I2), ISBLANK($K2), ISBLANK($M2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="3" priority="169">
-      <formula>NOT(ISBLANK($M2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="167">
-      <formula>$D2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="expression" dxfId="1" priority="86">
+  <conditionalFormatting sqref="AH2:AI1048576">
+    <cfRule type="expression" dxfId="1" priority="241">
       <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="87">
-      <formula>AND(ISNUMBER(SEARCH("food",$C2)), ISBLANK($Y2))</formula>
+    <cfRule type="expression" dxfId="0" priority="242">
+      <formula>AND(ISNUMBER(SEARCH("food",$C2)), ISBLANK($AH2))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="47">
@@ -3322,52 +2780,52 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="F1" xr:uid="{27524273-1C90-D04F-832E-935EB4104323}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="H1" xr:uid="{048997E5-1BBB-0B4F-8524-4F71F4D0963D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="J1" xr:uid="{544504DF-2050-134C-8497-26394E3031A2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="O1" xr:uid="{1A6AAEBE-B93B-A343-B662-CF1F257FCCFA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="P1" xr:uid="{9BB29CB2-A334-AA40-AB0B-AD97B6DB1CE7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="Q1" xr:uid="{5B5B5D23-E41C-034B-BB8C-780D7C7B7330}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="R1" xr:uid="{F6FEE5E1-D9A3-A740-9E8B-638C32FDD00D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="S1" xr:uid="{1DC9DEE7-7379-6842-A6EB-0DF269E933D8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="T1" xr:uid="{086160EC-9D52-9C49-8D24-EF29A51F2A54}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="U1" xr:uid="{565002BF-0DFE-B94A-9B26-10772C7EEF0D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="V1" xr:uid="{C6C5C3CE-9CCE-AF4C-A1D8-D400932E1554}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="W1" xr:uid="{C489A9C9-F330-A341-B9CC-483398DDC7E6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="X1" xr:uid="{E9F751EA-A832-8B49-BA7D-522EA0666BB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Z1" xr:uid="{8F08BC14-7836-4049-A576-C8460E7AB591}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A4:B1048576 A2:B3" xr:uid="{FCA27B26-0010-EE4F-8B6E-B6BCF0DF1EDC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="I1 I4:I1048576" xr:uid="{589C2EB4-9ABA-5940-9C6D-3DE7287152B9}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest." sqref="O2:O1048576" xr:uid="{53D33507-D28B-5C4D-BF9A-79E197DEB5E3}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="P1:Q1" xr:uid="{1A6AAEBE-B93B-A343-B662-CF1F257FCCFA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="R1:S1" xr:uid="{9BB29CB2-A334-AA40-AB0B-AD97B6DB1CE7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="T1:U1" xr:uid="{5B5B5D23-E41C-034B-BB8C-780D7C7B7330}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="V1:W1" xr:uid="{F6FEE5E1-D9A3-A740-9E8B-638C32FDD00D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="X1:Y1" xr:uid="{1DC9DEE7-7379-6842-A6EB-0DF269E933D8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="O1" xr:uid="{086160EC-9D52-9C49-8D24-EF29A51F2A54}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="Z1:AA1" xr:uid="{565002BF-0DFE-B94A-9B26-10772C7EEF0D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="AB1:AC1" xr:uid="{C6C5C3CE-9CCE-AF4C-A1D8-D400932E1554}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="AD1:AE1" xr:uid="{C489A9C9-F330-A341-B9CC-483398DDC7E6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="AF1:AG1" xr:uid="{E9F751EA-A832-8B49-BA7D-522EA0666BB8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="AJ1:AK1" xr:uid="{8F08BC14-7836-4049-A576-C8460E7AB591}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A3:B1048576 A2:B2" xr:uid="{FCA27B26-0010-EE4F-8B6E-B6BCF0DF1EDC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="I1 I3:I1048576" xr:uid="{589C2EB4-9ABA-5940-9C6D-3DE7287152B9}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest." sqref="P2:Q1048576" xr:uid="{53D33507-D28B-5C4D-BF9A-79E197DEB5E3}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="P2:P1048576" xr:uid="{B9883FA4-A475-184A-88E9-1113938EC677}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="R2:S1048576" xr:uid="{B9883FA4-A475-184A-88E9-1113938EC677}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="Y1" xr:uid="{32FFCBBD-4497-364E-9334-FC28356E20CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="AH1:AI1" xr:uid="{32FFCBBD-4497-364E-9334-FC28356E20CA}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="D2:D1048576" xr:uid="{C2DF29EF-AFB7-9F42-B4CE-CEBE92710EDB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset. Ignored if &quot;Climate suitability path&quot; is provided." sqref="K1:K1048576" xr:uid="{3B00E97C-487B-FE42-8EA0-D06CE5C55537}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="R2:R1048576" xr:uid="{4B2739D8-37B1-6A47-B64D-AAE7AC7BF8F4}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="V2:W1048576" xr:uid="{4B2739D8-37B1-6A47-B64D-AAE7AC7BF8F4}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="S2:S1048576" xr:uid="{1A254FEC-45D6-9548-A95C-2F801D81556E}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="X2:Y1048576" xr:uid="{1A254FEC-45D6-9548-A95C-2F801D81556E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a negative number." promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="T2:T1048576" xr:uid="{BB861B61-09C3-7D44-8C41-E4DF88FE6A0F}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a negative number." promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="O2:O1048576" xr:uid="{BB861B61-09C3-7D44-8C41-E4DF88FE6A0F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="U2:U1048576" xr:uid="{97457597-1B84-4E4E-9BCA-1BDFB9D1502F}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="Z2:AA1048576" xr:uid="{97457597-1B84-4E4E-9BCA-1BDFB9D1502F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="V2:V1048576" xr:uid="{8608EAF9-50F2-654A-B512-BB4F8D87B150}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="AB2:AC1048576" xr:uid="{8608EAF9-50F2-654A-B512-BB4F8D87B150}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="W2:W1048576" xr:uid="{4455259B-CE18-4E46-A458-ED2133A3F305}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="AD2:AE1048576" xr:uid="{4455259B-CE18-4E46-A458-ED2133A3F305}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="X2:X1048576" xr:uid="{0AC6E29F-5654-D346-A355-51641DAF84DA}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="AF2:AG1048576" xr:uid="{0AC6E29F-5654-D346-A355-51641DAF84DA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="Z2:Z1048576" xr:uid="{84635E57-CD86-A74B-B4DC-4E8F7D6B29DD}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="AJ2:AK1048576" xr:uid="{84635E57-CD86-A74B-B4DC-4E8F7D6B29DD}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="E2:E1048576" xr:uid="{701D4CA7-2B69-4447-A97B-9709BB40773C}">
@@ -3385,10 +2843,10 @@
       <formula1>1800</formula1>
       <formula2>YEAR(TODAY())</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="Q2:Q1048576" xr:uid="{C7F4FAC2-1E09-D24A-8BAC-5FD6219BE806}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="T2:U1048576" xr:uid="{C7F4FAC2-1E09-D24A-8BAC-5FD6219BE806}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="N1:N1048576" xr:uid="{9E2FCDB2-1FF7-8147-8F38-8F31C7C4B682}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="N1:O1048576" xr:uid="{9E2FCDB2-1FF7-8147-8F38-8F31C7C4B682}"/>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="CABI file path" prompt="File path (absolute or relative to working directory) to the CABI csv file." sqref="G2:G1048576" xr:uid="{AD5DFB87-82FB-B44D-A12A-6DEF487A5237}">
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
@@ -3399,15 +2857,14 @@
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(H2,ROW(INDIRECT("1:"&amp;LEN(H2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="M1:M1048576" xr:uid="{43224EB0-F4AD-E443-B771-F1DA3AECF215}"/>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="AA1:AA1048576" xr:uid="{A4DB3E19-43E0-034B-BC9C-138C8662B41E}">
-      <formula1>AND($AA1 &gt;= 1000, MOD($AA1, 1000)=0)</formula1>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="AL1:AL1048576" xr:uid="{A4DB3E19-43E0-034B-BC9C-138C8662B41E}">
+      <formula1>AND($AL1 &gt;= 1000, MOD($AL1, 1000)=0)</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="Y2:Y1048576" xr:uid="{79122985-12E1-4145-9493-CB195B7CBF1B}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="AH2:AI1048576" xr:uid="{79122985-12E1-4145-9493-CB195B7CBF1B}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3430,615 +2887,615 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/edmaps-github/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/20121001-multi-pest-early-detection-maps/data/user_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E27D03-5BA6-C74F-A52A-6AC5EDA74D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA83374-46AC-8140-8AF8-217F65F27095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
+    <workbookView xWindow="10020" yWindow="500" windowWidth="28380" windowHeight="21100" activeTab="1" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
   <sheets>
     <sheet name="Global parameters" sheetId="7" r:id="rId1"/>
@@ -35,6 +35,141 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B5A97D6C-3EB5-6940-A766-351C93294C30}</author>
+    <author>tc={03D81196-E77D-0F4D-A067-33B2632A711C}</author>
+    <author>tc={0196C33E-8F8E-E84B-9ABD-5D6E98C41E55}</author>
+    <author>tc={08970612-EB31-8641-B619-72C12D702C77}</author>
+    <author>tc={52D97D8B-AA8C-7B49-9DAC-3B43BC703016}</author>
+    <author>tc={95D4E981-0722-DC45-973F-DAC9CDE6DA9E}</author>
+    <author>tc={30BEA44C-71B5-C346-82C3-2AF8168E4B6B}</author>
+    <author>tc={A62E6B1F-E4EB-984E-B747-9546652AB2B8}</author>
+    <author>tc={24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}</author>
+    <author>tc={1B8A75AC-A9FE-EB43-AD87-1FE8467FBB89}</author>
+    <author>tc={54D29E90-6B5C-7E47-B3EC-ABC5E05A1AF6}</author>
+    <author>tc={8CF3C082-6166-8F42-B7A9-381AB738D432}</author>
+    <author>tc={5768F99D-9AC8-9B43-BDB9-4E209772FF9A}</author>
+    <author>tc={07597060-6049-9840-92E5-7BD1213CB6F8}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B5A97D6C-3EB5-6940-A766-351C93294C30}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Used fertiliser pathway to distribute contaminated AG equipment. Idea being these will likely be used in areas of greatest fertiliser use (i.e. production zones).</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{03D81196-E77D-0F4D-A067-33B2632A711C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Insufficient occurrence data</t>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="2" shapeId="0" xr:uid="{0196C33E-8F8E-E84B-9ABD-5D6E98C41E55}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Very few records of Citrus canker. Decided to use CABI records as approximation data rather than the 50 odd GBIF records</t>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="3" shapeId="0" xr:uid="{08970612-EB31-8641-B619-72C12D702C77}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to extra work here. Some records are in USA jurisdictions which don’t have it. Will need to manually remove.</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="4" shapeId="0" xr:uid="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Modelled together to overcome potential identification problems</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="5" shapeId="0" xr:uid="{95D4E981-0722-DC45-973F-DAC9CDE6DA9E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Too few records to estimate climate suitability</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="6" shapeId="0" xr:uid="{30BEA44C-71B5-C346-82C3-2AF8168E4B6B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Note that for fruit flies we have broken up the passenger pathway by resident &amp; tourist. We also add a Torres strait passenger pathway… and because there are two separate food pathways with different establishment parameters we’ve used goods to distribute the second.</t>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="7" shapeId="0" xr:uid="{A62E6B1F-E4EB-984E-B747-9546652AB2B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Have added synonyms as per risk maps phase 1</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="8" shapeId="0" xr:uid="{24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Too few records for estimating climate</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="9" shapeId="0" xr:uid="{1B8A75AC-A9FE-EB43-AD87-1FE8467FBB89}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Using the nursery pathway for smuggled budwood (though it is distributed the same as food). Food is used for smuggled curry leaves etc</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="10" shapeId="0" xr:uid="{54D29E90-6B5C-7E47-B3EC-ABC5E05A1AF6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Using the nursery pathway for smuggled budwood (though it is distributed the same as food)</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="11" shapeId="0" xr:uid="{8CF3C082-6166-8F42-B7A9-381AB738D432}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some stored product needed to be distributed by residents as opposed to the conventional “food” pathway because of differing establishment probs. This shouldn’t make a difference as both pathways are distributed the same way</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="12" shapeId="0" xr:uid="{5768F99D-9AC8-9B43-BDB9-4E209772FF9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Too few records to reliably estimate climate suitability</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{07597060-6049-9840-92E5-7BD1213CB6F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Broke up Marks pathways to those related to vectors and those related to the pathogen itself.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={72FBB23E-4BBA-F24B-819F-177E1ED5B904}</author>
@@ -137,9 +272,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
-  <si>
-    <t>Asian Gypsy Moth</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="281">
+  <si>
+    <t>Citrus Canker</t>
   </si>
   <si>
     <t>Bee Mites</t>
@@ -337,21 +472,12 @@
     <t>NVIS classes</t>
   </si>
   <si>
-    <t>GBIF species name(s)</t>
-  </si>
-  <si>
     <t>GBIF min year</t>
   </si>
   <si>
-    <t>Occurrence path</t>
-  </si>
-  <si>
     <t>Infected countries</t>
   </si>
   <si>
-    <t>Climate suitability path</t>
-  </si>
-  <si>
     <t>Exclude BIOCLIM vars</t>
   </si>
   <si>
@@ -361,6 +487,21 @@
     <t>Aggregated res</t>
   </si>
   <si>
+    <t>Bactrocera dorsalis, Bactrocera invadens, Bactrocera papayae, Bactrocera philippinensis</t>
+  </si>
+  <si>
+    <t>Cicadella viridis</t>
+  </si>
+  <si>
+    <t>Graphocephala atropunctata</t>
+  </si>
+  <si>
+    <t>Homalodisca vitripennis</t>
+  </si>
+  <si>
+    <t>Philaenus spumarius</t>
+  </si>
+  <si>
     <t>machinery</t>
   </si>
   <si>
@@ -373,6 +514,9 @@
     <t>Treat as containers?</t>
   </si>
   <si>
+    <t>Diaphorina citri</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
@@ -389,6 +533,9 @@
   </si>
   <si>
     <t>can we distinguish these from container vessels?</t>
+  </si>
+  <si>
+    <t>Monochamus galloprovincialis</t>
   </si>
   <si>
     <t>GLOBAL VARIABLES</t>
@@ -645,9 +792,45 @@
     <t>110-117, 120-125, 130-134, 210, 220-222, 310-314, 332, 341, 343, 345, 346, 410-414, 432, 441, 443, 445, 446, 541-543</t>
   </si>
   <si>
+    <t>331, 332, 338, 340-353, 431, 432, 438, 440-453, 465, 510-515, 540-544</t>
+  </si>
+  <si>
+    <t>348, 448, 540-544</t>
+  </si>
+  <si>
+    <t>340, 341, 343, 344, 345, 348, 350, 351, 365, 440, 441, 443, 444, 445, 448, 450, 451, 465, 540-544</t>
+  </si>
+  <si>
+    <t>340-344, 345, 347-351, 353, 365, 440-444, 445, 447-451, 453, 465, 540-544</t>
+  </si>
+  <si>
+    <t>340, 341, 343, 345, 348, 353, 365, 440, 441, 443, 445, 448, 453, 465, 540-544</t>
+  </si>
+  <si>
+    <t>340, 341, 344, 345, 347, 350, 351, 353, 365, 440, 441, 444, 445, 447, 450, 451, 453, 465, 540-544</t>
+  </si>
+  <si>
+    <t>520-524, 526-528, 530-534, 538, 540-545, 574</t>
+  </si>
+  <si>
+    <t>312, 412</t>
+  </si>
+  <si>
+    <t>330-338, 340-345, 348-351, 365, 430-438, 440-445, 448-451, 454, 465, 510-515, 540-544</t>
+  </si>
+  <si>
     <t>1-11, 13, 14, 16, 18-25, 27-29, 45, 47, 48, 51-56, 59-62, 65-69, 79, 80, 90, 91, 96-99</t>
   </si>
   <si>
+    <t>110-117, 120-125, 130-134, 210, 220-222, 310-314, 320-338, 340-349, 350-353, 360-365, 410-414, 420-424, 430-439, 440-449, 450-454, 460-465, 510-515, 520-528, 530-538, 540-545, 550-555, 560-567, 570-575, 580-584, 590-595, 610-614, 620-623, 630-633, 640-644, 650-654, 660-663</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/BMSB/bmsb_presences_iprrg.csv</t>
+  </si>
+  <si>
     <t>GBIF username</t>
   </si>
   <si>
@@ -660,18 +843,48 @@
     <t>Password for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
   </si>
   <si>
+    <t>cebra</t>
+  </si>
+  <si>
     <t>Lymantria dispar japonica, Lymantria dispar</t>
   </si>
   <si>
     <t>Species group</t>
   </si>
   <si>
-    <t>vessels, containers, machinery, goods</t>
+    <t>Bee mite</t>
   </si>
   <si>
     <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
   </si>
   <si>
+    <t>risk_layers/abiotic/occurrences/bactrocera_cucurbitae/cabi_Bactrocera_cucurbitae_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>Bactrocera cucurbitae, Zeugodacus cucurbitae</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/monochamus_galloprovincialis/cabi_monochamus_galloprovincialis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/cicadella_viridis/cabi_cicadella_viridis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/graphocephala_atropunctata/cabi_graphocephala_atropunctata_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/homalodisca_vitripennis/cabi_homalodisca_vitripennis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/philaenus_spumarius/cabi_philaenus_spumarius_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/BMSB/cabi_halyomorpha halys_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/cabi_bactrocera_dorsalis_14Dec2020.csv</t>
+  </si>
+  <si>
     <t>Basemap mode</t>
   </si>
   <si>
@@ -693,9 +906,6 @@
     <t>Torres passenger leakage</t>
   </si>
   <si>
-    <t>Torres establishment</t>
-  </si>
-  <si>
     <t>Mail leakage</t>
   </si>
   <si>
@@ -747,28 +957,321 @@
     <t>0.05,0.5</t>
   </si>
   <si>
+    <t>Goods leakage</t>
+  </si>
+  <si>
+    <t>0.04,0.4</t>
+  </si>
+  <si>
+    <t>0.001,0.01</t>
+  </si>
+  <si>
+    <t>0.02,0.2</t>
+  </si>
+  <si>
+    <t>Torres passenger establishment</t>
+  </si>
+  <si>
+    <t>Minimum probability threshold</t>
+  </si>
+  <si>
+    <t>Minimum probability threshold for plotting maps</t>
+  </si>
+  <si>
+    <t>20, 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1,0.9 </t>
+  </si>
+  <si>
+    <t>0.028,0.172</t>
+  </si>
+  <si>
+    <t>Fertiliser, Food, Residents</t>
+  </si>
+  <si>
+    <t>1.595,6.426</t>
+  </si>
+  <si>
+    <t>1e-05,1e-04</t>
+  </si>
+  <si>
+    <t>Gypsy Moth</t>
+  </si>
+  <si>
+    <t>Containers, Machinery, Vessels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01,0.1 </t>
+  </si>
+  <si>
     <t>0.01,0.1</t>
   </si>
   <si>
+    <t>0.002,0.02</t>
+  </si>
+  <si>
+    <t>0.165,0.774</t>
+  </si>
+  <si>
     <t>0.005,0.05</t>
   </si>
   <si>
-    <t>0.002,0.02</t>
+    <t>0.087,0.365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05,0.5 </t>
+  </si>
+  <si>
+    <t>0.007,0.04</t>
+  </si>
+  <si>
+    <t>Containers, Goods, Machinery, Residents, Vessels</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
+    <t>3,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01,0.1  </t>
+  </si>
+  <si>
+    <t>1,10</t>
   </si>
   <si>
     <t>0.1,1</t>
   </si>
   <si>
-    <t>Goods leakage</t>
+    <t xml:space="preserve">0.001,0.01 </t>
+  </si>
+  <si>
+    <t>7,67</t>
+  </si>
+  <si>
+    <t>3,33</t>
+  </si>
+  <si>
+    <t>Tourists, Residents, Food, Goods</t>
+  </si>
+  <si>
+    <t>1.489,7.987</t>
+  </si>
+  <si>
+    <t>0.5,5</t>
+  </si>
+  <si>
+    <t>0.892,4.798</t>
+  </si>
+  <si>
+    <t>0.03,0.3</t>
+  </si>
+  <si>
+    <t>0.3,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03,0.3 </t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Containers, Food, Goods,Residents</t>
+  </si>
+  <si>
+    <t>6.012,51.169</t>
+  </si>
+  <si>
+    <t>14.872,79.898</t>
+  </si>
+  <si>
+    <t>5e-04,0.005</t>
+  </si>
+  <si>
+    <t>1.037,5.639</t>
+  </si>
+  <si>
+    <t>1.765,7.164</t>
+  </si>
+  <si>
+    <t>Containers, Goods, Residents</t>
+  </si>
+  <si>
+    <t>1.488,7.988</t>
+  </si>
+  <si>
+    <t>10,100</t>
+  </si>
+  <si>
+    <t>1e-04,0.001</t>
+  </si>
+  <si>
+    <t>15.692,108.202</t>
+  </si>
+  <si>
+    <t>Goods, Residents, Vessels</t>
+  </si>
+  <si>
+    <t>3.608,16.791</t>
+  </si>
+  <si>
+    <t>Nursery, Residents</t>
+  </si>
+  <si>
+    <t>1.888,6.938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02,0.2 </t>
+  </si>
+  <si>
+    <t>0.2,2</t>
+  </si>
+  <si>
+    <t>Asian Honey Bee</t>
+  </si>
+  <si>
+    <t>Containers, Vessels</t>
+  </si>
+  <si>
+    <t>0.03,0.16</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/apis_cerana/ApisCerana_DAWE.csv</t>
+  </si>
+  <si>
+    <t>GBIF focal species name(s)</t>
+  </si>
+  <si>
+    <t>Wind effect width</t>
+  </si>
+  <si>
+    <t>North wind leakage</t>
+  </si>
+  <si>
+    <t>North wind establishment</t>
+  </si>
+  <si>
+    <t>Host distribution raster file</t>
+  </si>
+  <si>
+    <t>Climate suitability raster file</t>
+  </si>
+  <si>
+    <t>Occurrence csv file</t>
+  </si>
+  <si>
+    <t>Pacific wind leakage</t>
+  </si>
+  <si>
+    <t>Pacific wind establishment</t>
+  </si>
+  <si>
+    <t>NZ wind leakage</t>
+  </si>
+  <si>
+    <t>NZ wind establishment</t>
+  </si>
+  <si>
+    <t>Wind data path</t>
+  </si>
+  <si>
+    <t>Defines wind speed polygons to be rasterised to the coastline</t>
+  </si>
+  <si>
+    <t>risk_layers/pathway/raw_data/Wind/wind.gpkg</t>
+  </si>
+  <si>
+    <t>Food, Nursery, Residents, northwind</t>
+  </si>
+  <si>
+    <t>Food, Nursery, Residents</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/diaphorina_citri/cabi_diaphorina_citri_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>risk_layers/biotic/citrus_hosts.tif</t>
+  </si>
+  <si>
+    <t>risk_layers/abiotic/occurrences/diaphorina_citri/diaphorinacitri_expertdata.csv</t>
+  </si>
+  <si>
+    <t>Tourists, Residents, Food, Torres, Goods</t>
+  </si>
+  <si>
+    <t>Containers, Food, Residents, Vessels</t>
+  </si>
+  <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>1, 100</t>
+  </si>
+  <si>
+    <t>Bee mites (Apis mellifera)</t>
+  </si>
+  <si>
+    <t>Bee mites (Apis cerana)</t>
+  </si>
+  <si>
+    <t>Carambola fruit fly</t>
+  </si>
+  <si>
+    <t>Oriental fruit fly</t>
+  </si>
+  <si>
+    <t>New Guinea fruit fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese pine sawyer beetle  </t>
+  </si>
+  <si>
+    <t>Pine sawyer beetle</t>
+  </si>
+  <si>
+    <t>Cicadella viridis (Xylella vector)</t>
+  </si>
+  <si>
+    <t>Xylella fastidiosa</t>
+  </si>
+  <si>
+    <t>Xylella (Graphocephala atropunctata)</t>
+  </si>
+  <si>
+    <t>Xylella (Homalodisca vitripennis)</t>
+  </si>
+  <si>
+    <t>Xylella (Philaenus spumarius)</t>
+  </si>
+  <si>
+    <t>HLB (Asiatic citrus psyllid)</t>
+  </si>
+  <si>
+    <t>HLB (African citrus psyllid)</t>
+  </si>
+  <si>
+    <t>Khapra beetle</t>
+  </si>
+  <si>
+    <t>Melon fruit fly</t>
+  </si>
+  <si>
+    <t>Apis mellifera</t>
+  </si>
+  <si>
+    <t>om#V&gt;nzeCa3E^aU2.n8xZLCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -833,7 +1336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -863,49 +1366,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1122,11 +1582,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1135,11 +1597,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1148,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,12 +1635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1185,118 +1643,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1304,13 +1724,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1318,33 +1742,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="133">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1363,97 +1827,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1464,6 +1837,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1474,6 +1854,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1491,6 +1878,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1501,6 +1902,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1532,6 +1940,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1574,6 +1985,663 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -1604,11 +2672,24 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1616,6 +2697,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1626,6 +2710,43 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1736,6 +2857,9 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="James Camac" id="{5FECB3BD-2E80-7D43-8674-E02E36A53731}" userId="James Camac" providerId="None"/>
+  <person displayName="Microsoft Office User" id="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" userId="Microsoft Office User" providerId="None"/>
+  <person displayName="James Camac" id="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" userId="S::james.camac@unimelb.edu.au::f4070045-96f0-48f7-a1ff-0423c56da654" providerId="AD"/>
   <person displayName="John Baumgartner" id="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" userId="S::john.baumgartner@unimelb.edu.au::64e08097-c003-4539-ab7e-80504fe98ad0" providerId="AD"/>
 </personList>
 </file>
@@ -2037,6 +3161,53 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2021-03-22T23:27:16.69" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{B5A97D6C-3EB5-6940-A766-351C93294C30}">
+    <text>Used fertiliser pathway to distribute contaminated AG equipment. Idea being these will likely be used in areas of greatest fertiliser use (i.e. production zones).</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2021-04-16T05:14:03.11" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{03D81196-E77D-0F4D-A067-33B2632A711C}">
+    <text>Insufficient occurrence data</text>
+  </threadedComment>
+  <threadedComment ref="M2" dT="2021-03-23T02:28:08.28" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{0196C33E-8F8E-E84B-9ABD-5D6E98C41E55}">
+    <text>Very few records of Citrus canker. Decided to use CABI records as approximation data rather than the 50 odd GBIF records</text>
+  </threadedComment>
+  <threadedComment ref="N2" dT="2021-03-19T04:28:18.01" personId="{5FECB3BD-2E80-7D43-8674-E02E36A53731}" id="{08970612-EB31-8641-B619-72C12D702C77}">
+    <text>Need to extra work here. Some records are in USA jurisdictions which don’t have it. Will need to manually remove.</text>
+  </threadedComment>
+  <threadedComment ref="K3" dT="2020-12-09T03:13:18.71" personId="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" id="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
+    <text>Modelled together to overcome potential identification problems</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2021-04-16T03:05:28.72" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{95D4E981-0722-DC45-973F-DAC9CDE6DA9E}">
+    <text>Too few records to estimate climate suitability</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2021-03-23T00:25:42.82" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{30BEA44C-71B5-C346-82C3-2AF8168E4B6B}">
+    <text>Note that for fruit flies we have broken up the passenger pathway by resident &amp; tourist. We also add a Torres strait passenger pathway… and because there are two separate food pathways with different establishment parameters we’ve used goods to distribute the second.</text>
+  </threadedComment>
+  <threadedComment ref="K8" dT="2020-10-19T00:39:51.74" personId="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" id="{A62E6B1F-E4EB-984E-B747-9546652AB2B8}">
+    <text>Have added synonyms as per risk maps phase 1</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2021-03-23T00:03:24.66" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}">
+    <text>Too few records for estimating climate</text>
+  </threadedComment>
+  <threadedComment ref="C11" dT="2021-03-23T00:34:29.85" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{1B8A75AC-A9FE-EB43-AD87-1FE8467FBB89}">
+    <text>Using the nursery pathway for smuggled budwood (though it is distributed the same as food). Food is used for smuggled curry leaves etc</text>
+  </threadedComment>
+  <threadedComment ref="C12" dT="2021-03-23T00:34:29.85" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{54D29E90-6B5C-7E47-B3EC-ABC5E05A1AF6}">
+    <text>Using the nursery pathway for smuggled budwood (though it is distributed the same as food)</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2021-03-23T00:57:43.84" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{8CF3C082-6166-8F42-B7A9-381AB738D432}">
+    <text>Some stored product needed to be distributed by residents as opposed to the conventional “food” pathway because of differing establishment probs. This shouldn’t make a difference as both pathways are distributed the same way</text>
+  </threadedComment>
+  <threadedComment ref="D14" dT="2021-04-16T03:05:10.27" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{5768F99D-9AC8-9B43-BDB9-4E209772FF9A}">
+    <text>Too few records to reliably estimate climate suitability</text>
+  </threadedComment>
+  <threadedComment ref="A16" dT="2021-03-23T01:17:44.81" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{07597060-6049-9840-92E5-7BD1213CB6F8}">
+    <text>Broke up Marks pathways to those related to vectors and those related to the pathogen itself.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B14" dT="2020-10-09T00:15:04.70" personId="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" id="{72FBB23E-4BBA-F24B-819F-177E1ED5B904}">
     <text>Movement of Monochamus
 on timber pallets and packing
@@ -2081,795 +3252,2425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38E99D3-8DA3-8747-86C0-5C7DD6918E18}">
-  <dimension ref="A1:C16"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="34" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="34" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>87</v>
+      <c r="A2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="40" t="b">
+      <c r="A3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="48"/>
+      <c r="A4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="48"/>
+      <c r="A5" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>130</v>
+      <c r="A6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="A7" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="C8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="42" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="29" t="s">
         <v>98</v>
       </c>
+      <c r="C9" s="30" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="29" t="s">
         <v>101</v>
       </c>
+      <c r="C10" s="30" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="A11" s="28" t="s">
         <v>103</v>
       </c>
+      <c r="B11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>106</v>
+      <c r="C12" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="29" t="s">
         <v>109</v>
       </c>
+      <c r="C13" s="30" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="42" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="44">
+      <c r="B15" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="31">
         <f>LN(0.5)/200</f>
         <v>-3.4657359027997266E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="44">
+    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="31">
         <f>LN(0.5)/10</f>
         <v>-6.9314718055994526E-2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsBlanks" dxfId="132" priority="14">
+      <formula>LEN(TRIM(C8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsBlanks" dxfId="131" priority="13">
+      <formula>LEN(TRIM(C3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="130" priority="12">
+      <formula>ISBLANK($C$10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="129" priority="9">
+      <formula>ISBLANK($C$14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C16">
+    <cfRule type="expression" dxfId="128" priority="8">
+      <formula>ISBLANK($C$15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="127" priority="10">
+      <formula>ISBLANK($C$13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="126" priority="7">
+      <formula>ISBLANK($C$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="125" priority="11">
+      <formula>ISBLANK($C$12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="124" priority="6">
+      <formula>ISBLANK($C$11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="expression" dxfId="123" priority="3">
+      <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="122" priority="2">
+      <formula>AND(NOT(ISBLANK($C$5)), ISBLANK($C$4))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsBlanks" dxfId="48" priority="13">
-      <formula>LEN(TRIM(C7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="47" priority="12">
-      <formula>LEN(TRIM(C3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="46" priority="11">
-      <formula>ISBLANK($C$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="45" priority="8">
-      <formula>ISBLANK($C$13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="44" priority="7">
-      <formula>ISBLANK($C$14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="43" priority="9">
-      <formula>ISBLANK($C$12)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="42" priority="6">
-      <formula>ISBLANK($C$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="41" priority="10">
-      <formula>ISBLANK($C$11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="40" priority="5">
-      <formula>ISBLANK($C$10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="121" priority="1">
       <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="38" priority="1">
-      <formula>AND(NOT(ISBLANK($C$5)), ISBLANK($C$4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to container data" prompt="File path (absolute or relative to the R working directory) to the dataset giving the distribution of containers by postcode." sqref="A11:C11" xr:uid="{14B6D594-9A26-CA42-812B-5C5A86722895}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A14:C14" xr:uid="{8F72518D-BAB7-9142-9736-2536EA27E145}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A13:C13" xr:uid="{A4241D2D-0D39-E743-B011-0CB2B9A37836}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A12:C12" xr:uid="{44AA65A2-6ACD-0941-B62C-2049F5C7A6C8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A10:C10" xr:uid="{67EF961C-1766-7A4E-B6D7-223B91566EBE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A16:B16" xr:uid="{5FF41043-A82A-944B-945D-E8F2E51EF83B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A15:B15" xr:uid="{33870E04-A8E1-8C4D-9B03-82E0D0B98A9C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A9:C9 C8" xr:uid="{30D6C85A-9048-7A40-93FE-19DD2761C260}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="A7:B8 C7" xr:uid="{16AA945C-95BC-C34D-8453-8B015EFC9A02}"/>
+  <dataValidations count="23">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to container data" prompt="File path (absolute or relative to the R working directory) to the dataset giving the distribution of containers by postcode." sqref="A12:C12" xr:uid="{14B6D594-9A26-CA42-812B-5C5A86722895}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A15 B15 C15" xr:uid="{8F72518D-BAB7-9142-9736-2536EA27E145}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A14:C14" xr:uid="{A4241D2D-0D39-E743-B011-0CB2B9A37836}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A13:C13" xr:uid="{44AA65A2-6ACD-0941-B62C-2049F5C7A6C8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A11:C11" xr:uid="{67EF961C-1766-7A4E-B6D7-223B91566EBE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A18:B18" xr:uid="{5FF41043-A82A-944B-945D-E8F2E51EF83B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A17:B17" xr:uid="{33870E04-A8E1-8C4D-9B03-82E0D0B98A9C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A10:C10" xr:uid="{30D6C85A-9048-7A40-93FE-19DD2761C260}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="C8 B8 A8" xr:uid="{16AA945C-95BC-C34D-8453-8B015EFC9A02}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A3:B3" xr:uid="{AB6F6BFD-04DD-1F47-AB62-6109D668317E}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C3" xr:uid="{14FD865C-56F7-6B42-A0EE-46BC6C1853BC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="C15" xr:uid="{8B7AF34B-747D-A54C-B7BD-111268DFB3AA}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="C17" xr:uid="{8B7AF34B-747D-A54C-B7BD-111268DFB3AA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C16" xr:uid="{74A9AB0E-B263-C746-9077-ED0626B99833}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C18" xr:uid="{74A9AB0E-B263-C746-9077-ED0626B99833}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C5" xr:uid="{B0433237-8341-1A41-BC52-20A6B784A23C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6:B6" xr:uid="{08117AE8-D292-1842-9E84-80BB8B707392}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6 B6" xr:uid="{08117AE8-D292-1842-9E84-80BB8B707392}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A5:B5" xr:uid="{AF8327F7-6AB4-254D-A562-85A05BFD02CC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A4:B4" xr:uid="{5C32543D-BB85-AC49-99C0-4C6C3B4358FA}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{3CC3A8BE-AB30-1148-A192-70DE8AE49742}">
       <formula1>"boundaries,osm"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C4" xr:uid="{D8D76911-8403-2F43-A010-EB7D062AA120}"/>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be a number between 0 and 1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="C7" xr:uid="{7589A443-F466-BD42-B945-2BAB91A14E6E}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="A7:B7" xr:uid="{C15D68A0-98A0-D945-B6A6-B49C736EB3D2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NVIS raster" prompt="File path (absolute or relative to the R working directory) to the NVIS raster dataset. " sqref="C9 B9 A9" xr:uid="{3524C13F-E2D8-534A-BF03-893F08CA0CD9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to Wind shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of wind speed to be associated with coastal regions." sqref="A16 B16 C16" xr:uid="{BBD5346E-86BE-7340-8C47-842D93F62CDA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F35787-E4E5-9646-9ED0-CA25B0854047}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F35787-E4E5-9646-9ED0-CA25B0854047}">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.5" style="19"/>
-    <col min="13" max="13" width="21.5" style="20" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="20" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="18" customWidth="1"/>
-    <col min="16" max="16" width="12" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="17" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" style="17" customWidth="1"/>
-    <col min="22" max="23" width="13.1640625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="11.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" style="17" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="17" customWidth="1"/>
-    <col min="28" max="28" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5" style="17" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" style="17" customWidth="1"/>
-    <col min="32" max="33" width="16.5" style="17"/>
-    <col min="34" max="34" width="12.1640625" style="17" customWidth="1"/>
-    <col min="35" max="35" width="14" style="17" customWidth="1"/>
-    <col min="36" max="36" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14" style="54" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5" style="21"/>
-    <col min="40" max="16384" width="16.5" style="20"/>
+    <col min="1" max="1" width="27.6640625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.5" style="15"/>
+    <col min="15" max="15" width="19.5" style="16" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="54" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="14" customWidth="1"/>
+    <col min="18" max="18" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="12" customWidth="1"/>
+    <col min="24" max="25" width="13.1640625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5" style="12" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5" style="12" customWidth="1"/>
+    <col min="32" max="32" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" style="12" customWidth="1"/>
+    <col min="34" max="35" width="16.5" style="12"/>
+    <col min="36" max="36" width="12.1640625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="14" style="12" customWidth="1"/>
+    <col min="38" max="38" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="45" width="19.5" style="12" customWidth="1"/>
+    <col min="46" max="46" width="14" style="39" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="16.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="9" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:46" s="42" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="M1" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="O1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="P1" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="R1" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM1" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN1" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO1" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP1" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ1" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR1" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS1" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:46" s="41" customFormat="1" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="41" customFormat="1" ht="86" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA1" s="28" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD1" s="28" t="s">
+      <c r="L3" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK1" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="8"/>
-    </row>
-    <row r="2" spans="1:39" s="14" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="16">
-        <v>1970</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="18">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="14">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="55" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="41" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="14">
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="41" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="14">
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="14">
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT7" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC2" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD2" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE2" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK2" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL2" s="12">
+      <c r="R8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT8" s="39">
         <v>5000</v>
       </c>
-      <c r="AM2" s="13"/>
+    </row>
+    <row r="9" spans="1:46" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="R9" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT9" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT10" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="P11" s="54">
+        <v>100000</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI11" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT11" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="T12" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT12" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="T13" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT13" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="T14" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL14" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT14" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="K15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT15" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="K16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" ref="Q16" si="0">LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT16" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="K17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="14">
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT17" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="K18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" ref="Q18" si="1">LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT18" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="K19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1970</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="14">
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT19" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI20" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT20" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" s="43" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="14">
+        <f>LN(0.5)/1</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="39">
+        <v>5000</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="L2:L1048576">
+    <cfRule type="expression" dxfId="120" priority="276">
+      <formula>ISBLANK($K2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="288">
+      <formula>ISBLANK($L2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="118" priority="291">
+      <formula>ISBLANK($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:H1048576 J2:AT1048576">
+    <cfRule type="expression" dxfId="117" priority="4">
+      <formula>ISBLANK($A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="expression" dxfId="116" priority="290">
+      <formula>ISBLANK($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="expression" dxfId="115" priority="292">
+      <formula>ISBLANK($F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576 J5">
+    <cfRule type="expression" dxfId="114" priority="289">
+      <formula>ISBLANK($G2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:O1048576">
+    <cfRule type="expression" dxfId="113" priority="41">
+      <formula>$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K4">
+    <cfRule type="expression" dxfId="112" priority="267">
+      <formula>ISBLANK($A3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K4">
+    <cfRule type="expression" dxfId="111" priority="268">
+      <formula>$D3=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="110" priority="247">
+      <formula>OR(ISBLANK($A5),$D5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5 A5 D5 V5:W5 AB5:AC5 AH5:AI5">
+    <cfRule type="expression" dxfId="109" priority="227">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="108" priority="243">
+      <formula>ISBLANK($D5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="107" priority="245">
+      <formula>ISBLANK($F5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="106" priority="242">
+      <formula>ISBLANK($G5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="105" priority="229">
+      <formula>$D5=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="104" priority="223">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="103" priority="224">
+      <formula>$D5=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="102" priority="207">
+      <formula>ISBLANK($C5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="101" priority="206">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="expression" dxfId="100" priority="189">
+      <formula>ISBLANK($A8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="expression" dxfId="99" priority="190">
+      <formula>$D8=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="98" priority="185">
+      <formula>ISBLANK($A6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="97" priority="186">
+      <formula>$D6=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="96" priority="179">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="95" priority="177">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="94" priority="142">
+      <formula>ISBLANK($A10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="93" priority="143">
+      <formula>$D10=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" dxfId="92" priority="138">
+      <formula>ISBLANK($A7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" dxfId="91" priority="139">
+      <formula>$D7=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="90" priority="134">
+      <formula>ISBLANK($A11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="89" priority="135">
+      <formula>$D11=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="88" priority="130">
+      <formula>ISBLANK($A12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="87" priority="131">
+      <formula>$D12=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="86" priority="126">
+      <formula>ISBLANK($A13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="85" priority="127">
+      <formula>$D13=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="expression" dxfId="84" priority="122">
+      <formula>ISBLANK($A14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="expression" dxfId="83" priority="123">
+      <formula>$D14=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="expression" dxfId="82" priority="118">
+      <formula>ISBLANK($A15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="expression" dxfId="81" priority="119">
+      <formula>$D15=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="expression" dxfId="80" priority="114">
+      <formula>ISBLANK($A16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="expression" dxfId="79" priority="115">
+      <formula>$D16=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="expression" dxfId="78" priority="110">
+      <formula>ISBLANK($A17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="expression" dxfId="77" priority="111">
+      <formula>$D17=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="expression" dxfId="76" priority="106">
+      <formula>ISBLANK($A18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="expression" dxfId="75" priority="107">
+      <formula>$D18=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="expression" dxfId="74" priority="102">
+      <formula>ISBLANK($A19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="expression" dxfId="73" priority="103">
+      <formula>$D19=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:AA5">
+    <cfRule type="expression" dxfId="72" priority="93">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD5:AG5">
+    <cfRule type="expression" dxfId="71" priority="88">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="expression" dxfId="70" priority="61">
+      <formula>ISBLANK($A21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="expression" dxfId="69" priority="62">
+      <formula>$D21=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="expression" dxfId="68" priority="60">
+      <formula>ISBLANK($A21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="expression" dxfId="67" priority="56">
+      <formula>ISBLANK($A21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="expression" dxfId="66" priority="57">
+      <formula>$D21=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="expression" dxfId="65" priority="456">
+      <formula>ISBLANK(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="37" priority="193">
-      <formula>$F2=FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="215">
+    <cfRule type="expression" dxfId="64" priority="475">
+      <formula>$G2=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="476">
       <formula>ISBLANK($H2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="35" priority="216">
-      <formula>ISBLANK($G2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576 K2:K1048576 I2:I1048576">
-    <cfRule type="expression" dxfId="34" priority="217">
-      <formula>AND(ISBLANK($I2), ISBLANK($K2), ISBLANK($M2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="33" priority="206">
-      <formula>ISBLANK($I2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="32" priority="214">
-      <formula>OR($D2=FALSE, AND(ISBLANK($I2), ISBLANK($K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="expression" dxfId="31" priority="213">
-      <formula>OR(ISBLANK($A2),$D2=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O1048576 I2:L1048576">
-    <cfRule type="expression" dxfId="30" priority="220">
-      <formula>NOT(ISBLANK($M2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S1048576">
-    <cfRule type="expression" dxfId="29" priority="204">
+  <conditionalFormatting sqref="J2:K1048576 M2:M1048576">
+    <cfRule type="expression" dxfId="62" priority="512">
+      <formula>AND(ISBLANK($K2), ISBLANK($M2), ISBLANK($J2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T1048576">
+    <cfRule type="expression" dxfId="61" priority="519">
       <formula>NOT(ISNUMBER(SEARCH("residents", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="218">
-      <formula>AND(ISNUMBER(SEARCH("residents",$C2)), ISBLANK($R2))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF1048576">
+    <cfRule type="expression" dxfId="60" priority="545">
+      <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="expression" dxfId="59" priority="1">
+      <formula>ISBLANK($A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="58" priority="2">
+      <formula>ISBLANK($A5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="57" priority="3">
+      <formula>ISBLANK($G5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S1048576">
+    <cfRule type="expression" dxfId="56" priority="614">
+      <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="615">
+      <formula>ISBLANK($S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK1048576">
+    <cfRule type="expression" dxfId="54" priority="616">
+      <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="617">
+      <formula>ISBLANK($AK2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AO1048576">
+    <cfRule type="expression" dxfId="52" priority="618">
+      <formula>NOT(ISNUMBER(SEARCH("northwind",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="619">
+      <formula>ISBLANK($AO2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AQ1048576">
+    <cfRule type="expression" dxfId="50" priority="620">
+      <formula>NOT(ISNUMBER(SEARCH("pacificwind",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="621">
+      <formula>ISBLANK($AQ2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS2:AS1048576">
+    <cfRule type="expression" dxfId="48" priority="622">
+      <formula>NOT(ISNUMBER(SEARCH("nzwind",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="623">
+      <formula>ISBLANK($AS2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N1048576">
+    <cfRule type="expression" dxfId="46" priority="624">
+      <formula>OR($D2=FALSE, AND(ISBLANK($K2), ISBLANK($M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:U1048576">
-    <cfRule type="expression" dxfId="27" priority="203">
+    <cfRule type="expression" dxfId="45" priority="625">
+      <formula>NOT(ISNUMBER(SEARCH("residents",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="626">
+      <formula>ISBLANK($U2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q1048576">
+    <cfRule type="expression" dxfId="43" priority="627">
+      <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="628">
+      <formula>ISBLANK($Q2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC1048576">
+    <cfRule type="expression" dxfId="41" priority="629">
+      <formula>NOT(ISNUMBER(SEARCH("fert", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="630">
+      <formula>ISBLANK($AC2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG1048576">
+    <cfRule type="expression" dxfId="39" priority="631">
+      <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="632">
+      <formula>ISBLANK($AG2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="expression" dxfId="37" priority="633">
+      <formula>NOT(ISNUMBER(SEARCH("wind", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="634">
+      <formula>ISBLANK($P2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R1048576">
+    <cfRule type="expression" dxfId="35" priority="635">
+      <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="636">
+      <formula>ISBLANK($R2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V1048576">
+    <cfRule type="expression" dxfId="33" priority="637">
       <formula>NOT(ISNUMBER(SEARCH("torres", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="221">
-      <formula>AND(ISNUMBER(SEARCH("torres",$C2)), ISBLANK($T2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:W1048576">
-    <cfRule type="expression" dxfId="25" priority="202">
+    <cfRule type="expression" dxfId="32" priority="638">
+      <formula>ISBLANK($V2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W1048576">
+    <cfRule type="expression" dxfId="31" priority="639">
+      <formula>NOT(ISNUMBER(SEARCH("torres", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="640">
+      <formula>ISBLANK($W2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X1048576">
+    <cfRule type="expression" dxfId="29" priority="641">
       <formula>NOT(ISNUMBER(SEARCH("mail", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="222">
-      <formula>AND(SEARCH("mail",$C2), ISBLANK($V2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y1048576">
-    <cfRule type="expression" dxfId="23" priority="201">
+    <cfRule type="expression" dxfId="28" priority="642">
+      <formula>ISBLANK($X2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y1048576">
+    <cfRule type="expression" dxfId="27" priority="643">
+      <formula>NOT(ISNUMBER(SEARCH("mail", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="644">
+      <formula>ISBLANK($Y2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z1048576">
+    <cfRule type="expression" dxfId="25" priority="645">
       <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="223">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($X2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q1048576">
-    <cfRule type="expression" dxfId="21" priority="205">
-      <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="212">
-      <formula>AND(ISNUMBER(SEARCH("tourists",$C2)), ISBLANK($P2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="19" priority="209">
-      <formula>ISBLANK($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AL1048576">
-    <cfRule type="expression" dxfId="18" priority="192">
-      <formula>ISBLANK($A2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="17" priority="208">
-      <formula>ISBLANK($D2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="16" priority="210">
-      <formula>ISBLANK($E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="15" priority="207">
-      <formula>ISBLANK($F2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:O1048576">
-    <cfRule type="expression" dxfId="14" priority="194">
-      <formula>$D2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="13" priority="229">
+    <cfRule type="expression" dxfId="24" priority="646">
+      <formula>ISBLANK($Z2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA1048576">
+    <cfRule type="expression" dxfId="23" priority="647">
       <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="230">
-      <formula>AND(ISNUMBER(SEARCH("vessels",$C2)), ISBLANK($O2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AA1048576">
-    <cfRule type="expression" dxfId="11" priority="231">
-      <formula>NOT(ISNUMBER(SEARCH("fert", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="232">
-      <formula>AND(ISNUMBER(SEARCH("fert",$C2)), ISBLANK($Z2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC1048576">
-    <cfRule type="expression" dxfId="9" priority="233">
+    <cfRule type="expression" dxfId="22" priority="648">
+      <formula>ISBLANK($AA2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB1048576">
+    <cfRule type="expression" dxfId="21" priority="649">
+      <formula>NOT(ISNUMBER(SEARCH("fert",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="650">
+      <formula>ISBLANK($AB2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD1048576">
+    <cfRule type="expression" dxfId="19" priority="651">
       <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="234">
-      <formula>AND(ISNUMBER(SEARCH("machine",$C2)), ISBLANK($AB2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AE1048576">
-    <cfRule type="expression" dxfId="7" priority="235">
-      <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="236">
-      <formula>AND(ISNUMBER(SEARCH("container",$C2)), ISBLANK($AD2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AG1048576">
-    <cfRule type="expression" dxfId="5" priority="237">
+    <cfRule type="expression" dxfId="18" priority="652">
+      <formula>ISBLANK($AD2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE1048576">
+    <cfRule type="expression" dxfId="17" priority="653">
+      <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="654">
+      <formula>ISBLANK($AE2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH1048576">
+    <cfRule type="expression" dxfId="15" priority="655">
       <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="238">
-      <formula>AND(ISNUMBER(SEARCH("nursery",$C2)), ISBLANK($AF2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK1048576">
-    <cfRule type="expression" dxfId="3" priority="239">
+    <cfRule type="expression" dxfId="14" priority="656">
+      <formula>ISBLANK($AH2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AI1048576">
+    <cfRule type="expression" dxfId="13" priority="657">
+      <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="658">
+      <formula>ISBLANK($AI2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ1048576">
+    <cfRule type="expression" dxfId="11" priority="659">
+      <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="660">
+      <formula>ISBLANK($AJ2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AL1048576">
+    <cfRule type="expression" dxfId="9" priority="661">
       <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="240">
-      <formula>AND(ISNUMBER(SEARCH("goods",$C2)), ISBLANK($AJ2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AI1048576">
-    <cfRule type="expression" dxfId="1" priority="241">
-      <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="242">
-      <formula>AND(ISNUMBER(SEARCH("food",$C2)), ISBLANK($AH2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="47">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="G1" xr:uid="{4B28E83D-9DAA-9947-BE74-46FD9D26EB42}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1:B1" xr:uid="{E5F056D9-4831-1E4C-B911-3A976093F3AE}"/>
+    <cfRule type="expression" dxfId="8" priority="662">
+      <formula>ISBLANK($AL2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AM1048576">
+    <cfRule type="expression" dxfId="7" priority="663">
+      <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="664">
+      <formula>ISBLANK($AM2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN1048576">
+    <cfRule type="expression" dxfId="5" priority="665">
+      <formula>NOT(ISNUMBER(SEARCH("northwind",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="666">
+      <formula>ISBLANK($AN2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2:AP1048576">
+    <cfRule type="expression" dxfId="3" priority="667">
+      <formula>NOT(ISNUMBER(SEARCH("pacificwind",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="668">
+      <formula>ISBLANK($AP2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AR1048576">
+    <cfRule type="expression" dxfId="1" priority="669">
+      <formula>NOT(ISNUMBER(SEARCH("nzwind",$C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="670">
+      <formula>ISBLANK($AR2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="56">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A1" xr:uid="{E5F056D9-4831-1E4C-B911-3A976093F3AE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="D1" xr:uid="{7FEFCE89-2113-7A4C-A437-3330E97C3AD5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="E1" xr:uid="{BEBC051B-82CD-1B48-BE7A-BD30257EDC71}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="F1" xr:uid="{27524273-1C90-D04F-832E-935EB4104323}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="F1" xr:uid="{BEBC051B-82CD-1B48-BE7A-BD30257EDC71}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="G1" xr:uid="{27524273-1C90-D04F-832E-935EB4104323}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="H1" xr:uid="{048997E5-1BBB-0B4F-8524-4F71F4D0963D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="J1" xr:uid="{544504DF-2050-134C-8497-26394E3031A2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest._x000a_" sqref="P1:Q1" xr:uid="{1A6AAEBE-B93B-A343-B662-CF1F257FCCFA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="R1:S1" xr:uid="{9BB29CB2-A334-AA40-AB0B-AD97B6DB1CE7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="T1:U1" xr:uid="{5B5B5D23-E41C-034B-BB8C-780D7C7B7330}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="V1:W1" xr:uid="{F6FEE5E1-D9A3-A740-9E8B-638C32FDD00D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="X1:Y1" xr:uid="{1DC9DEE7-7379-6842-A6EB-0DF269E933D8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="O1" xr:uid="{086160EC-9D52-9C49-8D24-EF29A51F2A54}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="Z1:AA1" xr:uid="{565002BF-0DFE-B94A-9B26-10772C7EEF0D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="AB1:AC1" xr:uid="{C6C5C3CE-9CCE-AF4C-A1D8-D400932E1554}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="AD1:AE1" xr:uid="{C489A9C9-F330-A341-B9CC-483398DDC7E6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="AF1:AG1" xr:uid="{E9F751EA-A832-8B49-BA7D-522EA0666BB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="AJ1:AK1" xr:uid="{8F08BC14-7836-4049-A576-C8460E7AB591}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A3:B1048576 A2:B2" xr:uid="{FCA27B26-0010-EE4F-8B6E-B6BCF0DF1EDC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="I1 I3:I1048576" xr:uid="{589C2EB4-9ABA-5940-9C6D-3DE7287152B9}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on tourist" prompt="Probability of international tourist carrying pest." sqref="P2:Q1048576" xr:uid="{53D33507-D28B-5C4D-BF9A-79E197DEB5E3}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on return resident" prompt="Probability of pest on returning resident." sqref="R2:S1048576" xr:uid="{B9883FA4-A475-184A-88E9-1113938EC677}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="AH1:AI1" xr:uid="{32FFCBBD-4497-364E-9334-FC28356E20CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF minimum year" prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="L1" xr:uid="{544504DF-2050-134C-8497-26394E3031A2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="Q1" xr:uid="{086160EC-9D52-9C49-8D24-EF29A51F2A54}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must begin with a letter or a period." promptTitle="Species name" prompt="Name that should be prepended to output files for this species. Must begin with a letter or period." sqref="A2:A15 A20:A1048576" xr:uid="{FCA27B26-0010-EE4F-8B6E-B6BCF0DF1EDC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF focal species search names" prompt="Comma-separated species names to query GBIF. If this is empty, GBIF will not be queried. Ignored if &quot;Climate suitability path&quot; is provided." sqref="K1:K1048576" xr:uid="{589C2EB4-9ABA-5940-9C6D-3DE7287152B9}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include abiotic weights?" prompt="Should abiotic weights be included?" sqref="D2:D1048576" xr:uid="{C2DF29EF-AFB7-9F42-B4CE-CEBE92710EDB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset. Ignored if &quot;Climate suitability path&quot; is provided." sqref="K1:K1048576" xr:uid="{3B00E97C-487B-FE42-8EA0-D06CE5C55537}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per mail item" prompt="Probability of arrival of pest per piece of mail." sqref="V2:W1048576" xr:uid="{4B2739D8-37B1-6A47-B64D-AAE7AC7BF8F4}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expert occurrence data path" prompt="File path (absolute or relative to working directory) to occurrence dataset. Ignored if &quot;Climate suitability path&quot; is provided." sqref="M1:M1048576" xr:uid="{3B00E97C-487B-FE42-8EA0-D06CE5C55537}"/>
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a negative number." promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="Q2:Q1048576" xr:uid="{BB861B61-09C3-7D44-8C41-E4DF88FE6A0F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival per vessel" prompt="Probability of arrival of pest per vessel." sqref="X2:Y1048576" xr:uid="{1A254FEC-45D6-9548-A95C-2F801D81556E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="F2:F1048576" xr:uid="{701D4CA7-2B69-4447-A97B-9709BB40773C}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Infected countries" prompt="Either a comma-separated string containing country names, or a file path (absolute or relative to working directory) to a CABI pest data sheet csv file. _x000a__x000a_If provided, occurrence records are verified against the provided data, to ensure that all records a" sqref="N1:N1048576" xr:uid="{92370C83-B97F-844F-A211-2A19455B8DF0}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="M2:N1048576" xr:uid="{A5ED1C5E-3D35-5A46-8A92-116FB25C0429}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a negative number." promptTitle="Distance penalty (ports)" prompt="Parameter controlling the rate of decrease in the likelihood of pest arrival with distance from marine ports." sqref="O2:O1048576" xr:uid="{BB861B61-09C3-7D44-8C41-E4DF88FE6A0F}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob per unit of fertiliser" prompt="Probability of arrival of pest per unit of fertiliser." sqref="Z2:AA1048576" xr:uid="{97457597-1B84-4E4E-9BCA-1BDFB9D1502F}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (machinery)" prompt="Probability of arrival of pest per unit of machinery." sqref="AB2:AC1048576" xr:uid="{8608EAF9-50F2-654A-B512-BB4F8D87B150}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (containers)" prompt="Probability of arrival per container entering Australia." sqref="AD2:AE1048576" xr:uid="{4455259B-CE18-4E46-A458-ED2133A3F305}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (nurserystock)" prompt="Probability of arrival of pest per unit of nurserystock entering Australia." sqref="AF2:AG1048576" xr:uid="{0AC6E29F-5654-D346-A355-51641DAF84DA}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (goods)" prompt="Probability of arrival of pest per unit of goods." sqref="AJ2:AK1048576" xr:uid="{84635E57-CD86-A74B-B4DC-4E8F7D6B29DD}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NDVI?" prompt="Should NDVI contribute to biotic weight?" sqref="E2:E1048576" xr:uid="{701D4CA7-2B69-4447-A97B-9709BB40773C}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels, northwind, pacificwind, nzwind." sqref="C1:C1048576" xr:uid="{05EF1A59-A2C9-3E44-8E95-C2251E30B0B1}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="G2:G1048576" xr:uid="{12A62C14-E6D4-F74F-9D7A-C11D4BC77A6A}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Infected countries" prompt="Either a comma-separated string containing country names, or a file path (absolute or relative to working directory) to a CABI pest data sheet csv file. _x000a__x000a_If provided, occurrence records are verified against the provided data, to ensure that all records a" sqref="L1:L1048576" xr:uid="{92370C83-B97F-844F-A211-2A19455B8DF0}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="GBIF maximum uncertainty" prompt="Highest tolerable coordinate uncertainty (in metres) when downloading GBIF occurrence data." sqref="K2:L1048576" xr:uid="{A5ED1C5E-3D35-5A46-8A92-116FB25C0429}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entry pathways" prompt="Comma-separated entry pathways. Can be one or more of: containers, fertiliser, food, goods, machinery, mail, nursery, residents, torres, tourists, vessels." sqref="C1:C1048576" xr:uid="{05EF1A59-A2C9-3E44-8E95-C2251E30B0B1}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be TRUE or FALSE." promptTitle="Include NVIS?" prompt="Should NVIS contribute to biotic weight? _x000a__x000a_NOTE: Useful for pests that impact native vegetation" sqref="F2:F1048576" xr:uid="{12A62C14-E6D4-F74F-9D7A-C11D4BC77A6A}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be between 1800 and current year." promptTitle="GBIF minimum year " prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="J2:J1048576" xr:uid="{860F158D-F4A3-F842-BB8B-272AC1D888A8}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be between 1800 and current year." promptTitle="GBIF minimum year " prompt="Earliest year (1800 to current) for which GBIF data will be obtained. Ignored if gbif_species column is blank._x000a__x000a_DEFAULT: 1970 (If required &amp; left blank)" sqref="L2:L1048576" xr:uid="{860F158D-F4A3-F842-BB8B-272AC1D888A8}">
       <formula1>1800</formula1>
       <formula2>YEAR(TODAY())</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of pest on Torres passenger" prompt="Probability of pest on Torres Strait passenger." sqref="T2:U1048576" xr:uid="{C7F4FAC2-1E09-D24A-8BAC-5FD6219BE806}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="N1:O1048576" xr:uid="{9E2FCDB2-1FF7-8147-8F38-8F31C7C4B682}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="CABI file path" prompt="File path (absolute or relative to working directory) to the CABI csv file." sqref="G2:G1048576" xr:uid="{AD5DFB87-82FB-B44D-A12A-6DEF487A5237}">
-      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 and 1:3 are equivalent to 1,2,3)." promptTitle="CLUM v8 land use classes" prompt="Comma-separated land use classes (e.g. 340,341,342)." sqref="G2:G1048576" xr:uid="{C919AAEA-D70F-9042-A5B4-16F96F6A84C1}">
-      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1)," ,-:0123456789")))</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exclude BIOCLIM variables" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19)._x000a__x000a_Ignored if &quot;Climate suitability path&quot; is provided._x000a__x000a_Default: No variables are excluded." sqref="O1:O1048576 Q1:Q1048576" xr:uid="{9E2FCDB2-1FF7-8147-8F38-8F31C7C4B682}"/>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Can only contain numbers, commas, spaces, and range indicators (i.e. specified by colons or hyphens, e.g. 1-3 or 1:3)." promptTitle="NVIS major vegetation subgroups" prompt="Comma-separated NVIS MVS classes (e.g. 1,2,3,5)." sqref="H2:H1048576" xr:uid="{A5915C1B-0212-DC4B-ACFE-BEE185CBA57F}">
       <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(H2,ROW(INDIRECT("1:"&amp;LEN(H2))),1)," ,-:0123456789")))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="M1:M1048576" xr:uid="{43224EB0-F4AD-E443-B771-F1DA3AECF215}"/>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="AL1:AL1048576" xr:uid="{A4DB3E19-43E0-034B-BC9C-138C8662B41E}">
-      <formula1>AND($AL1 &gt;= 1000, MOD($AL1, 1000)=0)</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Climate suitability path" prompt="Optional file path to a climate suitability raster. Must be binary (0=unsuitable; 1=suitable) or describe relative suitability between 0-1. Must be 1000 m res; Australian Albers (EPSG:3577); extent xmin=-1888000; xmax=2122000; ymin=-4847000; ymax=-1010000" sqref="J1:J1048576" xr:uid="{43224EB0-F4AD-E443-B771-F1DA3AECF215}"/>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Aggregated output resolution must be a multiple of 1000." promptTitle="Aggregated output resolution" prompt="Spatial resolution of aggregated establishment likelihood rasters. Must be specified in metres and must be a multiple of 1000. If not provided, the default value of 5000 will be used." sqref="AT1:AT1048576" xr:uid="{A4DB3E19-43E0-034B-BC9C-138C8662B41E}">
+      <formula1>AND($AT1 &gt;= 1000, MOD($AT1, 1000)=0)</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a number greater than or equal to 0." promptTitle="Prob of arrival (food)" prompt="Probability of arrival of pest per consignment of fresh food entering Australia." sqref="AH2:AI1048576" xr:uid="{79122985-12E1-4145-9493-CB195B7CBF1B}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="User-defined host data" prompt="Optional path to raster dataset defining availability of host material. Non-zero/NA cells are considered host material. Unioned with CLUM if both provided." sqref="I1:I1048576" xr:uid="{A8D1EEF3-EA67-934A-8C1A-F84839B65848}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CLUM v8 land-use classes" prompt="Comma-separated land use classes (e.g. 340,341,342) defining host material. Unioned with user-defined host distribution dataset if both are provided." sqref="E1:E1048576" xr:uid="{67A2DBA0-8DEE-4247-B7AB-ED78DF6DDF69}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tourist leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the tourist passenger pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="R1:R1048576" xr:uid="{4E91DABA-2AF1-5F4D-A21F-8564612ABA48}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Resident leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the returning resident passenger pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="T1:T1048576" xr:uid="{FC21DF8D-7C19-6F46-8B9F-671FE34C13C2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Torres leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the Torres Strait Island passenger pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="V1:V1048576" xr:uid="{42CBAA0A-A7D9-ED43-AFD4-C3D410E084CD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Mail leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the mail pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="X1:X1048576" xr:uid="{CB330637-9405-3641-88B4-AFA642304B7C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Vessels leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the vessels pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="Z1:Z1048576" xr:uid="{B82EA2B0-C52D-8146-90BE-5F9AA0EECDFF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fertiliser leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the fertiliser pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AB1:AB1048576" xr:uid="{F39EA083-6B35-4945-B270-E35AD37E4DE8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Machinery leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the machinery pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AD1:AD1048576" xr:uid="{DC905021-8BC7-0C45-B652-7245CBD464AC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Containers leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the containers pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AF1:AF1048576" xr:uid="{7B86AA13-902C-CA42-97BD-F1DF5746599B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nurserystock leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the nurserystock pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AH1:AH1048576" xr:uid="{9FA13C66-BA4A-D54D-AF0E-99DDBA636A81}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Food leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the food pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AJ1:AJ1048576" xr:uid="{15C9A807-6234-EE43-8F6F-304D620CCFD3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Goods leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the goods pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AL1:AL1048576" xr:uid="{B6C72998-585C-6246-9618-8C7FCDA69B64}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tourist establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the tourist passenger pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="U7:U10 S1:S1048576 W8:W10" xr:uid="{C2FC4D74-FFCE-6441-B4EB-16D397FABB56}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Resident establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the resident passenger pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="U1:U6 U11:U1048576" xr:uid="{E24BD55C-1F0E-8544-921B-A59A1CD41B03}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Torres establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the Torres Strait Islands passenger pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="W1:W7 W11:W1048576" xr:uid="{8CA130E4-A555-B243-BE61-A478FC42F911}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Mail establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the mail pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="Y1:Y1048576" xr:uid="{BB221F99-4EE6-7844-A290-A7AEFDF3AF89}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Vessels establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the vessels pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AA1:AA1048576" xr:uid="{8FC51890-75E4-9A4D-9390-E5F8314B6C9A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fertiliser establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the fertiliser pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AC1:AC1048576" xr:uid="{344DA74B-EB91-D841-AE71-673599A322CF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Machinery establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the machinery pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AE1:AE1048576" xr:uid="{C4D88FB6-D0CE-9E45-8C25-F2BD1DFB8F47}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Containers establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the containers pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AG1:AG1048576" xr:uid="{61046A8E-A221-044D-9463-C4AC4E880910}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nurserystock establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the nurserystock pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AI1:AI1048576" xr:uid="{3B5CC39A-A481-0740-9E0A-A45BE1218E14}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Food establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the food pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AK1:AK1048576" xr:uid="{9A8C335E-33F8-0048-A4E3-A73300715173}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Goods establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the goods pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AM1:AM1048576" xr:uid="{4A670837-4676-FA49-BD1A-3518A2714C2E}"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid width" error="Must be a number greater than 0." promptTitle="Wind effect width in metres" prompt="If pathways include northwind, eastwind, or southeastwind, this variable defines how far inland (in metres), from the coast, that the pest can infiltrate. Distribution of arrival and establishment likelihood is assumed constant within this zone." sqref="P1:P1048576" xr:uid="{E45F173F-1E7D-B340-8384-6ECEDA6E4285}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="North wind leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the northerly wind pathway (southern Indonesia and Papua New Guinea). Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AN1:AN1048576" xr:uid="{4782E1BF-B47D-524A-B993-A009EBC467E7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pacific wind leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the Pacific wind pathway (Solomon Islands, Vanuatu, New Caledonia and Norfolk Island). Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AP1:AP1048576" xr:uid="{AD47F55D-9D09-094E-A4A4-E05A31A25E6B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="New Zealand wind leakage rate" prompt="Range (bounds of 95% CI) of the number of leakage events per year for the New Zealand wind pathway. Must be provided as a pair of values separated by a comma, e.g. 15,40" sqref="AR1:AR1048576" xr:uid="{F7658849-4AEC-C144-989A-D33D4F2C65E7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="North wind establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the northerly wind pathway (southern Indonesia and Papua New Guinea). Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AO1:AO1048576" xr:uid="{7FEF43E2-A2E1-FC45-BBCB-963538A2A93E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pacific wind establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the Pacific wind pathway (Solomon Islands, Vanuatu, New Caledonia and Norfolk Island). Must be provided as a pair of values ranging from 0 to 1, e.g. 0.0" sqref="AQ1:AQ1048576" xr:uid="{9182164F-DD08-7B4E-A5A3-5ACF4C9B47D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="New Zealand wind establish rate" prompt="Bounds of the 95% CI of the rate of survival &amp; establishment to end of pathway, for leakage events on the New Zealand wind pathway. Must be provided as a pair of values ranging from 0 to 1, e.g. 0.01,0.1" sqref="AS1:AS1048576" xr:uid="{336D6E2B-1E37-254A-BC1B-B4EB59797747}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species group" prompt="Group name for aggregating species' outputs. Combined output gives the likelihood that one or more members of the group arrive and establish at a cell." sqref="B1:B1048576" xr:uid="{DD185DD8-6AAD-454E-9130-6224B259270A}"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Native host alpha parameter" prompt="Alpha parameter for the alpha hull around native host occurrence records. As α approaches 0, the alpha hull approaches the original point set; as α approaches infinity, the alpha hull approaches the convex hull. " sqref="J1" xr:uid="{FA258D09-C592-D64F-AAC7-E9AD218F6780}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alpha parameter invalid" error="Must be a number greater than or equal to 0." promptTitle="Native host alpha parameter" prompt="Alpha parameter for the alpha hull around native host occurrence records. As α approaches 0, the alpha hull approaches the original point set; as α approaches infinity, the alpha hull approaches the convex hull. " sqref="J2:J1048576" xr:uid="{2658D807-D420-2447-B7C4-1B3D71E08AC6}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE2B039-1651-B64E-A8D4-585671D2F165}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3113,7 +5914,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3200,7 +6001,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,7 +6032,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3262,7 +6063,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3279,7 +6080,7 @@
         <v>46</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,10 +6200,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>16</v>
@@ -3441,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>35</v>
@@ -3455,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>35</v>
@@ -3464,7 +6265,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -3481,7 +6282,7 @@
         <v>19</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/cebra/20121001-multi-pest-early-detection-maps/data/user_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcamac/Dropbox/Projects/CEBRA/edmaps/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA83374-46AC-8140-8AF8-217F65F27095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8CE92-9EBB-5147-AF21-CD6A6DD35A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10020" yWindow="500" windowWidth="28380" windowHeight="21100" activeTab="1" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
@@ -825,12 +825,6 @@
     <t>110-117, 120-125, 130-134, 210, 220-222, 310-314, 320-338, 340-349, 350-353, 360-365, 410-414, 420-424, 430-439, 440-449, 450-454, 460-465, 510-515, 520-528, 530-538, 540-545, 550-555, 560-567, 570-575, 580-584, 590-595, 610-614, 620-623, 630-633, 640-644, 650-654, 660-663</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/BMSB/bmsb_presences_iprrg.csv</t>
-  </si>
-  <si>
     <t>GBIF username</t>
   </si>
   <si>
@@ -855,36 +849,9 @@
     <t>Bee mite</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/bactrocera_cucurbitae/cabi_Bactrocera_cucurbitae_14Dec2020.csv</t>
-  </si>
-  <si>
     <t>Bactrocera cucurbitae, Zeugodacus cucurbitae</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/monochamus_galloprovincialis/cabi_monochamus_galloprovincialis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/cicadella_viridis/cabi_cicadella_viridis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/graphocephala_atropunctata/cabi_graphocephala_atropunctata_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/homalodisca_vitripennis/cabi_homalodisca_vitripennis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/philaenus_spumarius/cabi_philaenus_spumarius_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/BMSB/cabi_halyomorpha halys_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/oriental_fruitfly/cabi_bactrocera_dorsalis_14Dec2020.csv</t>
-  </si>
-  <si>
     <t>Basemap mode</t>
   </si>
   <si>
@@ -1140,9 +1107,6 @@
     <t>0.03,0.16</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/apis_cerana/ApisCerana_DAWE.csv</t>
-  </si>
-  <si>
     <t>GBIF focal species name(s)</t>
   </si>
   <si>
@@ -1191,15 +1155,6 @@
     <t>Food, Nursery, Residents</t>
   </si>
   <si>
-    <t>risk_layers/abiotic/occurrences/diaphorina_citri/cabi_diaphorina_citri_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>risk_layers/biotic/citrus_hosts.tif</t>
-  </si>
-  <si>
-    <t>risk_layers/abiotic/occurrences/diaphorina_citri/diaphorinacitri_expertdata.csv</t>
-  </si>
-  <si>
     <t>Tourists, Residents, Food, Torres, Goods</t>
   </si>
   <si>
@@ -1264,6 +1219,51 @@
   </si>
   <si>
     <t>om#V&gt;nzeCa3E^aU2.n8xZLCS</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/apis_cerana/ApisCerana_DAWE.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/BMSB/bmsb_presences_iprrg.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/BMSB/cabi_halyomorpha halys_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/oriental_fruitfly/cabi_bactrocera_dorsalis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/bactrocera_cucurbitae/cabi_Bactrocera_cucurbitae_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/diaphorina_citri/diaphorinacitri_expertdata.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/diaphorina_citri/cabi_diaphorina_citri_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/monochamus_galloprovincialis/cabi_monochamus_galloprovincialis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/cicadella_viridis/cabi_cicadella_viridis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/graphocephala_atropunctata/cabi_graphocephala_atropunctata_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/homalodisca_vitripennis/cabi_homalodisca_vitripennis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>abiotic/occurrences/philaenus_spumarius/cabi_philaenus_spumarius_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>biotic/citrus_native_hosts_example.tif</t>
   </si>
 </sst>
 </file>
@@ -3297,43 +3297,43 @@
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" s="36" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C7" s="36">
         <v>1.0000000000000001E-5</v>
@@ -3429,13 +3429,13 @@
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -3572,10 +3572,10 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3626,7 +3626,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>8</v>
@@ -3647,19 +3647,19 @@
         <v>65</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L1" s="50" t="s">
         <v>66</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N1" s="48" t="s">
         <v>67</v>
@@ -3668,106 +3668,106 @@
         <v>68</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="51" t="s">
         <v>69</v>
       </c>
       <c r="R1" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="AG1" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="V1" s="48" t="s">
+      <c r="AH1" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="X1" s="48" t="s">
+      <c r="AI1" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AK1" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AL1" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM1" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD1" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG1" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH1" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI1" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK1" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL1" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM1" s="48" t="s">
-        <v>175</v>
-      </c>
       <c r="AN1" s="48" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AO1" s="48" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AP1" s="48" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AQ1" s="48" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AR1" s="48" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AS1" s="48" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AT1" s="52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="41" customFormat="1" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="41" customFormat="1" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>0</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="8"/>
@@ -3796,10 +3796,10 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -3808,10 +3808,10 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
@@ -3820,10 +3820,10 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
@@ -3839,11 +3839,11 @@
     </row>
     <row r="3" spans="1:46" s="41" customFormat="1" ht="86" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D3" s="11" t="b">
         <v>1</v>
@@ -3863,14 +3863,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L3" s="13">
         <v>1970</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -3887,24 +3887,24 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="4" spans="1:46" s="41" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D4" s="11" t="b">
         <v>1</v>
@@ -3948,7 +3948,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="12" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L4" s="13">
         <v>1970</v>
@@ -3964,38 +3964,38 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="5" spans="1:46" s="41" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D5" s="11" t="b">
         <v>1</v>
@@ -4037,7 +4037,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="13"/>
       <c r="M5" s="12" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="11"/>
@@ -4049,38 +4049,38 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D6" s="11" t="b">
         <v>1</v>
@@ -4120,10 +4120,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="13"/>
       <c r="M6" s="12" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4134,44 +4134,44 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AN6" s="12"/>
       <c r="AO6" s="12"/>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="7" spans="1:46" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D7" s="17" t="b">
         <v>0</v>
@@ -4203,33 +4203,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="R7" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AJ7" s="12" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AK7" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AL7" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AT7" s="39">
         <v>5000</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="8" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D8" s="17" t="b">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>71</v>
@@ -4264,40 +4264,40 @@
         <v>1970</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AL8" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AT8" s="39">
         <v>5000</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="9" spans="1:46" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D9" s="17" t="b">
         <v>0</v>
@@ -4323,38 +4323,38 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="N9" s="12"/>
       <c r="R9" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AL9" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AT9" s="39">
         <v>5000</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="10" spans="1:46" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D10" s="17" t="b">
         <v>1</v>
@@ -4380,47 +4380,47 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L10" s="13">
         <v>1970</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AT10" s="39">
         <v>5000</v>
@@ -4428,13 +4428,13 @@
     </row>
     <row r="11" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D11" s="17" t="b">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>80</v>
@@ -4458,37 +4458,37 @@
         <v>1970</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="P11" s="54">
         <v>100000</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AH11" s="12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AI11" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AK11" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AN11" s="12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AO11" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AT11" s="39">
         <v>5000</v>
@@ -4496,13 +4496,13 @@
     </row>
     <row r="12" spans="1:46" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D12" s="17" t="b">
         <v>0</v>
@@ -4517,27 +4517,27 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="T12" s="12" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AH12" s="12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AK12" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AT12" s="39">
         <v>5000</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="13" spans="1:46" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D13" s="17" t="b">
         <v>0</v>
@@ -4566,28 +4566,28 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="T13" s="12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AT13" s="39">
         <v>5000</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="14" spans="1:46" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D14" s="17" t="b">
         <v>0</v>
@@ -4616,22 +4616,22 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="T14" s="12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF14" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AT14" s="39">
         <v>5000</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="15" spans="1:46" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D15" s="17" t="b">
         <v>1</v>
@@ -4665,25 +4665,25 @@
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF15" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AG15" s="12" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AM15" s="12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AT15" s="39">
         <v>5000</v>
@@ -4691,13 +4691,13 @@
     </row>
     <row r="16" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D16" s="17" t="b">
         <v>1</v>
@@ -4720,29 +4720,29 @@
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" ref="Q16" si="0">LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AT16" s="39">
         <v>5000</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="17" spans="1:46" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D17" s="17" t="b">
         <v>1</v>
@@ -4779,29 +4779,29 @@
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12" t="s">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="14">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AA17" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AL17" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AM17" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AT17" s="39">
         <v>5000</v>
@@ -4809,13 +4809,13 @@
     </row>
     <row r="18" spans="1:46" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D18" s="17" t="b">
         <v>1</v>
@@ -4838,29 +4838,29 @@
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="14">
         <f t="shared" ref="Q18" si="1">LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AM18" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AT18" s="39">
         <v>5000</v>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="19" spans="1:46" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D19" s="17" t="b">
         <v>1</v>
@@ -4897,29 +4897,29 @@
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="14">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AM19" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AT19" s="39">
         <v>5000</v>
@@ -4927,13 +4927,13 @@
     </row>
     <row r="20" spans="1:46" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D20" s="17" t="b">
         <v>0</v>
@@ -4948,16 +4948,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AH20" s="12" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AI20" s="12" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AT20" s="39">
         <v>5000</v>
@@ -4965,11 +4965,11 @@
     </row>
     <row r="21" spans="1:46" s="43" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D21" s="17" t="b">
         <v>1</v>
@@ -4989,7 +4989,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="13"/>
       <c r="M21" s="12" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="17"/>
@@ -5007,20 +5007,20 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG21" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcamac/Dropbox/Projects/CEBRA/edmaps/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8CE92-9EBB-5147-AF21-CD6A6DD35A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B8F98-AF0D-1C4A-8DF1-7551927E4E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="500" windowWidth="28380" windowHeight="21100" activeTab="1" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
+    <workbookView xWindow="10020" yWindow="500" windowWidth="28380" windowHeight="21100" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
   <sheets>
     <sheet name="Global parameters" sheetId="7" r:id="rId1"/>
@@ -39,12 +39,9 @@
   <authors>
     <author>tc={B5A97D6C-3EB5-6940-A766-351C93294C30}</author>
     <author>tc={03D81196-E77D-0F4D-A067-33B2632A711C}</author>
-    <author>tc={0196C33E-8F8E-E84B-9ABD-5D6E98C41E55}</author>
-    <author>tc={08970612-EB31-8641-B619-72C12D702C77}</author>
     <author>tc={52D97D8B-AA8C-7B49-9DAC-3B43BC703016}</author>
     <author>tc={95D4E981-0722-DC45-973F-DAC9CDE6DA9E}</author>
     <author>tc={30BEA44C-71B5-C346-82C3-2AF8168E4B6B}</author>
-    <author>tc={A62E6B1F-E4EB-984E-B747-9546652AB2B8}</author>
     <author>tc={24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}</author>
     <author>tc={1B8A75AC-A9FE-EB43-AD87-1FE8467FBB89}</author>
     <author>tc={54D29E90-6B5C-7E47-B3EC-ABC5E05A1AF6}</author>
@@ -69,23 +66,7 @@
     Insufficient occurrence data</t>
       </text>
     </comment>
-    <comment ref="M2" authorId="2" shapeId="0" xr:uid="{0196C33E-8F8E-E84B-9ABD-5D6E98C41E55}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Very few records of Citrus canker. Decided to use CABI records as approximation data rather than the 50 odd GBIF records</t>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="3" shapeId="0" xr:uid="{08970612-EB31-8641-B619-72C12D702C77}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Need to extra work here. Some records are in USA jurisdictions which don’t have it. Will need to manually remove.</t>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="4" shapeId="0" xr:uid="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +74,7 @@
     Modelled together to overcome potential identification problems</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="5" shapeId="0" xr:uid="{95D4E981-0722-DC45-973F-DAC9CDE6DA9E}">
+    <comment ref="D7" authorId="3" shapeId="0" xr:uid="{95D4E981-0722-DC45-973F-DAC9CDE6DA9E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +82,7 @@
     Too few records to estimate climate suitability</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="6" shapeId="0" xr:uid="{30BEA44C-71B5-C346-82C3-2AF8168E4B6B}">
+    <comment ref="C8" authorId="4" shapeId="0" xr:uid="{30BEA44C-71B5-C346-82C3-2AF8168E4B6B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,15 +90,7 @@
     Note that for fruit flies we have broken up the passenger pathway by resident &amp; tourist. We also add a Torres strait passenger pathway… and because there are two separate food pathways with different establishment parameters we’ve used goods to distribute the second.</t>
       </text>
     </comment>
-    <comment ref="K8" authorId="7" shapeId="0" xr:uid="{A62E6B1F-E4EB-984E-B747-9546652AB2B8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Have added synonyms as per risk maps phase 1</t>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="8" shapeId="0" xr:uid="{24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}">
+    <comment ref="D9" authorId="5" shapeId="0" xr:uid="{24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +98,7 @@
     Too few records for estimating climate</t>
       </text>
     </comment>
-    <comment ref="C11" authorId="9" shapeId="0" xr:uid="{1B8A75AC-A9FE-EB43-AD87-1FE8467FBB89}">
+    <comment ref="C11" authorId="6" shapeId="0" xr:uid="{1B8A75AC-A9FE-EB43-AD87-1FE8467FBB89}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +106,7 @@
     Using the nursery pathway for smuggled budwood (though it is distributed the same as food). Food is used for smuggled curry leaves etc</t>
       </text>
     </comment>
-    <comment ref="C12" authorId="10" shapeId="0" xr:uid="{54D29E90-6B5C-7E47-B3EC-ABC5E05A1AF6}">
+    <comment ref="C12" authorId="7" shapeId="0" xr:uid="{54D29E90-6B5C-7E47-B3EC-ABC5E05A1AF6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +114,7 @@
     Using the nursery pathway for smuggled budwood (though it is distributed the same as food)</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="11" shapeId="0" xr:uid="{8CF3C082-6166-8F42-B7A9-381AB738D432}">
+    <comment ref="C13" authorId="8" shapeId="0" xr:uid="{8CF3C082-6166-8F42-B7A9-381AB738D432}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +122,7 @@
     Some stored product needed to be distributed by residents as opposed to the conventional “food” pathway because of differing establishment probs. This shouldn’t make a difference as both pathways are distributed the same way</t>
       </text>
     </comment>
-    <comment ref="D14" authorId="12" shapeId="0" xr:uid="{5768F99D-9AC8-9B43-BDB9-4E209772FF9A}">
+    <comment ref="D14" authorId="9" shapeId="0" xr:uid="{5768F99D-9AC8-9B43-BDB9-4E209772FF9A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +130,7 @@
     Too few records to reliably estimate climate suitability</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{07597060-6049-9840-92E5-7BD1213CB6F8}">
+    <comment ref="A16" authorId="10" shapeId="0" xr:uid="{07597060-6049-9840-92E5-7BD1213CB6F8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="279">
   <si>
     <t>Citrus Canker</t>
   </si>
@@ -562,25 +535,16 @@
     <t>Defining distribution of host land use</t>
   </si>
   <si>
-    <t>risk_layers/biotic/raw_data/ACLUM/clum_50m1218m.tif</t>
-  </si>
-  <si>
     <t>NVIS raster path</t>
   </si>
   <si>
     <t>Defining distribution of vegetation classes in which the pest might establish</t>
   </si>
   <si>
-    <t>risk_layers/biotic/raw_data/NVIS_5.1/aus5_1e_mvs</t>
-  </si>
-  <si>
     <t>NDVI raster path</t>
   </si>
   <si>
     <t>Optional component of habitat</t>
-  </si>
-  <si>
-    <t>risk_layers/biotic/raw_data/NDVI/NDVI_Oct18_Mar19.grid</t>
   </si>
   <si>
     <t xml:space="preserve">Postcode shapefile path </t>
@@ -612,13 +576,7 @@
     </r>
   </si>
   <si>
-    <t>risk_layers/pathway/raw_data/Containers/postal_areas/POA_2011_AUST.shp</t>
-  </si>
-  <si>
     <t>Containers data path</t>
-  </si>
-  <si>
-    <t>risk_layers/pathway/raw_data/Containers/containers_bypostcode.xls</t>
   </si>
   <si>
     <t>Marine ports data path</t>
@@ -650,9 +608,6 @@
     </r>
   </si>
   <si>
-    <t>risk_layers/pathway/raw_data/Ports/ports.csv</t>
-  </si>
-  <si>
     <t>Fertiliser data path</t>
   </si>
   <si>
@@ -680,9 +635,6 @@
       </rPr>
       <t xml:space="preserve"> pathway)</t>
     </r>
-  </si>
-  <si>
-    <t>risk_layers/pathway/raw_data/Fertiliser/fertiliser2016_17.csv</t>
   </si>
   <si>
     <t>NRM shapefile path</t>
@@ -725,9 +677,6 @@
     </r>
   </si>
   <si>
-    <t>risk_layers/pathway/raw_data/Fertiliser/nrm_regions/NRMR_2016_AUST.shp</t>
-  </si>
-  <si>
     <t>Airport distance penalty (tourists)</t>
   </si>
   <si>
@@ -837,9 +786,6 @@
     <t>Password for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
   </si>
   <si>
-    <t>cebra</t>
-  </si>
-  <si>
     <t>Lymantria dispar japonica, Lymantria dispar</t>
   </si>
   <si>
@@ -1146,9 +1092,6 @@
     <t>Defines wind speed polygons to be rasterised to the coastline</t>
   </si>
   <si>
-    <t>risk_layers/pathway/raw_data/Wind/wind.gpkg</t>
-  </si>
-  <si>
     <t>Food, Nursery, Residents, northwind</t>
   </si>
   <si>
@@ -1218,9 +1161,6 @@
     <t>Apis mellifera</t>
   </si>
   <si>
-    <t>om#V&gt;nzeCa3E^aU2.n8xZLCS</t>
-  </si>
-  <si>
     <t>abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
   </si>
   <si>
@@ -1264,6 +1204,33 @@
   </si>
   <si>
     <t>biotic/citrus_native_hosts_example.tif</t>
+  </si>
+  <si>
+    <t>biotic/raw_data/NVIS_5.1/aus5_1e_mvs</t>
+  </si>
+  <si>
+    <t>biotic/raw_data/NDVI/NDVI_Oct18_Mar19.grid</t>
+  </si>
+  <si>
+    <t>pathway/raw_data/Containers/postal_areas/POA_2011_AUST.gpkg</t>
+  </si>
+  <si>
+    <t>pathway/raw_data/Containers/containers_bypostcode.xls</t>
+  </si>
+  <si>
+    <t>pathway/raw_data/Ports/ports.csv</t>
+  </si>
+  <si>
+    <t>pathway/raw_data/Fertiliser/fertiliser2016_17.csv</t>
+  </si>
+  <si>
+    <t>pathway/raw_data/Fertiliser/nrm_regions/NRMR_2016_AUST.shp</t>
+  </si>
+  <si>
+    <t>pathway/raw_data/Wind/wind.gpkg</t>
+  </si>
+  <si>
+    <t>biotic/raw_data/ACLUM/clum_50m1220m.tif</t>
   </si>
 </sst>
 </file>
@@ -2857,7 +2824,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="James Camac" id="{5FECB3BD-2E80-7D43-8674-E02E36A53731}" userId="James Camac" providerId="None"/>
   <person displayName="Microsoft Office User" id="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" userId="Microsoft Office User" providerId="None"/>
   <person displayName="James Camac" id="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" userId="S::james.camac@unimelb.edu.au::f4070045-96f0-48f7-a1ff-0423c56da654" providerId="AD"/>
   <person displayName="John Baumgartner" id="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" userId="S::john.baumgartner@unimelb.edu.au::64e08097-c003-4539-ab7e-80504fe98ad0" providerId="AD"/>
@@ -3167,12 +3133,6 @@
   <threadedComment ref="D2" dT="2021-04-16T05:14:03.11" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{03D81196-E77D-0F4D-A067-33B2632A711C}">
     <text>Insufficient occurrence data</text>
   </threadedComment>
-  <threadedComment ref="M2" dT="2021-03-23T02:28:08.28" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{0196C33E-8F8E-E84B-9ABD-5D6E98C41E55}">
-    <text>Very few records of Citrus canker. Decided to use CABI records as approximation data rather than the 50 odd GBIF records</text>
-  </threadedComment>
-  <threadedComment ref="N2" dT="2021-03-19T04:28:18.01" personId="{5FECB3BD-2E80-7D43-8674-E02E36A53731}" id="{08970612-EB31-8641-B619-72C12D702C77}">
-    <text>Need to extra work here. Some records are in USA jurisdictions which don’t have it. Will need to manually remove.</text>
-  </threadedComment>
   <threadedComment ref="K3" dT="2020-12-09T03:13:18.71" personId="{6A9DCC67-FBF4-704D-B1D5-757B1F3E3D2F}" id="{52D97D8B-AA8C-7B49-9DAC-3B43BC703016}">
     <text>Modelled together to overcome potential identification problems</text>
   </threadedComment>
@@ -3181,9 +3141,6 @@
   </threadedComment>
   <threadedComment ref="C8" dT="2021-03-23T00:25:42.82" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{30BEA44C-71B5-C346-82C3-2AF8168E4B6B}">
     <text>Note that for fruit flies we have broken up the passenger pathway by resident &amp; tourist. We also add a Torres strait passenger pathway… and because there are two separate food pathways with different establishment parameters we’ve used goods to distribute the second.</text>
-  </threadedComment>
-  <threadedComment ref="K8" dT="2020-10-19T00:39:51.74" personId="{FA70A01E-4BFB-914D-B201-A3FFB558879F}" id="{A62E6B1F-E4EB-984E-B747-9546652AB2B8}">
-    <text>Have added synonyms as per risk maps phase 1</text>
   </threadedComment>
   <threadedComment ref="D9" dT="2021-03-23T00:03:24.66" personId="{DA9BAF45-D29A-2944-A4AB-C22BE1376504}" id="{24C12BAB-7D3D-1D41-A58D-58EA66DA6BBC}">
     <text>Too few records for estimating climate</text>
@@ -3255,7 +3212,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3297,49 +3256,45 @@
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>265</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C7" s="36">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -3347,103 +3302,103 @@
         <v>95</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>101</v>
-      </c>
       <c r="C10" s="30" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C17" s="31">
         <f>LN(0.5)/200</f>
@@ -3452,10 +3407,10 @@
     </row>
     <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C18" s="31">
         <f>LN(0.5)/10</f>
@@ -3571,11 +3526,11 @@
   </sheetPr>
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3626,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>8</v>
@@ -3647,19 +3602,19 @@
         <v>65</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L1" s="50" t="s">
         <v>66</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="N1" s="48" t="s">
         <v>67</v>
@@ -3668,94 +3623,94 @@
         <v>68</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="51" t="s">
         <v>69</v>
       </c>
       <c r="R1" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC1" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="X1" s="48" t="s">
+      <c r="AG1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="AH1" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AI1" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AK1" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AL1" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM1" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AD1" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG1" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH1" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI1" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK1" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL1" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM1" s="48" t="s">
-        <v>164</v>
-      </c>
       <c r="AN1" s="48" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AO1" s="48" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AP1" s="48" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AQ1" s="48" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AR1" s="48" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AS1" s="48" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AT1" s="52" t="s">
         <v>70</v>
@@ -3767,13 +3722,13 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="9" t="b">
         <v>0</v>
@@ -3783,7 +3738,7 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="8"/>
@@ -3796,10 +3751,10 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -3808,10 +3763,10 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
@@ -3820,10 +3775,10 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
@@ -3839,17 +3794,17 @@
     </row>
     <row r="3" spans="1:46" s="41" customFormat="1" ht="86" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D3" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F3" s="11" t="b">
         <v>1</v>
@@ -3858,19 +3813,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L3" s="13">
         <v>1970</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -3887,24 +3842,24 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
@@ -3924,19 +3879,19 @@
     </row>
     <row r="4" spans="1:46" s="41" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D4" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F4" s="11" t="b">
         <v>1</v>
@@ -3948,7 +3903,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="12" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L4" s="13">
         <v>1970</v>
@@ -3964,38 +3919,38 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
@@ -4011,19 +3966,19 @@
     </row>
     <row r="5" spans="1:46" s="41" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D5" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F5" s="11" t="b">
         <v>1</v>
@@ -4037,7 +3992,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="13"/>
       <c r="M5" s="12" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="11"/>
@@ -4049,38 +4004,38 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
@@ -4100,13 +4055,13 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D6" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F6" s="11" t="b">
         <v>1</v>
@@ -4120,10 +4075,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="13"/>
       <c r="M6" s="12" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4134,44 +4089,44 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AN6" s="12"/>
       <c r="AO6" s="12"/>
@@ -4185,16 +4140,16 @@
     </row>
     <row r="7" spans="1:46" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D7" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F7" s="11" t="b">
         <v>1</v>
@@ -4203,33 +4158,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="R7" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AJ7" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AK7" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AL7" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AT7" s="39">
         <v>5000</v>
@@ -4237,16 +4192,16 @@
     </row>
     <row r="8" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D8" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F8" s="11" t="b">
         <v>1</v>
@@ -4255,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>71</v>
@@ -4264,40 +4219,40 @@
         <v>1970</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AL8" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AT8" s="39">
         <v>5000</v>
@@ -4305,16 +4260,16 @@
     </row>
     <row r="9" spans="1:46" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D9" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F9" s="11" t="b">
         <v>1</v>
@@ -4323,38 +4278,38 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N9" s="12"/>
       <c r="R9" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AL9" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AT9" s="39">
         <v>5000</v>
@@ -4362,16 +4317,16 @@
     </row>
     <row r="10" spans="1:46" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D10" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F10" s="11" t="b">
         <v>1</v>
@@ -4380,47 +4335,47 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L10" s="13">
         <v>1970</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AT10" s="39">
         <v>5000</v>
@@ -4428,19 +4383,19 @@
     </row>
     <row r="11" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D11" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F11" s="11" t="b">
         <v>1</v>
@@ -4449,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>80</v>
@@ -4458,37 +4413,37 @@
         <v>1970</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="P11" s="54">
         <v>100000</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AH11" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AI11" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AK11" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AN11" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AO11" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AT11" s="39">
         <v>5000</v>
@@ -4496,19 +4451,19 @@
     </row>
     <row r="12" spans="1:46" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D12" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F12" s="11" t="b">
         <v>1</v>
@@ -4517,27 +4472,27 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="T12" s="12" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AH12" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AK12" s="12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AT12" s="39">
         <v>5000</v>
@@ -4545,16 +4500,16 @@
     </row>
     <row r="13" spans="1:46" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D13" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F13" s="11" t="b">
         <v>0</v>
@@ -4566,28 +4521,28 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="T13" s="12" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AT13" s="39">
         <v>5000</v>
@@ -4595,16 +4550,16 @@
     </row>
     <row r="14" spans="1:46" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D14" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F14" s="11" t="b">
         <v>1</v>
@@ -4616,22 +4571,22 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="T14" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AF14" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AT14" s="39">
         <v>5000</v>
@@ -4639,16 +4594,16 @@
     </row>
     <row r="15" spans="1:46" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D15" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F15" s="11" t="b">
         <v>1</v>
@@ -4665,25 +4620,25 @@
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AF15" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AG15" s="12" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AM15" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AT15" s="39">
         <v>5000</v>
@@ -4691,19 +4646,19 @@
     </row>
     <row r="16" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D16" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F16" s="11" t="b">
         <v>1</v>
@@ -4720,49 +4675,49 @@
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" ref="Q16" si="0">LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AT16" s="39">
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D17" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F17" s="11" t="b">
         <v>1</v>
@@ -4779,29 +4734,29 @@
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="14">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AA17" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL17" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AM17" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AT17" s="39">
         <v>5000</v>
@@ -4809,19 +4764,19 @@
     </row>
     <row r="18" spans="1:46" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D18" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F18" s="11" t="b">
         <v>1</v>
@@ -4838,49 +4793,49 @@
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="14">
         <f t="shared" ref="Q18" si="1">LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AM18" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AT18" s="39">
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D19" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F19" s="11" t="b">
         <v>1</v>
@@ -4897,29 +4852,29 @@
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="14">
         <f>LN(0.5)/1</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AM19" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AT19" s="39">
         <v>5000</v>
@@ -4927,19 +4882,19 @@
     </row>
     <row r="20" spans="1:46" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D20" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F20" s="16" t="b">
         <v>0</v>
@@ -4948,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AH20" s="12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AI20" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AT20" s="39">
         <v>5000</v>
@@ -4965,17 +4920,17 @@
     </row>
     <row r="21" spans="1:46" s="43" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="12" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D21" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F21" s="17" t="b">
         <v>1</v>
@@ -4989,7 +4944,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="13"/>
       <c r="M21" s="12" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="17"/>
@@ -5007,20 +4962,20 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AG21" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
@@ -5914,7 +5869,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcamac/Dropbox/Projects/CEBRA/edmaps/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/packages/edmaps/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B8F98-AF0D-1C4A-8DF1-7551927E4E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C598A-A6D7-B542-B53B-61603A8FA327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="500" windowWidth="28380" windowHeight="21100" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
   <sheets>
     <sheet name="Global parameters" sheetId="7" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="291">
   <si>
     <t>Citrus Canker</t>
   </si>
@@ -1206,31 +1206,67 @@
     <t>biotic/citrus_native_hosts_example.tif</t>
   </si>
   <si>
-    <t>biotic/raw_data/NVIS_5.1/aus5_1e_mvs</t>
-  </si>
-  <si>
-    <t>biotic/raw_data/NDVI/NDVI_Oct18_Mar19.grid</t>
-  </si>
-  <si>
-    <t>pathway/raw_data/Containers/postal_areas/POA_2011_AUST.gpkg</t>
-  </si>
-  <si>
-    <t>pathway/raw_data/Containers/containers_bypostcode.xls</t>
-  </si>
-  <si>
-    <t>pathway/raw_data/Ports/ports.csv</t>
-  </si>
-  <si>
-    <t>pathway/raw_data/Fertiliser/fertiliser2016_17.csv</t>
-  </si>
-  <si>
-    <t>pathway/raw_data/Fertiliser/nrm_regions/NRMR_2016_AUST.shp</t>
-  </si>
-  <si>
-    <t>pathway/raw_data/Wind/wind.gpkg</t>
-  </si>
-  <si>
-    <t>biotic/raw_data/ACLUM/clum_50m1220m.tif</t>
+    <t>Processed data directory</t>
+  </si>
+  <si>
+    <t>data/biotic/raw_data/ACLUM/clum_50m1220m.tif</t>
+  </si>
+  <si>
+    <t>data/biotic/raw_data/NVIS_5.1/aus5_1e_mvs</t>
+  </si>
+  <si>
+    <t>data/biotic/raw_data/NDVI/NDVI_Oct18_Mar19.grid</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Containers/postal_areas/POA_2011_AUST.gpkg</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Containers/containers_bypostcode.xls</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Ports/ports.csv</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Fertiliser/fertiliser2016_17.csv</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Fertiliser/nrm_regions/NRMR_2016_AUST.shp</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Wind/wind.gpkg</t>
+  </si>
+  <si>
+    <t>data/processed</t>
+  </si>
+  <si>
+    <t>Defines directory to be used to store processed datasets. Will be created (recursively) if it does not exist.</t>
+  </si>
+  <si>
+    <t>Population density data path</t>
+  </si>
+  <si>
+    <t>Raster dataset defining population density</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Population2016/pop_density_1000m.tif</t>
+  </si>
+  <si>
+    <t>These paths can be modified (e.g. to refer to updated datasets). However, it is the user's responsibility to ensure that the format/structure of the datasets match that of the datasets in the data repository found at https://github.com/jscamac/edmaps_data_Australia</t>
+  </si>
+  <si>
+    <t>Major airports data path</t>
+  </si>
+  <si>
+    <t>Defines distribution of tourists.</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Major_Airports/MajorAviationTerminals.gdb</t>
+  </si>
+  <si>
+    <t>Tourist beds data path</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Tourist_Beds2016/TourBedsAlbers1km.shp</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1266,6 +1302,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1303,7 +1346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1575,11 +1618,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1771,11 +1888,58 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="137">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1787,13 +1951,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1804,13 +1961,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1823,7 +1973,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1840,21 +2032,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1893,20 +2071,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1924,34 +2088,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2000,20 +2136,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2062,6 +2184,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2124,27 +2274,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2162,6 +2291,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2196,6 +2339,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2213,6 +2370,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2247,307 +2439,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2565,20 +2456,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2589,6 +2466,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2599,6 +2483,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2618,7 +2509,280 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2654,6 +2818,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2674,13 +2859,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2691,6 +2869,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2701,13 +2914,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2728,6 +2934,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2738,55 +2951,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2799,7 +2963,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3210,29 +3374,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38E99D3-8DA3-8747-86C0-5C7DD6918E18}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" style="21" customWidth="1"/>
     <col min="2" max="2" width="33.83203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="21" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>89</v>
       </c>
@@ -3243,7 +3405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>92</v>
       </c>
@@ -3254,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>126</v>
       </c>
@@ -3263,7 +3425,7 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>127</v>
       </c>
@@ -3272,7 +3434,7 @@
       </c>
       <c r="C5" s="36"/>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>134</v>
       </c>
@@ -3283,7 +3445,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>163</v>
       </c>
@@ -3294,7 +3456,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -3302,10 +3464,13 @@
         <v>95</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>96</v>
       </c>
@@ -3313,10 +3478,11 @@
         <v>97</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>98</v>
       </c>
@@ -3324,10 +3490,11 @@
         <v>99</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>100</v>
       </c>
@@ -3335,10 +3502,11 @@
         <v>101</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>102</v>
       </c>
@@ -3346,10 +3514,11 @@
         <v>101</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>103</v>
       </c>
@@ -3357,10 +3526,11 @@
         <v>104</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>105</v>
       </c>
@@ -3368,10 +3538,11 @@
         <v>106</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3379,10 +3550,11 @@
         <v>108</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>230</v>
       </c>
@@ -3390,117 +3562,188 @@
         <v>231</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="59"/>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="59"/>
+    </row>
+    <row r="19" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C20" s="31">
         <f>LN(0.5)/200</f>
         <v>-3.4657359027997266E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C21" s="31">
         <f>LN(0.5)/10</f>
         <v>-6.9314718055994526E-2</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsBlanks" dxfId="132" priority="14">
+  <mergeCells count="1">
+    <mergeCell ref="D8:D19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C8 C22">
+    <cfRule type="containsBlanks" dxfId="15" priority="19">
       <formula>LEN(TRIM(C8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="131" priority="13">
+    <cfRule type="containsBlanks" dxfId="14" priority="18">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="130" priority="12">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="129" priority="9">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>ISBLANK($C$14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="128" priority="8">
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>ISBLANK($C$15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="127" priority="10">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>ISBLANK($C$13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="126" priority="7">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="125" priority="11">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>ISBLANK($C$12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="124" priority="6">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="123" priority="3">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(NOT(ISBLANK($C$5)), ISBLANK($C$4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="121" priority="1">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(NOT(ISBLANK($C$4)), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="23">
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($C$16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($C$18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($C$17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($C$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="28">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to container data" prompt="File path (absolute or relative to the R working directory) to the dataset giving the distribution of containers by postcode." sqref="A12:C12" xr:uid="{14B6D594-9A26-CA42-812B-5C5A86722895}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A15 B15 C15" xr:uid="{8F72518D-BAB7-9142-9736-2536EA27E145}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NRM shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of NRMs (natural resource management areas)." sqref="A15:C15" xr:uid="{8F72518D-BAB7-9142-9736-2536EA27E145}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to fertiliser data" prompt="File path (absolute or relative to the R working directory) to a csv containing information about fertiliser usage by NRM." sqref="A14:C14" xr:uid="{A4241D2D-0D39-E743-B011-0CB2B9A37836}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to marine ports data" prompt="File path (absolute or relative to the R working directory) to a csv containing location information for marine ports." sqref="A13:C13" xr:uid="{44AA65A2-6ACD-0941-B62C-2049F5C7A6C8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to postal areas shapefile" prompt="File path (absolute or relative to the R working directory) to the postal areas shapefile (e.g. the path to POA_2011_AUST.shp)." sqref="A11:C11" xr:uid="{67EF961C-1766-7A4E-B6D7-223B91566EBE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A18:B18" xr:uid="{5FF41043-A82A-944B-945D-E8F2E51EF83B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A17:B17" xr:uid="{33870E04-A8E1-8C4D-9B03-82E0D0B98A9C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="A21:B21" xr:uid="{5FF41043-A82A-944B-945D-E8F2E51EF83B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="A20:B20" xr:uid="{33870E04-A8E1-8C4D-9B03-82E0D0B98A9C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A10:C10" xr:uid="{30D6C85A-9048-7A40-93FE-19DD2761C260}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="C8 B8 A8" xr:uid="{16AA945C-95BC-C34D-8453-8B015EFC9A02}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to CLUM land use raster" prompt="File path (absolute or relative to the R working directory) to the CLUM land use raster dataset. " sqref="A8:C8" xr:uid="{16AA945C-95BC-C34D-8453-8B015EFC9A02}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A3:B3" xr:uid="{AB6F6BFD-04DD-1F47-AB62-6109D668317E}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C3" xr:uid="{14FD865C-56F7-6B42-A0EE-46BC6C1853BC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="C17" xr:uid="{8B7AF34B-747D-A54C-B7BD-111268DFB3AA}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (tourists)" prompt="Parameter controlling the distribution of international tourists passengers around international airport._x000a__x000a_DEFAULT: LN(0.5)/200 (50% of passengers within 200km of airport)" sqref="C20" xr:uid="{8B7AF34B-747D-A54C-B7BD-111268DFB3AA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C18" xr:uid="{74A9AB0E-B263-C746-9077-ED0626B99833}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid airport distance penalty" error="Must be a number less than 0." promptTitle="Distance penalty (Torres)" prompt="Parameter controlling the distribution of Torres Strait passengers around Cairns airport._x000a__x000a_DEFAULT: LN(0.5)/10 (50% of passengers within 10km of Cairns airport)" sqref="C21" xr:uid="{74A9AB0E-B263-C746-9077-ED0626B99833}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C5" xr:uid="{B0433237-8341-1A41-BC52-20A6B784A23C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6 B6" xr:uid="{08117AE8-D292-1842-9E84-80BB8B707392}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A6:B6" xr:uid="{08117AE8-D292-1842-9E84-80BB8B707392}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A5:B5" xr:uid="{AF8327F7-6AB4-254D-A562-85A05BFD02CC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A4:B4" xr:uid="{5C32543D-BB85-AC49-99C0-4C6C3B4358FA}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C6" xr:uid="{3CC3A8BE-AB30-1148-A192-70DE8AE49742}">
@@ -3512,8 +3755,13 @@
       <formula2>1</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="A7:B7" xr:uid="{C15D68A0-98A0-D945-B6A6-B49C736EB3D2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NVIS raster" prompt="File path (absolute or relative to the R working directory) to the NVIS raster dataset. " sqref="C9 B9 A9" xr:uid="{3524C13F-E2D8-534A-BF03-893F08CA0CD9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to Wind shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of wind speed to be associated with coastal regions." sqref="A16 B16 C16" xr:uid="{BBD5346E-86BE-7340-8C47-842D93F62CDA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NVIS raster" prompt="File path (absolute or relative to the R working directory) to the NVIS raster dataset. " sqref="A9:C9" xr:uid="{3524C13F-E2D8-534A-BF03-893F08CA0CD9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to Wind shapefile" prompt="File path (absolute or relative to the R working directory) to a polygon shapefile of wind speed to be associated with coastal regions." sqref="A16:C16" xr:uid="{BBD5346E-86BE-7340-8C47-842D93F62CDA}"/>
+    <dataValidation operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Processed data directory" prompt="Directory to be used to store processed datasets. Will be created (recursively) if it does not exist." sqref="C22" xr:uid="{090147A9-F6E3-F145-829E-0B4325C48E06}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Processed data directory" prompt="Directory to be used to store processed datasets. Will be created (recursively) if it does not exist." sqref="A22:B22" xr:uid="{A64E416C-DC00-8F4F-B265-8C3CB4F65A4B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to pop density raster" prompt="File path (absolute or relative to the R working directory) to a raster dataset of population density." sqref="B17 A17 C17" xr:uid="{97516EE7-5AE3-BA40-B4FE-30351D126FD9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to major airports shapefile" prompt="File path (absolute or relative to the R working directory) to a vector dataset of major airports." sqref="A18 B18 C18" xr:uid="{7F766EEC-2BB4-274A-B124-AF2688D3C6BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to tourist beds shapefile" prompt="File path (absolute or relative to the R working directory) to a vector dataset of tourist beds." sqref="A19 B19 C19" xr:uid="{89A17CD0-617E-FA4E-BA66-7B31ECE8F76F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4995,547 +5243,547 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="120" priority="276">
+    <cfRule type="expression" dxfId="136" priority="276">
       <formula>ISBLANK($K2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="288">
+    <cfRule type="expression" dxfId="135" priority="288">
       <formula>ISBLANK($L2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="118" priority="291">
+    <cfRule type="expression" dxfId="134" priority="291">
       <formula>ISBLANK($C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H1048576 J2:AT1048576">
-    <cfRule type="expression" dxfId="117" priority="4">
+    <cfRule type="expression" dxfId="133" priority="4">
       <formula>ISBLANK($A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="116" priority="290">
+    <cfRule type="expression" dxfId="132" priority="290">
       <formula>ISBLANK($D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="115" priority="292">
+    <cfRule type="expression" dxfId="131" priority="292">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576 J5">
-    <cfRule type="expression" dxfId="114" priority="289">
+    <cfRule type="expression" dxfId="130" priority="289">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O1048576">
-    <cfRule type="expression" dxfId="113" priority="41">
+    <cfRule type="expression" dxfId="129" priority="41">
       <formula>$D2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="112" priority="267">
+    <cfRule type="expression" dxfId="128" priority="267">
       <formula>ISBLANK($A3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="111" priority="268">
+    <cfRule type="expression" dxfId="127" priority="268">
       <formula>$D3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="110" priority="247">
+    <cfRule type="expression" dxfId="126" priority="247">
       <formula>OR(ISBLANK($A5),$D5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5 A5 D5 V5:W5 AB5:AC5 AH5:AI5">
-    <cfRule type="expression" dxfId="109" priority="227">
+    <cfRule type="expression" dxfId="125" priority="227">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="108" priority="243">
+    <cfRule type="expression" dxfId="124" priority="243">
       <formula>ISBLANK($D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="107" priority="245">
+    <cfRule type="expression" dxfId="123" priority="245">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="106" priority="242">
+    <cfRule type="expression" dxfId="122" priority="242">
       <formula>ISBLANK($G5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="105" priority="229">
+    <cfRule type="expression" dxfId="121" priority="229">
       <formula>$D5=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="104" priority="223">
+    <cfRule type="expression" dxfId="120" priority="223">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="103" priority="224">
+    <cfRule type="expression" dxfId="119" priority="224">
       <formula>$D5=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="102" priority="207">
+    <cfRule type="expression" dxfId="118" priority="207">
       <formula>ISBLANK($C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="101" priority="206">
+    <cfRule type="expression" dxfId="117" priority="206">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="100" priority="189">
+    <cfRule type="expression" dxfId="116" priority="189">
       <formula>ISBLANK($A8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="99" priority="190">
+    <cfRule type="expression" dxfId="115" priority="190">
       <formula>$D8=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="98" priority="185">
+    <cfRule type="expression" dxfId="114" priority="185">
       <formula>ISBLANK($A6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="97" priority="186">
+    <cfRule type="expression" dxfId="113" priority="186">
       <formula>$D6=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="96" priority="179">
+    <cfRule type="expression" dxfId="112" priority="179">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="95" priority="177">
+    <cfRule type="expression" dxfId="111" priority="177">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="94" priority="142">
+    <cfRule type="expression" dxfId="110" priority="142">
       <formula>ISBLANK($A10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="93" priority="143">
+    <cfRule type="expression" dxfId="109" priority="143">
       <formula>$D10=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="92" priority="138">
+    <cfRule type="expression" dxfId="108" priority="138">
       <formula>ISBLANK($A7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="91" priority="139">
+    <cfRule type="expression" dxfId="107" priority="139">
       <formula>$D7=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="90" priority="134">
+    <cfRule type="expression" dxfId="106" priority="134">
       <formula>ISBLANK($A11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="89" priority="135">
+    <cfRule type="expression" dxfId="105" priority="135">
       <formula>$D11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="88" priority="130">
+    <cfRule type="expression" dxfId="104" priority="130">
       <formula>ISBLANK($A12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="87" priority="131">
+    <cfRule type="expression" dxfId="103" priority="131">
       <formula>$D12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="86" priority="126">
+    <cfRule type="expression" dxfId="102" priority="126">
       <formula>ISBLANK($A13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="85" priority="127">
+    <cfRule type="expression" dxfId="101" priority="127">
       <formula>$D13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="84" priority="122">
+    <cfRule type="expression" dxfId="100" priority="122">
       <formula>ISBLANK($A14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="83" priority="123">
+    <cfRule type="expression" dxfId="99" priority="123">
       <formula>$D14=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="82" priority="118">
+    <cfRule type="expression" dxfId="98" priority="118">
       <formula>ISBLANK($A15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="81" priority="119">
+    <cfRule type="expression" dxfId="97" priority="119">
       <formula>$D15=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="80" priority="114">
+    <cfRule type="expression" dxfId="96" priority="114">
       <formula>ISBLANK($A16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="79" priority="115">
+    <cfRule type="expression" dxfId="95" priority="115">
       <formula>$D16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="78" priority="110">
+    <cfRule type="expression" dxfId="94" priority="110">
       <formula>ISBLANK($A17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="77" priority="111">
+    <cfRule type="expression" dxfId="93" priority="111">
       <formula>$D17=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="76" priority="106">
+    <cfRule type="expression" dxfId="92" priority="106">
       <formula>ISBLANK($A18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="75" priority="107">
+    <cfRule type="expression" dxfId="91" priority="107">
       <formula>$D18=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="74" priority="102">
+    <cfRule type="expression" dxfId="90" priority="102">
       <formula>ISBLANK($A19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="73" priority="103">
+    <cfRule type="expression" dxfId="89" priority="103">
       <formula>$D19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:AA5">
-    <cfRule type="expression" dxfId="72" priority="93">
+    <cfRule type="expression" dxfId="88" priority="93">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AG5">
-    <cfRule type="expression" dxfId="71" priority="88">
+    <cfRule type="expression" dxfId="87" priority="88">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="70" priority="61">
+    <cfRule type="expression" dxfId="86" priority="61">
       <formula>ISBLANK($A21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="69" priority="62">
+    <cfRule type="expression" dxfId="85" priority="62">
       <formula>$D21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="84" priority="60">
       <formula>ISBLANK($A21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="expression" dxfId="67" priority="56">
+    <cfRule type="expression" dxfId="83" priority="56">
       <formula>ISBLANK($A21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="expression" dxfId="66" priority="57">
+    <cfRule type="expression" dxfId="82" priority="57">
       <formula>$D21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="65" priority="456">
+    <cfRule type="expression" dxfId="81" priority="456">
       <formula>ISBLANK(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="64" priority="475">
+    <cfRule type="expression" dxfId="80" priority="475">
       <formula>$G2=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="476">
+    <cfRule type="expression" dxfId="79" priority="476">
       <formula>ISBLANK($H2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K1048576 M2:M1048576">
-    <cfRule type="expression" dxfId="62" priority="512">
+    <cfRule type="expression" dxfId="78" priority="512">
       <formula>AND(ISBLANK($K2), ISBLANK($M2), ISBLANK($J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="61" priority="519">
+    <cfRule type="expression" dxfId="77" priority="519">
       <formula>NOT(ISNUMBER(SEARCH("residents", $C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF1048576">
-    <cfRule type="expression" dxfId="60" priority="545">
+    <cfRule type="expression" dxfId="76" priority="545">
       <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>ISBLANK($A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>ISBLANK($A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>ISBLANK($G5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="56" priority="614">
+    <cfRule type="expression" dxfId="72" priority="614">
       <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="615">
+    <cfRule type="expression" dxfId="71" priority="615">
       <formula>ISBLANK($S2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK1048576">
-    <cfRule type="expression" dxfId="54" priority="616">
+    <cfRule type="expression" dxfId="70" priority="616">
       <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="617">
+    <cfRule type="expression" dxfId="69" priority="617">
       <formula>ISBLANK($AK2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AO1048576">
-    <cfRule type="expression" dxfId="52" priority="618">
+    <cfRule type="expression" dxfId="68" priority="618">
       <formula>NOT(ISNUMBER(SEARCH("northwind",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="619">
+    <cfRule type="expression" dxfId="67" priority="619">
       <formula>ISBLANK($AO2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AQ1048576">
-    <cfRule type="expression" dxfId="50" priority="620">
+    <cfRule type="expression" dxfId="66" priority="620">
       <formula>NOT(ISNUMBER(SEARCH("pacificwind",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="621">
+    <cfRule type="expression" dxfId="65" priority="621">
       <formula>ISBLANK($AQ2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2:AS1048576">
-    <cfRule type="expression" dxfId="48" priority="622">
+    <cfRule type="expression" dxfId="64" priority="622">
       <formula>NOT(ISNUMBER(SEARCH("nzwind",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="623">
+    <cfRule type="expression" dxfId="63" priority="623">
       <formula>ISBLANK($AS2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="expression" dxfId="46" priority="624">
+    <cfRule type="expression" dxfId="62" priority="624">
       <formula>OR($D2=FALSE, AND(ISBLANK($K2), ISBLANK($M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:U1048576">
-    <cfRule type="expression" dxfId="45" priority="625">
+    <cfRule type="expression" dxfId="61" priority="625">
       <formula>NOT(ISNUMBER(SEARCH("residents",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="626">
+    <cfRule type="expression" dxfId="60" priority="626">
       <formula>ISBLANK($U2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="43" priority="627">
+    <cfRule type="expression" dxfId="59" priority="627">
       <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="628">
+    <cfRule type="expression" dxfId="58" priority="628">
       <formula>ISBLANK($Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC1048576">
-    <cfRule type="expression" dxfId="41" priority="629">
+    <cfRule type="expression" dxfId="57" priority="629">
       <formula>NOT(ISNUMBER(SEARCH("fert", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="630">
+    <cfRule type="expression" dxfId="56" priority="630">
       <formula>ISBLANK($AC2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG1048576">
-    <cfRule type="expression" dxfId="39" priority="631">
+    <cfRule type="expression" dxfId="55" priority="631">
       <formula>NOT(ISNUMBER(SEARCH("container", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="632">
+    <cfRule type="expression" dxfId="54" priority="632">
       <formula>ISBLANK($AG2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="37" priority="633">
+    <cfRule type="expression" dxfId="53" priority="633">
       <formula>NOT(ISNUMBER(SEARCH("wind", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="634">
+    <cfRule type="expression" dxfId="52" priority="634">
       <formula>ISBLANK($P2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="35" priority="635">
+    <cfRule type="expression" dxfId="51" priority="635">
       <formula>NOT(ISNUMBER(SEARCH("tourists",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="636">
+    <cfRule type="expression" dxfId="50" priority="636">
       <formula>ISBLANK($R2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="33" priority="637">
+    <cfRule type="expression" dxfId="49" priority="637">
       <formula>NOT(ISNUMBER(SEARCH("torres", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="638">
+    <cfRule type="expression" dxfId="48" priority="638">
       <formula>ISBLANK($V2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="31" priority="639">
+    <cfRule type="expression" dxfId="47" priority="639">
       <formula>NOT(ISNUMBER(SEARCH("torres", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="640">
+    <cfRule type="expression" dxfId="46" priority="640">
       <formula>ISBLANK($W2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="29" priority="641">
+    <cfRule type="expression" dxfId="45" priority="641">
       <formula>NOT(ISNUMBER(SEARCH("mail", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="642">
+    <cfRule type="expression" dxfId="44" priority="642">
       <formula>ISBLANK($X2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="expression" dxfId="27" priority="643">
+    <cfRule type="expression" dxfId="43" priority="643">
       <formula>NOT(ISNUMBER(SEARCH("mail", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="644">
+    <cfRule type="expression" dxfId="42" priority="644">
       <formula>ISBLANK($Y2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z1048576">
-    <cfRule type="expression" dxfId="25" priority="645">
+    <cfRule type="expression" dxfId="41" priority="645">
       <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="646">
+    <cfRule type="expression" dxfId="40" priority="646">
       <formula>ISBLANK($Z2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA1048576">
-    <cfRule type="expression" dxfId="23" priority="647">
+    <cfRule type="expression" dxfId="39" priority="647">
       <formula>NOT(ISNUMBER(SEARCH("vessels", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="648">
+    <cfRule type="expression" dxfId="38" priority="648">
       <formula>ISBLANK($AA2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB1048576">
-    <cfRule type="expression" dxfId="21" priority="649">
+    <cfRule type="expression" dxfId="37" priority="649">
       <formula>NOT(ISNUMBER(SEARCH("fert",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="650">
+    <cfRule type="expression" dxfId="36" priority="650">
       <formula>ISBLANK($AB2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD1048576">
-    <cfRule type="expression" dxfId="19" priority="651">
+    <cfRule type="expression" dxfId="35" priority="651">
       <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="652">
+    <cfRule type="expression" dxfId="34" priority="652">
       <formula>ISBLANK($AD2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE1048576">
-    <cfRule type="expression" dxfId="17" priority="653">
+    <cfRule type="expression" dxfId="33" priority="653">
       <formula>NOT(ISNUMBER(SEARCH("machine", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="654">
+    <cfRule type="expression" dxfId="32" priority="654">
       <formula>ISBLANK($AE2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH1048576">
-    <cfRule type="expression" dxfId="15" priority="655">
+    <cfRule type="expression" dxfId="31" priority="655">
       <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="656">
+    <cfRule type="expression" dxfId="30" priority="656">
       <formula>ISBLANK($AH2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI1048576">
-    <cfRule type="expression" dxfId="13" priority="657">
+    <cfRule type="expression" dxfId="29" priority="657">
       <formula>NOT(ISNUMBER(SEARCH("nursery", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="658">
+    <cfRule type="expression" dxfId="28" priority="658">
       <formula>ISBLANK($AI2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ1048576">
-    <cfRule type="expression" dxfId="11" priority="659">
+    <cfRule type="expression" dxfId="27" priority="659">
       <formula>NOT(ISNUMBER(SEARCH("food", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="660">
+    <cfRule type="expression" dxfId="26" priority="660">
       <formula>ISBLANK($AJ2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL1048576">
-    <cfRule type="expression" dxfId="9" priority="661">
+    <cfRule type="expression" dxfId="25" priority="661">
       <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="662">
+    <cfRule type="expression" dxfId="24" priority="662">
       <formula>ISBLANK($AL2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AM1048576">
-    <cfRule type="expression" dxfId="7" priority="663">
+    <cfRule type="expression" dxfId="23" priority="663">
       <formula>NOT(ISNUMBER(SEARCH("goods", $C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="664">
+    <cfRule type="expression" dxfId="22" priority="664">
       <formula>ISBLANK($AM2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2:AN1048576">
-    <cfRule type="expression" dxfId="5" priority="665">
+    <cfRule type="expression" dxfId="21" priority="665">
       <formula>NOT(ISNUMBER(SEARCH("northwind",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="666">
+    <cfRule type="expression" dxfId="20" priority="666">
       <formula>ISBLANK($AN2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AP1048576">
-    <cfRule type="expression" dxfId="3" priority="667">
+    <cfRule type="expression" dxfId="19" priority="667">
       <formula>NOT(ISNUMBER(SEARCH("pacificwind",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="668">
+    <cfRule type="expression" dxfId="18" priority="668">
       <formula>ISBLANK($AP2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AR1048576">
-    <cfRule type="expression" dxfId="1" priority="669">
+    <cfRule type="expression" dxfId="17" priority="669">
       <formula>NOT(ISNUMBER(SEARCH("nzwind",$C2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="670">
+    <cfRule type="expression" dxfId="16" priority="670">
       <formula>ISBLANK($AR2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/packages/edmaps/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817A594-CAAB-DD49-BCDC-E3A618AB1033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC6030-EC0E-E14C-9955-841F4E442569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="135">
   <si>
     <t>Citrus Canker</t>
   </si>
@@ -170,18 +170,6 @@
   </si>
   <si>
     <t>110-117, 120-125, 130-134, 210, 220-222, 310-314, 320-338, 340-349, 350-353, 360-365, 410-414, 420-424, 430-439, 440-449, 450-454, 460-465, 510-515, 520-528, 530-538, 540-545, 550-555, 560-567, 570-575, 580-584, 590-595, 610-614, 620-623, 630-633, 640-644, 650-654, 660-663</t>
-  </si>
-  <si>
-    <t>GBIF username</t>
-  </si>
-  <si>
-    <t>GBIF password</t>
-  </si>
-  <si>
-    <t>Username for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
-  </si>
-  <si>
-    <t>Password for authenticated GBIF downloads. This is optional, but is more efficient for large queries.</t>
   </si>
   <si>
     <t>Lymantria dispar japonica, Lymantria dispar</t>
@@ -928,20 +916,9 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -999,9 +976,20 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1405,11 +1393,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE737A-7CDD-D24C-B69F-489918F5C8E0}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1431,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
@@ -1439,21 +1425,21 @@
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="44">
         <v>1000</v>
@@ -1461,13 +1447,13 @@
     </row>
     <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1483,184 +1469,152 @@
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="C8" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D11" s="47"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
     </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
+    <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D9:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(ISBLANK($C$3), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND(ISBLANK($C$4), ISBLANK($C$5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>ISBLANK($C$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(NOT(ISBLANK($C$8)), ISBLANK($C$7))</formula>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>ISBLANK($C$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND(NOT(ISBLANK($C$7)), ISBLANK($C$8))</formula>
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>ISBLANK($C$9)</formula>
+  <conditionalFormatting sqref="C9 C12">
+    <cfRule type="containsBlanks" dxfId="8" priority="12">
+      <formula>LEN(TRIM(C9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11 C14">
-    <cfRule type="containsBlanks" dxfId="2" priority="12">
-      <formula>LEN(TRIM(C11))=0</formula>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>ISBLANK($C$12)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>ISBLANK($C$13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="17">
+  <dataValidations count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Output resolution" prompt="Spatial resolution of outputs. This will override the resolution of a tempate raster, if provided below. Enter a single value, i.e., horizontal resolution must equal vertical resolution." sqref="A4:C4" xr:uid="{A90ADFE1-5D41-E64D-84D1-33456EA8CD47}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Template raster" prompt="Path to a raster file defining the output extent, resolution, and Coordinate Reference System of outputs. If Output resolution and/or Coordinate Reference System are specified above, they will be used in place of the raster's corresponding attributes." sqref="A5:C5" xr:uid="{BC4AAD4F-5F0F-B34C-9013-8108ED21140C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Coordinate reference system" prompt="Define the coordinate reference system (projection) of outputs as an EPSG code. Default is Mollweide (global equal area). See https://projectionwizard.org and https://epsg.io for guidance. This will override the CRS of the template raster (if provided)." sqref="A3:C3" xr:uid="{5AAE6BEA-C593-B74E-851D-4F7F3BCA0A11}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to land use raster" prompt="File path (absolute or relative to the R working directory) to the land use raster dataset. " sqref="A11:C11" xr:uid="{C065FC62-2EB2-7745-9D49-CE87D1DAA229}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to vegetation class raster" prompt="File path (absolute or relative to the R working directory) to the vegetation class raster dataset. " sqref="A12:C12" xr:uid="{DC61A581-1C0C-1A4F-A664-9D47F1851D6F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Processed data directory" prompt="Directory to be used to store processed datasets. Will be created (recursively) if it does not exist." sqref="A14:C14" xr:uid="{7A8D64D8-DAED-8047-8A02-77BFC5102C46}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="A10:B10" xr:uid="{5551A4E7-D518-FA46-B47B-11BEACBD3309}"/>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be a number between 0 and 1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="C10" xr:uid="{2EC6111F-600F-C947-8E18-A1F2DAB839DB}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to land use raster" prompt="File path (absolute or relative to the R working directory) to the land use raster dataset. " sqref="A9:C9" xr:uid="{C065FC62-2EB2-7745-9D49-CE87D1DAA229}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to vegetation class raster" prompt="File path (absolute or relative to the R working directory) to the vegetation class raster dataset. " sqref="A10:C10" xr:uid="{DC61A581-1C0C-1A4F-A664-9D47F1851D6F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Processed data directory" prompt="Directory to be used to store processed datasets. Will be created (recursively) if it does not exist." sqref="A12:C12" xr:uid="{7A8D64D8-DAED-8047-8A02-77BFC5102C46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="A8:B8" xr:uid="{5551A4E7-D518-FA46-B47B-11BEACBD3309}"/>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be a number between 0 and 1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="C8" xr:uid="{2EC6111F-600F-C947-8E18-A1F2DAB839DB}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C7" xr:uid="{D38028ED-82BC-9849-9F8B-366567697BB4}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C9" xr:uid="{3F0B3965-4CB6-8B44-8C48-BC8387D0780B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C7" xr:uid="{3F0B3965-4CB6-8B44-8C48-BC8387D0780B}">
       <formula1>"boundaries,osm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF username" prompt="GBIF username for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A7:B7" xr:uid="{FD0C643F-04C4-D148-9780-278EF840A653}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="A8:B8" xr:uid="{E3419BB0-89D5-A241-999A-9B20029F871D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A9:B9" xr:uid="{2137D998-D258-7341-8143-F5827C46783C}"/>
-    <dataValidation showInputMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="GBIF password" prompt="GBIF password for querying the GBIF API in &quot;download&quot; mode. Go to https://www.gbif.org/ to register. Leave this blank to use GBIF's &quot;search&quot; mode." sqref="C8" xr:uid="{D3C64AEF-B848-544A-B1D9-B92F96FD39F0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A7:B7" xr:uid="{2137D998-D258-7341-8143-F5827C46783C}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C6" xr:uid="{29A5A917-42A1-FA48-BF43-0D0D31D1E9C3}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A6:B6" xr:uid="{DC6BABA3-649A-3642-B4F4-F5BF65DA5D95}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A13:C13" xr:uid="{087AD0AA-D382-B946-9A47-A4BE5E5C03F8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A11:C11" xr:uid="{087AD0AA-D382-B946-9A47-A4BE5E5C03F8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1694,37 +1648,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>6</v>
@@ -1733,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1746,13 +1700,13 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1764,7 +1718,7 @@
     </row>
     <row r="3" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
@@ -1774,47 +1728,47 @@
         <v>34</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J3" s="31">
         <v>1970</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J4" s="27">
         <v>1970</v>
@@ -1826,27 +1780,27 @@
     </row>
     <row r="5" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="31"/>
       <c r="K5" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -1862,27 +1816,27 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="27"/>
       <c r="K6" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
@@ -1890,13 +1844,13 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -1908,7 +1862,7 @@
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
@@ -1916,13 +1870,13 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
@@ -1932,17 +1886,17 @@
         <v>1970</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
@@ -1950,13 +1904,13 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F9" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -1968,7 +1922,7 @@
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="32" t="s">
@@ -1976,31 +1930,31 @@
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J10" s="27">
         <v>1970</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>4</v>
@@ -2010,13 +1964,13 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29" t="s">
@@ -2026,17 +1980,17 @@
         <v>1970</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>4</v>
@@ -2046,11 +2000,11 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -2062,7 +2016,7 @@
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
@@ -2070,11 +2024,11 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -2086,7 +2040,7 @@
     </row>
     <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
@@ -2094,11 +2048,11 @@
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2110,7 +2064,7 @@
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="30" t="s">
@@ -2118,11 +2072,11 @@
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29" t="s">
@@ -2133,14 +2087,14 @@
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>3</v>
@@ -2150,11 +2104,11 @@
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
@@ -2165,14 +2119,14 @@
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>3</v>
@@ -2182,11 +2136,11 @@
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29" t="s">
@@ -2197,14 +2151,14 @@
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>3</v>
@@ -2214,11 +2168,11 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
@@ -2229,14 +2183,14 @@
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="38"/>
     </row>
     <row r="19" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>3</v>
@@ -2246,11 +2200,11 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29" t="s">
@@ -2261,14 +2215,14 @@
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>3</v>
@@ -2278,11 +2232,11 @@
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -2294,7 +2248,7 @@
     </row>
     <row r="21" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="35" t="s">
@@ -2302,17 +2256,17 @@
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="36"/>
       <c r="K21" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -2320,22 +2274,22 @@
     </row>
     <row r="22" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2403,22 +2357,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2426,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="12">
         <v>1.595</v>
@@ -2441,7 +2395,7 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2449,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12">
         <v>20</v>
@@ -2464,7 +2418,7 @@
         <v>1E-4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12">
         <v>20</v>
@@ -2487,15 +2441,15 @@
         <v>1E-4</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12">
         <v>0.05</v>
@@ -2510,15 +2464,15 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12">
         <v>0.01</v>
@@ -2533,15 +2487,15 @@
         <v>0.02</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12">
         <v>0.16500000000000001</v>
@@ -2556,15 +2510,15 @@
         <v>0.05</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" s="12">
         <v>8.6999999999999994E-2</v>
@@ -2579,15 +2533,15 @@
         <v>0.9</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="12">
         <v>0.04</v>
@@ -2602,15 +2556,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" s="12">
         <v>2.8000000000000001E-2</v>
@@ -2625,15 +2579,15 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="12">
         <v>7.0000000000000001E-3</v>
@@ -2648,15 +2602,15 @@
         <v>0.01</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" s="12">
         <v>8.6999999999999994E-2</v>
@@ -2671,15 +2625,15 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="12">
         <v>0.04</v>
@@ -2694,15 +2648,15 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" s="12">
         <v>2.8000000000000001E-2</v>
@@ -2717,15 +2671,15 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C15" s="12">
         <v>7.0000000000000001E-3</v>
@@ -2740,7 +2694,7 @@
         <v>0.01</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2748,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" s="12">
         <v>2</v>
@@ -2763,7 +2717,7 @@
         <v>0.05</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2771,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C17" s="12">
         <v>3</v>
@@ -2786,7 +2740,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2794,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
@@ -2809,7 +2763,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2817,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -2832,7 +2786,7 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2840,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12">
         <v>0.1</v>
@@ -2855,15 +2809,15 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C21" s="12">
         <v>7</v>
@@ -2878,15 +2832,15 @@
         <v>0.01</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C22" s="12">
         <v>3</v>
@@ -2901,15 +2855,15 @@
         <v>0.01</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="12">
         <v>1.4890000000000001</v>
@@ -2924,15 +2878,15 @@
         <v>0.05</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="12">
         <v>0.5</v>
@@ -2947,15 +2901,15 @@
         <v>0.01</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C25" s="12">
         <v>7</v>
@@ -2970,15 +2924,15 @@
         <v>0.01</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="12">
         <v>3</v>
@@ -2993,15 +2947,15 @@
         <v>0.01</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -3016,15 +2970,15 @@
         <v>0.01</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="12">
         <v>1.4890000000000001</v>
@@ -3039,15 +2993,15 @@
         <v>0.05</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C29" s="12">
         <v>0.5</v>
@@ -3062,15 +3016,15 @@
         <v>0.01</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="12">
         <v>7</v>
@@ -3085,15 +3039,15 @@
         <v>0.01</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C31" s="12">
         <v>3</v>
@@ -3108,15 +3062,15 @@
         <v>0.01</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -3131,15 +3085,15 @@
         <v>0.01</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C33" s="12">
         <v>1.4890000000000001</v>
@@ -3154,15 +3108,15 @@
         <v>0.05</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" s="12">
         <v>0.5</v>
@@ -3177,15 +3131,15 @@
         <v>0.01</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C35" s="12">
         <v>7</v>
@@ -3200,15 +3154,15 @@
         <v>0.01</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" s="12">
         <v>3</v>
@@ -3223,15 +3177,15 @@
         <v>0.01</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -3246,15 +3200,15 @@
         <v>0.01</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12">
         <v>1.4890000000000001</v>
@@ -3269,15 +3223,15 @@
         <v>0.05</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="12">
         <v>0.5</v>
@@ -3292,15 +3246,15 @@
         <v>0.01</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="12">
         <v>0.89200000000000002</v>
@@ -3315,15 +3269,15 @@
         <v>0.3</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C41" s="12">
         <v>0.3</v>
@@ -3338,15 +3292,15 @@
         <v>0.3</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C42" s="12">
         <v>5</v>
@@ -3361,15 +3315,15 @@
         <v>0.01</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="12">
         <v>0.3</v>
@@ -3384,15 +3338,15 @@
         <v>0.1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" s="12">
         <v>0.89200000000000002</v>
@@ -3407,15 +3361,15 @@
         <v>0.3</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C45" s="12">
         <v>0.3</v>
@@ -3430,15 +3384,15 @@
         <v>0.3</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="12">
         <v>5</v>
@@ -3453,15 +3407,15 @@
         <v>0.01</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47" s="12">
         <v>6.0119999999999996</v>
@@ -3476,15 +3430,15 @@
         <v>0.02</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C48" s="12">
         <v>14.872</v>
@@ -3499,15 +3453,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="12">
         <v>1.0369999999999999</v>
@@ -3522,15 +3476,15 @@
         <v>0.1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C50" s="12">
         <v>1.7649999999999999</v>
@@ -3545,15 +3499,15 @@
         <v>0.05</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C51" s="12">
         <v>1.488</v>
@@ -3568,15 +3522,15 @@
         <v>0.01</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" s="12">
         <v>10</v>
@@ -3591,15 +3545,15 @@
         <v>1E-3</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="12">
         <v>15.692</v>
@@ -3614,15 +3568,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C54" s="12">
         <v>1.488</v>
@@ -3637,15 +3591,15 @@
         <v>0.01</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C55" s="12">
         <v>10</v>
@@ -3660,15 +3614,15 @@
         <v>1E-3</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C56" s="12">
         <v>15.692</v>
@@ -3683,15 +3637,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -3706,15 +3660,15 @@
         <v>0.05</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C58" s="12">
         <v>0.1</v>
@@ -3729,15 +3683,15 @@
         <v>0.1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59" s="12">
         <v>3.6080000000000001</v>
@@ -3752,15 +3706,15 @@
         <v>0.05</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -3775,15 +3729,15 @@
         <v>0.05</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C61" s="12">
         <v>0.1</v>
@@ -3798,15 +3752,15 @@
         <v>0.1</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C62" s="12">
         <v>3.6080000000000001</v>
@@ -3821,15 +3775,15 @@
         <v>0.05</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
@@ -3844,15 +3798,15 @@
         <v>0.05</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C64" s="12">
         <v>0.1</v>
@@ -3867,15 +3821,15 @@
         <v>0.1</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C65" s="12">
         <v>3.6080000000000001</v>
@@ -3890,15 +3844,15 @@
         <v>0.05</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C66" s="12">
         <v>1</v>
@@ -3913,15 +3867,15 @@
         <v>0.05</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C67" s="12">
         <v>0.1</v>
@@ -3936,15 +3890,15 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C68" s="12">
         <v>3.6080000000000001</v>
@@ -3959,15 +3913,15 @@
         <v>0.05</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C69" s="12">
         <v>1.8879999999999999</v>
@@ -3982,15 +3936,15 @@
         <v>0.2</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C70" s="12">
         <v>0.2</v>
@@ -4005,15 +3959,15 @@
         <v>0.2</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C71" s="12">
         <v>0.04</v>
@@ -4028,15 +3982,15 @@
         <v>0.5</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C72" s="12">
         <v>0.03</v>
@@ -4051,33 +4005,33 @@
         <v>0.5</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(NOT(ISBLANK(A2)),COUNTIFS(A$2:A$1048576,A2,B$2:B$1048576,B2) &gt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(NOT(ISBLANK(A2)),COUNTIFS(A$2:A$1048576,A2,B$2:B$1048576,B2)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576 E2:E1048576">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(NOT(ISBLANK(C2)),NOT(ISBLANK(D2)),C2&gt;D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576 F2:F1048576">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(NOT(ISBLANK(D2)),NOT(ISBLANK(C2)),D2&lt;C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:G1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(NOT(ISBLANK($A2)),ISBLANK(B2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/parameters.xlsx
+++ b/inst/extdata/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbau/projects/packages/edmaps/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC6030-EC0E-E14C-9955-841F4E442569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F5DF8-C4AE-6A4E-B474-F504356B5A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A299D337-5684-394D-A957-3A46518C7947}"/>
   </bookViews>
   <sheets>
     <sheet name="Global parameters" sheetId="12" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="137">
   <si>
     <t>Citrus Canker</t>
   </si>
@@ -211,262 +211,268 @@
     <t>Occurrence csv file</t>
   </si>
   <si>
+    <t>Bee mites (Apis cerana)</t>
+  </si>
+  <si>
+    <t>Carambola fruit fly</t>
+  </si>
+  <si>
+    <t>Oriental fruit fly</t>
+  </si>
+  <si>
+    <t>New Guinea fruit fly</t>
+  </si>
+  <si>
+    <t>Pine sawyer beetle</t>
+  </si>
+  <si>
+    <t>Cicadella viridis (Xylella vector)</t>
+  </si>
+  <si>
+    <t>Xylella fastidiosa</t>
+  </si>
+  <si>
+    <t>Xylella (Graphocephala atropunctata)</t>
+  </si>
+  <si>
+    <t>Xylella (Homalodisca vitripennis)</t>
+  </si>
+  <si>
+    <t>Xylella (Philaenus spumarius)</t>
+  </si>
+  <si>
+    <t>HLB (Asiatic citrus psyllid)</t>
+  </si>
+  <si>
+    <t>HLB (African citrus psyllid)</t>
+  </si>
+  <si>
+    <t>Khapra beetle</t>
+  </si>
+  <si>
+    <t>Melon fruit fly</t>
+  </si>
+  <si>
+    <t>Processed data directory</t>
+  </si>
+  <si>
+    <t>data/biotic/raw_data/NVIS_5.1/aus5_1e_mvs</t>
+  </si>
+  <si>
+    <t>data/biotic/raw_data/NDVI/NDVI_Oct18_Mar19.grid</t>
+  </si>
+  <si>
+    <t>data/processed</t>
+  </si>
+  <si>
+    <t>data/pathway/raw_data/Population2016/pop_density_1000m.tif</t>
+  </si>
+  <si>
+    <t>These paths can be modified (e.g. to refer to updated datasets). However, it is the user's responsibility to ensure that the format/structure of the datasets match that of the datasets in the data repository found at https://github.com/jscamac/edmaps_data_Australia</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/apis_cerana/ApisCerana_DAWE.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/BMSB/bmsb_presences_iprrg.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/BMSB/cabi_halyomorpha halys_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/oriental_fruitfly/cabi_bactrocera_dorsalis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/bactrocera_cucurbitae/cabi_Bactrocera_cucurbitae_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/diaphorina_citri/diaphorinacitri_expertdata.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/diaphorina_citri/cabi_diaphorina_citri_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/monochamus_galloprovincialis/cabi_monochamus_galloprovincialis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/cicadella_viridis/cabi_cicadella_viridis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/graphocephala_atropunctata/cabi_graphocephala_atropunctata_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/homalodisca_vitripennis/cabi_homalodisca_vitripennis_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/abiotic/occurrences/philaenus_spumarius/cabi_philaenus_spumarius_14Dec2020.csv</t>
+  </si>
+  <si>
+    <t>data/biotic/citrus_native_hosts_example.tif</t>
+  </si>
+  <si>
+    <t>data/biotic/raw_data/ACLUM/clum_50m1218m.tif</t>
+  </si>
+  <si>
+    <t>Use NDVI?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Climate suitability raster</t>
+  </si>
+  <si>
+    <t>Host raster</t>
+  </si>
+  <si>
+    <t>Vegetation classes</t>
+  </si>
+  <si>
+    <t>Land use classes</t>
+  </si>
+  <si>
+    <t>Species name</t>
+  </si>
+  <si>
+    <t>Use climate suitability</t>
+  </si>
+  <si>
+    <t>Leakage rate lower</t>
+  </si>
+  <si>
+    <t>Leakage rate upper</t>
+  </si>
+  <si>
+    <t>Viability lower</t>
+  </si>
+  <si>
+    <t>Viability upper</t>
+  </si>
+  <si>
+    <t>Arrival weights (raster)</t>
+  </si>
+  <si>
+    <t>Returning resident</t>
+  </si>
+  <si>
+    <t>Fertiliser</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Vessels</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>Torres passenger</t>
+  </si>
+  <si>
+    <t>Nurserystock</t>
+  </si>
+  <si>
+    <t>North wind</t>
+  </si>
+  <si>
+    <t>Japanese pine sawyer beetle</t>
+  </si>
+  <si>
+    <t>outputs/not_pest_specific/fert_weights.tif</t>
+  </si>
+  <si>
+    <t>outputs/not_pest_specific/vessels_weight.tif</t>
+  </si>
+  <si>
+    <t>outputs/not_pest_specific/containers_weight.tif</t>
+  </si>
+  <si>
+    <t>outputs/not_pest_specific/tourists_weight.tif</t>
+  </si>
+  <si>
+    <t>outputs/not_pest_specific/torres_weight.tif</t>
+  </si>
+  <si>
+    <t>outputs/not_pest_specific/wind_weight.tif</t>
+  </si>
+  <si>
+    <t>Vegetation class raster path</t>
+  </si>
+  <si>
+    <t>Land use class raster path</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Pathway name</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Output resolution</t>
+  </si>
+  <si>
+    <t>Defines the coordinate reference system (projection) of outputs.</t>
+  </si>
+  <si>
+    <t>Defines the resolution (in map units) of outputs.</t>
+  </si>
+  <si>
+    <t>Coordinate reference system (EPSG code)</t>
+  </si>
+  <si>
+    <t>Used to define output coordinate reference system, extent, and resolution. Overrides the coordinate reference system and resolution specified above.</t>
+  </si>
+  <si>
+    <t>Template raster path</t>
+  </si>
+  <si>
+    <t>Defines directory to be used to store processed datasets. Must exist.</t>
+  </si>
+  <si>
+    <t>GBIF username</t>
+  </si>
+  <si>
+    <t>GBIF email address</t>
+  </si>
+  <si>
+    <t>WorldClim resolution</t>
+  </si>
+  <si>
+    <t>Resolution of climate data used when fitting/predicting climate suitability models. Data will be sourced from WorldClim, and projected/resampled to the target coordinate reference system and output resolution specified above.</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
     <t>Bee mites (Apis mellifera)</t>
   </si>
   <si>
-    <t>Bee mites (Apis cerana)</t>
-  </si>
-  <si>
-    <t>Carambola fruit fly</t>
-  </si>
-  <si>
-    <t>Oriental fruit fly</t>
-  </si>
-  <si>
-    <t>New Guinea fruit fly</t>
-  </si>
-  <si>
-    <t>Pine sawyer beetle</t>
-  </si>
-  <si>
-    <t>Cicadella viridis (Xylella vector)</t>
-  </si>
-  <si>
-    <t>Xylella fastidiosa</t>
-  </si>
-  <si>
-    <t>Xylella (Graphocephala atropunctata)</t>
-  </si>
-  <si>
-    <t>Xylella (Homalodisca vitripennis)</t>
-  </si>
-  <si>
-    <t>Xylella (Philaenus spumarius)</t>
-  </si>
-  <si>
-    <t>HLB (Asiatic citrus psyllid)</t>
-  </si>
-  <si>
-    <t>HLB (African citrus psyllid)</t>
-  </si>
-  <si>
-    <t>Khapra beetle</t>
-  </si>
-  <si>
-    <t>Melon fruit fly</t>
-  </si>
-  <si>
     <t>Apis mellifera</t>
   </si>
   <si>
-    <t>Processed data directory</t>
-  </si>
-  <si>
-    <t>data/biotic/raw_data/NVIS_5.1/aus5_1e_mvs</t>
-  </si>
-  <si>
-    <t>data/biotic/raw_data/NDVI/NDVI_Oct18_Mar19.grid</t>
-  </si>
-  <si>
-    <t>data/processed</t>
-  </si>
-  <si>
-    <t>data/pathway/raw_data/Population2016/pop_density_1000m.tif</t>
-  </si>
-  <si>
-    <t>These paths can be modified (e.g. to refer to updated datasets). However, it is the user's responsibility to ensure that the format/structure of the datasets match that of the datasets in the data repository found at https://github.com/jscamac/edmaps_data_Australia</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/gypsy_moth/cabi_Lymantria_dispar_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/apis_cerana/ApisCerana_DAWE.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/BMSB/bmsb_presences_iprrg.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/BMSB/cabi_halyomorpha halys_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/oriental_fruitfly/dorsalis_occurrences.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/oriental_fruitfly/cabi_bactrocera_dorsalis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/bactrocera_cucurbitae/cabi_Bactrocera_cucurbitae_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/diaphorina_citri/diaphorinacitri_expertdata.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/diaphorina_citri/cabi_diaphorina_citri_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/monochamus_galloprovincialis/cabi_monochamus_galloprovincialis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/cicadella_viridis/cabi_cicadella_viridis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/graphocephala_atropunctata/cabi_graphocephala_atropunctata_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/homalodisca_vitripennis/cabi_homalodisca_vitripennis_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/abiotic/occurrences/philaenus_spumarius/cabi_philaenus_spumarius_14Dec2020.csv</t>
-  </si>
-  <si>
-    <t>data/biotic/citrus_native_hosts_example.tif</t>
-  </si>
-  <si>
-    <t>data/biotic/raw_data/ACLUM/clum_50m1218m.tif</t>
-  </si>
-  <si>
-    <t>Use NDVI?</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Climate suitability raster</t>
-  </si>
-  <si>
-    <t>Host raster</t>
-  </si>
-  <si>
-    <t>Vegetation classes</t>
-  </si>
-  <si>
-    <t>Land use classes</t>
-  </si>
-  <si>
-    <t>Species name</t>
-  </si>
-  <si>
-    <t>Use climate suitability</t>
-  </si>
-  <si>
-    <t>Leakage rate lower</t>
-  </si>
-  <si>
-    <t>Leakage rate upper</t>
-  </si>
-  <si>
-    <t>Viability lower</t>
-  </si>
-  <si>
-    <t>Viability upper</t>
-  </si>
-  <si>
-    <t>Arrival weights (raster)</t>
-  </si>
-  <si>
-    <t>Returning resident</t>
-  </si>
-  <si>
-    <t>Fertiliser</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Vessels</t>
-  </si>
-  <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Containers</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>Torres passenger</t>
-  </si>
-  <si>
-    <t>Nurserystock</t>
-  </si>
-  <si>
-    <t>North wind</t>
-  </si>
-  <si>
-    <t>Japanese pine sawyer beetle</t>
-  </si>
-  <si>
-    <t>outputs/not_pest_specific/fert_weights.tif</t>
-  </si>
-  <si>
-    <t>outputs/not_pest_specific/vessels_weight.tif</t>
-  </si>
-  <si>
-    <t>outputs/not_pest_specific/containers_weight.tif</t>
-  </si>
-  <si>
-    <t>outputs/not_pest_specific/tourists_weight.tif</t>
-  </si>
-  <si>
-    <t>outputs/not_pest_specific/torres_weight.tif</t>
-  </si>
-  <si>
-    <t>outputs/not_pest_specific/wind_weight.tif</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Vegetation class raster path</t>
-  </si>
-  <si>
-    <t>Land use class raster path</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Pathway name</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Output resolution</t>
-  </si>
-  <si>
-    <t>Defines the coordinate reference system (projection) of outputs.</t>
-  </si>
-  <si>
-    <t>Defines the resolution (in map units) of outputs.</t>
-  </si>
-  <si>
-    <t>Coordinate reference system (EPSG code)</t>
-  </si>
-  <si>
-    <t>ESRI:54009</t>
-  </si>
-  <si>
-    <t>Used to define output coordinate reference system, extent, and resolution. Overrides the coordinate reference system and resolution specified above.</t>
-  </si>
-  <si>
-    <t>United States, Germany, France, United Kingdom</t>
-  </si>
-  <si>
-    <t>/Users/jbau/projects/packages/edmaps/data/climate_suitability/Oriental_fruit_fly_aust_climsuit_1000.tif</t>
-  </si>
-  <si>
-    <t>Template raster path</t>
-  </si>
-  <si>
-    <t>Defines directory to be used to store processed datasets. Must exist.</t>
+    <t>data/climate_suitability/Oriental_fruit_fly_aust_climsuit_1000.tif</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +897,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -914,7 +914,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -990,6 +1070,46 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1393,14 +1513,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE737A-7CDD-D24C-B69F-489918F5C8E0}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="42" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" customWidth="1"/>
   </cols>
@@ -1417,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
@@ -1425,208 +1545,266 @@
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>129</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="44">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="B8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="43" t="b">
+      <c r="C9" s="43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C10" s="43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C11" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="D9:F11"/>
+    <mergeCell ref="D12:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="16" priority="4">
-      <formula>AND(ISBLANK($C$3), ISBLANK($C$5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>AND(ISBLANK($C$4), ISBLANK($C$5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
-      <formula>LEN(TRIM(C5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>ISBLANK($C$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>ISBLANK($C$7)</formula>
+    <cfRule type="expression" dxfId="23" priority="6">
+      <formula>AND(ISBLANK($C$3), ISBLANK($C$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>ISBLANK($C$8)</formula>
+    <cfRule type="containsBlanks" dxfId="20" priority="3">
+      <formula>LEN(TRIM(C8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C12">
-    <cfRule type="containsBlanks" dxfId="8" priority="12">
-      <formula>LEN(TRIM(C9))=0</formula>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="19" priority="4">
+      <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Output resolution" prompt="Spatial resolution of outputs. This will override the resolution of a tempate raster, if provided below. Enter a single value, i.e., horizontal resolution must equal vertical resolution." sqref="A4:C4" xr:uid="{A90ADFE1-5D41-E64D-84D1-33456EA8CD47}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Template raster" prompt="Path to a raster file defining the output extent, resolution, and Coordinate Reference System of outputs. If Output resolution and/or Coordinate Reference System are specified above, they will be used in place of the raster's corresponding attributes." sqref="A5:C5" xr:uid="{BC4AAD4F-5F0F-B34C-9013-8108ED21140C}"/>
+  <conditionalFormatting sqref="C12 C15">
+    <cfRule type="containsBlanks" dxfId="16" priority="14">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>ISBLANK($C$13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>ISBLANK($C$14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Output resolution" prompt="Spatial resolution of outputs. This will override the resolution of a tempate raster, if provided below. Enter a single value, i.e., horizontal resolution must equal vertical resolution." sqref="A4:C4 A6:C7" xr:uid="{A90ADFE1-5D41-E64D-84D1-33456EA8CD47}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Template raster" prompt="Path to a raster file defining the output extent, resolution, and Coordinate Reference System of outputs. If Output resolution and/or Coordinate Reference System are specified above, they will be used in place of the raster's corresponding attributes." sqref="A8:C8" xr:uid="{BC4AAD4F-5F0F-B34C-9013-8108ED21140C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Coordinate reference system" prompt="Define the coordinate reference system (projection) of outputs as an EPSG code. Default is Mollweide (global equal area). See https://projectionwizard.org and https://epsg.io for guidance. This will override the CRS of the template raster (if provided)." sqref="A3:C3" xr:uid="{5AAE6BEA-C593-B74E-851D-4F7F3BCA0A11}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to land use raster" prompt="File path (absolute or relative to the R working directory) to the land use raster dataset. " sqref="A9:C9" xr:uid="{C065FC62-2EB2-7745-9D49-CE87D1DAA229}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to vegetation class raster" prompt="File path (absolute or relative to the R working directory) to the vegetation class raster dataset. " sqref="A10:C10" xr:uid="{DC61A581-1C0C-1A4F-A664-9D47F1851D6F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Processed data directory" prompt="Directory to be used to store processed datasets. Will be created (recursively) if it does not exist." sqref="A12:C12" xr:uid="{7A8D64D8-DAED-8047-8A02-77BFC5102C46}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="A8:B8" xr:uid="{5551A4E7-D518-FA46-B47B-11BEACBD3309}"/>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be a number between 0 and 1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="C8" xr:uid="{2EC6111F-600F-C947-8E18-A1F2DAB839DB}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to land use raster" prompt="File path (absolute or relative to the R working directory) to the land use raster dataset. " sqref="A12:C12" xr:uid="{C065FC62-2EB2-7745-9D49-CE87D1DAA229}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to vegetation class raster" prompt="File path (absolute or relative to the R working directory) to the vegetation class raster dataset. " sqref="A13:C13" xr:uid="{DC61A581-1C0C-1A4F-A664-9D47F1851D6F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Processed data directory" prompt="Directory to be used to store processed datasets. Will be created (recursively) if it does not exist." sqref="A15:C15" xr:uid="{7A8D64D8-DAED-8047-8A02-77BFC5102C46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="A11:B11" xr:uid="{5551A4E7-D518-FA46-B47B-11BEACBD3309}"/>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be a number between 0 and 1" promptTitle="Minimum probability threshold" prompt="Minimum probability threshold for plotting maps. Values below this threshold will be set to zero for plotting purposes." sqref="C11" xr:uid="{2EC6111F-600F-C947-8E18-A1F2DAB839DB}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C7" xr:uid="{3F0B3965-4CB6-8B44-8C48-BC8387D0780B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be boundaries or osm (i.e., OpenStreetMap)" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="C10" xr:uid="{3F0B3965-4CB6-8B44-8C48-BC8387D0780B}">
       <formula1>"boundaries,osm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A7:B7" xr:uid="{2137D998-D258-7341-8143-F5827C46783C}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C6" xr:uid="{29A5A917-42A1-FA48-BF43-0D0D31D1E9C3}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Basemap mode" prompt="Type of basemap to use for static maps. Either &quot;osm&quot; (OpenStreetMap) or &quot;boundaries&quot; (polygons)." sqref="A10:B10" xr:uid="{2137D998-D258-7341-8143-F5827C46783C}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid response" error="Must be TRUE or FALSE." promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="C9" xr:uid="{29A5A917-42A1-FA48-BF43-0D0D31D1E9C3}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A6:B6" xr:uid="{DC6BABA3-649A-3642-B4F4-F5BF65DA5D95}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A11:C11" xr:uid="{087AD0AA-D382-B946-9A47-A4BE5E5C03F8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make interactive maps?" prompt="Should interactive (html) establishment likelihood maps be produced?" sqref="A9:B9" xr:uid="{DC6BABA3-649A-3642-B4F4-F5BF65DA5D95}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to NDVI raster" prompt="File path (absolute or relative to the R working directory) to the NDVI raster dataset. " sqref="A14:C14" xr:uid="{087AD0AA-D382-B946-9A47-A4BE5E5C03F8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="WorldClim resolution" prompt="Spatial resolution of WorldClim data. Select from available options." sqref="A5:B5" xr:uid="{672B443D-2D67-4843-B4DA-4374ED0F2065}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="WorldClim resolution" prompt="Spatial resolution of WorldClim data. Select from available options." sqref="C5" xr:uid="{C0A39B1E-DD85-D54B-B2E0-D3536CC73AE4}">
+      <formula1>"30 seconds,2.5 minutes,5 minutes,10 minutes"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{B20C3D3A-2037-224B-B3BF-12091F9C4F1D}">
+            <xm:f>AND(COUNTA(Species!I2:I1048576) &gt; 0, ISBLANK($C$6))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{515D1723-BCD0-7549-BEE2-99A1F903D09D}">
+            <xm:f>AND(COUNTA(Species!I2:I1048576) &gt; 0, ISBLANK($C$7))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DF3872-8040-0A45-AED4-6D30278E4A8A}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1648,28 +1826,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>47</v>
@@ -1687,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1700,13 +1878,13 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1728,11 +1906,11 @@
         <v>34</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29" t="s">
@@ -1743,14 +1921,14 @@
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>38</v>
@@ -1760,15 +1938,15 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="J4" s="27">
         <v>1970</v>
@@ -1780,7 +1958,7 @@
     </row>
     <row r="5" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>38</v>
@@ -1790,17 +1968,17 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="31"/>
       <c r="K5" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -1816,27 +1994,27 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="27"/>
       <c r="K6" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
@@ -1844,13 +2022,13 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -1862,7 +2040,7 @@
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
@@ -1870,13 +2048,13 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
@@ -1886,17 +2064,17 @@
         <v>1970</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
@@ -1904,13 +2082,13 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -1922,7 +2100,7 @@
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="32" t="s">
@@ -1930,13 +2108,13 @@
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
@@ -1947,14 +2125,14 @@
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>4</v>
@@ -1964,13 +2142,13 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29" t="s">
@@ -1980,17 +2158,17 @@
         <v>1970</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>4</v>
@@ -2000,11 +2178,11 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -2016,7 +2194,7 @@
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
@@ -2024,11 +2202,11 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -2040,7 +2218,7 @@
     </row>
     <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
@@ -2048,11 +2226,11 @@
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2064,7 +2242,7 @@
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="30" t="s">
@@ -2072,11 +2250,11 @@
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29" t="s">
@@ -2087,14 +2265,14 @@
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>3</v>
@@ -2104,11 +2282,11 @@
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
@@ -2119,14 +2297,14 @@
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>3</v>
@@ -2136,11 +2314,11 @@
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29" t="s">
@@ -2151,14 +2329,14 @@
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>3</v>
@@ -2168,11 +2346,11 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
@@ -2183,14 +2361,14 @@
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="38"/>
     </row>
     <row r="19" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>3</v>
@@ -2200,11 +2378,11 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29" t="s">
@@ -2215,14 +2393,14 @@
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>3</v>
@@ -2232,11 +2410,11 @@
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -2256,53 +2434,30 @@
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="36"/>
       <c r="K21" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="40"/>
     </row>
-    <row r="22" spans="1:14" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E23" s="2"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="17">
+  <dataValidations count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Use NDVI?" prompt="Should relative establishment likelihood be scaled by NDVI as a measure of plant productivity? If not specified, NDVI will not be used." sqref="E1" xr:uid="{7E257CAA-8CC0-A340-B447-5367CF8B862A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Use climate suitability?" prompt="Should relative establishment likelihood be scaled by climatic suitability? If not specified, climatic suitability will not be considered." sqref="G1" xr:uid="{0C8F4E0D-27AA-554C-BBAF-B9F2080199AE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Output resolution (optional)" prompt="Enter a single number defining the output resolution in units of the CRS defined at &quot;Global parameters&quot;. Must be a single value. This will override the resolution specified in the &quot;Global parameters&quot; tab (including if a template raster is supplied)." sqref="N1" xr:uid="{F3720B0D-204E-8340-A38E-13A15677467F}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Species names must be unique" error="Each species name can only occur once in this column. If you need to enter the species more than once, you could distinguish the entries with a suffix (e.g. BMSB 1, BMSB 2)." promptTitle="Species name" prompt="Enter a unique species name." sqref="A1:A1048576" xr:uid="{1A8A2484-F308-084A-B95D-EF4AA6FD4C66}">
-      <formula1>COUNTIF($A:$A,A1)=1</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid year" error="Must be either blank, in which case the default of 1970 is used), or a 4-digit year no later than the current year." promptTitle="Earliest year for GBIF query" prompt="Earliest year (4-digit, 1800 to current) for which occurrence records will be obtained from GBIF. Ignored if column I is blank. " sqref="J1:J1048576" xr:uid="{A67F9B3B-7593-574C-8866-86E075A6CD75}">
       <formula1>AND(ISNUMBER(J1), J1 &lt;= YEAR(TODAY()), LEN(J1)=4)</formula1>
     </dataValidation>
@@ -2320,13 +2475,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Infected countries (optional)" prompt="Either a comma-separated string containing country names (spaces ignored), or a file path (absolute or relative to working directory) to a CABI pest data sheet csv file. _x000a__x000a_If provided, occurrence records are constrained to these countries." sqref="L1:L1048576" xr:uid="{90363BEF-37F4-A143-A7C3-D66B0E3DA222}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excluded BIOCLIM vars (optional)" prompt="Comma-separated BIOCLIM variables to exclude from range bagging model (e.g. bio01,bio02,bio11,bio19) when climate suitability is estimated. By default, all variables are used. Ignored if &quot;Climate suitability raster&quot; is provided at column H." sqref="M1:M1048576" xr:uid="{061FE79F-8502-FB46-81BC-44BF0D550D15}"/>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid land use classes" error="May only contain: numerals (0 through 9), hyphen (&quot;-&quot;), and comma (&quot;,&quot;)." promptTitle="Suitable land use classes" prompt="Comma-separated land use class numbers, corresponding to the land use raster defined in the &quot;Global parameters&quot; worksheet. Ranges can be defined with a hyphen, e.g.: &quot;1, 20-25, 30&quot; is equivalent to &quot;1, 20, 21, 22, 23, 24, 25, 30&quot;. Spaces ignored. Unioned " sqref="C1:C1048576" xr:uid="{00D007D3-3FA6-E34C-98F6-4CF0D16B9D95}">
-      <formula1>ISNUMBER(SUMPRODUCT(SEARCH("~"&amp;MID(C1,ROW($1:$2997),1),"0123456789 ,-")))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid vegetation classes" error="May only contain: numerals (0 through 9), hyphen (&quot;-&quot;), and comma (&quot;,&quot;)." promptTitle="Suitable vegetation classes" prompt="Comma-separated vegetation class numbers, corresponding to the vagetation class raster defined in the &quot;Global parameters&quot; worksheet. Ranges can be defined with a hyphen, e.g.: &quot;1, 20-25, 30&quot; is equivalent to &quot;1, 20, 21, 22, 23, 24, 25, 30&quot;. Spaces ignored" sqref="D1:D1048576" xr:uid="{12AB12C3-DF4C-AE42-9ABD-D28288D753FD}">
-      <formula1>ISNUMBER(SUMPRODUCT(SEARCH("~"&amp;MID(C1,ROW($1:$2997),1),"0123456789 ,-")))</formula1>
+      <formula1>ISNUMBER(SUMPRODUCT(SEARCH("~"&amp;MID(C1,ROW($1:$2996),1),"0123456789 ,-")))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid resolution" error="Enter a single number." promptTitle="Output resolution (optional)" prompt="Enter a single number defining the output resolution in units of the CRS defined at &quot;Global parameters&quot;. Must be a single value. This will override the resolution specified in the &quot;Global parameters&quot; tab (including if a template raster is supplied)." sqref="N2:N1048576" xr:uid="{FB03172F-A5A2-A14B-ABA7-CB71F634FE0A}">
       <formula1>ISNUMBER(N2)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Species names must be unique" error="Each species name can only occur once in this column. If you need to enter the species more than once, you could distinguish the entries with a suffix (e.g. BMSB 1, BMSB 2)." promptTitle="Species name" prompt="Enter a unique species name." sqref="A1:A1048576" xr:uid="{1A8A2484-F308-084A-B95D-EF4AA6FD4C66}">
+      <formula1>COUNTIF($A:$A,A1)=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid vegetation classes" error="May only contain: numerals (0 through 9), hyphen (&quot;-&quot;), and comma (&quot;,&quot;)." promptTitle="Suitable vegetation classes" prompt="Comma-separated vegetation class numbers, corresponding to the vagetation class raster defined in the &quot;Global parameters&quot; worksheet. Ranges can be defined with a hyphen, e.g.: &quot;1, 20-25, 30&quot; is equivalent to &quot;1, 20, 21, 22, 23, 24, 25, 30&quot;. Spaces ignored" sqref="D1:D1048576" xr:uid="{12AB12C3-DF4C-AE42-9ABD-D28288D753FD}">
+      <formula1>ISNUMBER(SUMPRODUCT(SEARCH("~"&amp;MID(C1,ROW($1:$2996),1),"0123456789 ,-")))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ACEFBA-62FC-F844-98A7-98CB731D18DF}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2357,22 +2515,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2380,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="12">
         <v>1.595</v>
@@ -2395,7 +2553,7 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2403,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="12">
         <v>20</v>
@@ -2418,7 +2576,7 @@
         <v>1E-4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2426,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="12">
         <v>20</v>
@@ -2441,7 +2599,7 @@
         <v>1E-4</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2449,7 +2607,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12">
         <v>0.05</v>
@@ -2464,7 +2622,7 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,7 +2630,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="12">
         <v>0.01</v>
@@ -2487,7 +2645,7 @@
         <v>0.02</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2495,7 +2653,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="12">
         <v>0.16500000000000001</v>
@@ -2510,15 +2668,15 @@
         <v>0.05</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="12">
         <v>8.6999999999999994E-2</v>
@@ -2533,15 +2691,15 @@
         <v>0.9</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="12">
         <v>0.04</v>
@@ -2556,15 +2714,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="12">
         <v>2.8000000000000001E-2</v>
@@ -2579,15 +2737,15 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="12">
         <v>7.0000000000000001E-3</v>
@@ -2602,15 +2760,15 @@
         <v>0.01</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="12">
         <v>8.6999999999999994E-2</v>
@@ -2625,15 +2783,15 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="12">
         <v>0.04</v>
@@ -2648,15 +2806,15 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="12">
         <v>2.8000000000000001E-2</v>
@@ -2671,15 +2829,15 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="12">
         <v>7.0000000000000001E-3</v>
@@ -2694,7 +2852,7 @@
         <v>0.01</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2702,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="12">
         <v>2</v>
@@ -2717,7 +2875,7 @@
         <v>0.05</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2725,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="12">
         <v>3</v>
@@ -2740,7 +2898,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2748,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
@@ -2763,7 +2921,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2771,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -2786,7 +2944,7 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2794,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="12">
         <v>0.1</v>
@@ -2809,15 +2967,15 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="12">
         <v>7</v>
@@ -2832,15 +2990,15 @@
         <v>0.01</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="12">
         <v>3</v>
@@ -2855,15 +3013,15 @@
         <v>0.01</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="12">
         <v>1.4890000000000001</v>
@@ -2878,15 +3036,15 @@
         <v>0.05</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="12">
         <v>0.5</v>
@@ -2901,15 +3059,15 @@
         <v>0.01</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="12">
         <v>7</v>
@@ -2924,15 +3082,15 @@
         <v>0.01</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="12">
         <v>3</v>
@@ -2947,15 +3105,15 @@
         <v>0.01</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -2970,15 +3128,15 @@
         <v>0.01</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12">
         <v>1.4890000000000001</v>
@@ -2993,15 +3151,15 @@
         <v>0.05</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="12">
         <v>0.5</v>
@@ -3016,15 +3174,15 @@
         <v>0.01</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="12">
         <v>7</v>
@@ -3039,15 +3197,15 @@
         <v>0.01</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="12">
         <v>3</v>
@@ -3062,15 +3220,15 @@
         <v>0.01</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -3085,15 +3243,15 @@
         <v>0.01</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="12">
         <v>1.4890000000000001</v>
@@ -3108,15 +3266,15 @@
         <v>0.05</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="12">
         <v>0.5</v>
@@ -3131,15 +3289,15 @@
         <v>0.01</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="12">
         <v>7</v>
@@ -3154,15 +3312,15 @@
         <v>0.01</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="12">
         <v>3</v>
@@ -3177,15 +3335,15 @@
         <v>0.01</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -3200,15 +3358,15 @@
         <v>0.01</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="12">
         <v>1.4890000000000001</v>
@@ -3223,15 +3381,15 @@
         <v>0.05</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="12">
         <v>0.5</v>
@@ -3246,15 +3404,15 @@
         <v>0.01</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="12">
         <v>0.89200000000000002</v>
@@ -3269,15 +3427,15 @@
         <v>0.3</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="12">
         <v>0.3</v>
@@ -3292,15 +3450,15 @@
         <v>0.3</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" s="12">
         <v>5</v>
@@ -3315,15 +3473,15 @@
         <v>0.01</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="12">
         <v>0.3</v>
@@ -3338,15 +3496,15 @@
         <v>0.1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="12">
         <v>0.89200000000000002</v>
@@ -3361,15 +3519,15 @@
         <v>0.3</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" s="12">
         <v>0.3</v>
@@ -3384,15 +3542,15 @@
         <v>0.3</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="12">
         <v>5</v>
@@ -3407,15 +3565,15 @@
         <v>0.01</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="12">
         <v>6.0119999999999996</v>
@@ -3430,15 +3588,15 @@
         <v>0.02</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="12">
         <v>14.872</v>
@@ -3453,15 +3611,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="12">
         <v>1.0369999999999999</v>
@@ -3476,15 +3634,15 @@
         <v>0.1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="12">
         <v>1.7649999999999999</v>
@@ -3499,15 +3657,15 @@
         <v>0.05</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" s="12">
         <v>1.488</v>
@@ -3522,15 +3680,15 @@
         <v>0.01</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="12">
         <v>10</v>
@@ -3545,15 +3703,15 @@
         <v>1E-3</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="12">
         <v>15.692</v>
@@ -3568,15 +3726,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="12">
         <v>1.488</v>
@@ -3591,15 +3749,15 @@
         <v>0.01</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="12">
         <v>10</v>
@@ -3614,15 +3772,15 @@
         <v>1E-3</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" s="12">
         <v>15.692</v>
@@ -3637,15 +3795,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -3660,15 +3818,15 @@
         <v>0.05</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" s="12">
         <v>0.1</v>
@@ -3683,15 +3841,15 @@
         <v>0.1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="12">
         <v>3.6080000000000001</v>
@@ -3706,15 +3864,15 @@
         <v>0.05</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -3729,15 +3887,15 @@
         <v>0.05</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C61" s="12">
         <v>0.1</v>
@@ -3752,15 +3910,15 @@
         <v>0.1</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="12">
         <v>3.6080000000000001</v>
@@ -3775,15 +3933,15 @@
         <v>0.05</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
@@ -3798,15 +3956,15 @@
         <v>0.05</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" s="12">
         <v>0.1</v>
@@ -3821,15 +3979,15 @@
         <v>0.1</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" s="12">
         <v>3.6080000000000001</v>
@@ -3844,15 +4002,15 @@
         <v>0.05</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" s="12">
         <v>1</v>
@@ -3867,15 +4025,15 @@
         <v>0.05</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C67" s="12">
         <v>0.1</v>
@@ -3890,15 +4048,15 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="12">
         <v>3.6080000000000001</v>
@@ -3913,15 +4071,15 @@
         <v>0.05</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="12">
         <v>1.8879999999999999</v>
@@ -3936,15 +4094,15 @@
         <v>0.2</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="12">
         <v>0.2</v>
@@ -3959,7 +4117,7 @@
         <v>0.2</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3967,7 +4125,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C71" s="12">
         <v>0.04</v>
@@ -3982,7 +4140,7 @@
         <v>0.5</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3990,7 +4148,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="12">
         <v>0.03</v>
@@ -4005,34 +4163,73 @@
         <v>0.5</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="A2:A11 A13:A1048576">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>AND(NOT(ISBLANK(A2)),COUNTIFS(A$2:A$1048576,A2,B$2:B$1048576,B2) &gt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="B2:B11 B13:B1048576">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>AND(NOT(ISBLANK(A2)),COUNTIFS(A$2:A$1048576,A2,B$2:B$1048576,B2)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576 E2:E1048576">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="C2:C7 E2:E7 E13:E1048576 C13:C1048576">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(NOT(ISBLANK(C2)),NOT(ISBLANK(D2)),C2&gt;D2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576 F2:F1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="D2:D7 F2:F7 F13:F1048576 D13:D1048576">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(NOT(ISBLANK(D2)),NOT(ISBLANK(C2)),D2&lt;C2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B2:G7 B13:G1048576">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>AND(NOT(ISBLANK($A2)),ISBLANK(B2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C11 E8:E11">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(NOT(ISBLANK(C8)),NOT(ISBLANK(D8)),C8&gt;D8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D11 F8:F11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(NOT(ISBLANK(D8)),NOT(ISBLANK(C8)),D8&lt;C8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G11">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(NOT(ISBLANK($A8)),ISBLANK(B8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(NOT(ISBLANK(A12)),COUNTIFS(A$2:A$1048576,A12,B$2:B$1048576,B12) &gt; 1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(NOT(ISBLANK(A12)),COUNTIFS(A$2:A$1048576,A12,B$2:B$1048576,B12)&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12 E12">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(NOT(ISBLANK(C12)),NOT(ISBLANK(D12)),C12&gt;D12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12 F12">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(NOT(ISBLANK(D12)),NOT(ISBLANK(C12)),D12&lt;C12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:G12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(NOT(ISBLANK($A12)),ISBLANK(B12))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
@@ -4046,6 +4243,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pathway name" prompt="Enter a name for the biosecurity pathway. This name will be used in filenames and objects generated by the edmaps R package. Pathway names cannot be duplicated for a given species." sqref="B1" xr:uid="{5197A08A-8999-AB46-8730-855841E8CC82}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lower estimate of leakage rate" prompt="Enter the lower estimate (2.5th percentile) of the hazard's leakage rate. Cannot be greater than column D (upper estimate of leakage rate)." sqref="C1" xr:uid="{E67DB015-C3BB-FE47-BD92-D8BCE162651C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lower estimate of viability rate" prompt="Enter the lower estimate (2.5th percentile) of the hazard's viability rate. Cannot be greater than column F (upper estimate of viability rate)." sqref="E1" xr:uid="{3B23796C-73CB-5440-92F9-0462BC6AD1DB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Arrival weights raster path" prompt="Path to a raster file describing the relative likelihood of the biosecurity hazard arriving at a cell (assuming a leakage event)." sqref="G1:G1048576" xr:uid="{060FD0D3-723D-3448-A1AC-42D3F9945AC3}"/>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicated pathway" error="Pathway name cannot be duplicated within species." promptTitle="Pathway name" prompt="Enter a name for the biosecurity pathway. This name will be used in filenames and objects generated by the edmaps R package. Pathway names cannot be duplicated for a given species." sqref="B2:B1048576" xr:uid="{FD4995E4-EE95-8F41-9C2D-46BFF18C6EC6}">
       <formula1>COUNTIFS(A$2:A$1048576,A2,B$2:B$1048576,B2)=1</formula1>
     </dataValidation>
@@ -4064,14 +4262,13 @@
       <formula1>E2</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Arrival weights raster path" prompt="Path to a raster file describing the relative likelihood of the biosecurity hazard arriving at a cell (assuming a leakage event)." sqref="G1:G1048576" xr:uid="{060FD0D3-723D-3448-A1AC-42D3F9945AC3}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0400-000001000000}">
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0400-000001000000}">
             <xm:f>AND(NOT(ISBLANK($A2)), ISERROR(VLOOKUP(A2,_xlfn.ANCHORARRAY(species_set!$A$2), 1, FALSE)))</xm:f>
             <x14:dxf>
               <font>
@@ -4084,7 +4281,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A2:A7 A13:A1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4094,7 +4291,7 @@
           <x14:formula1>
             <xm:f>_xlfn.ANCHORARRAY(species_set!$A$2)</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A2:A7 A13:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4104,7 +4301,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B2994-F348-FB43-AA88-713929604D2E}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -4122,7 +4319,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A22">_xlfn._xlws.FILTER(species,species&lt;&gt;"")</f>
+        <f t="array" ref="A2:A21">_xlfn._xlws.FILTER(species,species&lt;&gt;"")</f>
         <v>Citrus Canker</v>
       </c>
     </row>
@@ -4219,11 +4416,6 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>Asian Honey Bee</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <v>test</v>
       </c>
     </row>
   </sheetData>
